--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,140 +405,140 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>前端开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.6-1万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G2" t="str">
-        <v>12-12发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DCLOUD工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B3" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G3" t="str">
-        <v>12-12发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>12-12发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
         <v>0.8-1.5万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州优碧科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G5" t="str">
-        <v>12-12发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>星际线工业软件（上海）有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E6" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F6" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G6" t="str">
-        <v>12-12发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>web前端/h5</v>
       </c>
       <c r="B7" t="str">
-        <v>1.2-4万/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>深圳市捷兴电子商务有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>12-12发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="8">
@@ -546,22 +546,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>12-12发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="9">
@@ -584,30 +584,30 @@
         <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G9" t="str">
-        <v>12-12发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G10" t="str">
-        <v>12-12发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="11">
@@ -615,275 +615,275 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6-9千/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G11" t="str">
-        <v>12-12发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android软件开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B12" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G12" t="str">
-        <v>12-11发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>web前端/h5</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C13" t="str">
-        <v>深圳市捷兴电子商务有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G13" t="str">
-        <v>12-11发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Java高级开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E14" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F14" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G14" t="str">
-        <v>12-11发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G15" t="str">
-        <v>12-11发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>5.5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C16" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南迈科路重工科技有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G16" t="str">
-        <v>12-11发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B17" t="str">
-        <v>6-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南迈科路重工科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G17" t="str">
-        <v>12-11发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B18" t="str">
-        <v>1-1.5万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C18" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G18" t="str">
-        <v>12-11发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android 开发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>5-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E19" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F19" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G19" t="str">
-        <v>12-11发布</v>
+        <v>12-14发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>星际线工业软件（上海）有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>12-11发布</v>
+        <v>12-13发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>UI设计</v>
+        <v>软件工程师 (智能座舱架构方向)</v>
       </c>
       <c r="B21" t="str">
-        <v>1.8-4万/月</v>
+        <v>35-50万/年</v>
       </c>
       <c r="C21" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>郑州精益达汽车零部件有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
       </c>
       <c r="G21" t="str">
-        <v>12-11发布</v>
+        <v>12-13发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>安卓开发工程师国定节假日福利+保险）</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1.3-1.8万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>河南煋谷网络科技有限公司</v>
+        <v>北京硬盒科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G22" t="str">
-        <v>12-11发布</v>
+        <v>12-13发布</v>
       </c>
     </row>
     <row r="23">
@@ -891,65 +891,65 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.6-1.1万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C23" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G23" t="str">
-        <v>12-11发布</v>
+        <v>12-13发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B24" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C24" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>12-11发布</v>
+        <v>12-12发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G25" t="str">
         <v>12-11发布</v>
@@ -960,19 +960,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>7-9千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G26" t="str">
         <v>12-11发布</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>软件工程师 (智能座舱架构方向)</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>35-50万/年</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州精益达汽车零部件有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G27" t="str">
         <v>12-11发布</v>
@@ -1009,108 +1009,108 @@
         <v>0.8-1.5万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州优碧科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G28" t="str">
-        <v>12-10发布</v>
+        <v>12-11发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计</v>
       </c>
       <c r="B29" t="str">
-        <v>6-8千/月</v>
+        <v>1.8-4万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G29" t="str">
-        <v>12-10发布</v>
+        <v>12-11发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Android开发（上海出差）</v>
+        <v>安卓开发工程师国定节假日福利+保险）</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南煋谷网络科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="E30" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="F30" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="G30" t="str">
-        <v>12-10发布</v>
+        <v>12-11发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>.NET(C#)中级软件开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.1万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>北京恳维科技有限公司</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G31" t="str">
-        <v>12-10发布</v>
+        <v>12-11发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>Android开发（上海出差）</v>
       </c>
       <c r="B32" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
         <v>12-10发布</v>
@@ -1118,68 +1118,68 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android开发工程师</v>
+        <v>.NET(C#)中级软件开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>北京恳维科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G33" t="str">
-        <v>12-09发布</v>
+        <v>12-10发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B34" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G34" t="str">
-        <v>12-09发布</v>
+        <v>12-10发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>30-60万/年</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G35" t="str">
         <v>12-09发布</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B36" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>广东易臣信息技术有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G36" t="str">
         <v>12-09发布</v>
@@ -1210,25 +1210,25 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android资深发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B37" t="str">
-        <v>1.5-2万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C37" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G37" t="str">
-        <v>12-08发布</v>
+        <v>12-09发布</v>
       </c>
     </row>
     <row r="38">
@@ -1236,42 +1236,42 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州启程教育科技有限公司</v>
+        <v>广东易臣信息技术有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G38" t="str">
-        <v>12-08发布</v>
+        <v>12-09发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>8-12K招Android\安卓 开发工程师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G39" t="str">
         <v>12-08发布</v>
@@ -1279,91 +1279,91 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B40" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州启程教育科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G40" t="str">
-        <v>12-05发布</v>
+        <v>12-08发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android高级开发工程师</v>
+        <v>8-12K招Android\安卓 开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>3-6千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G41" t="str">
-        <v>12-04发布</v>
+        <v>12-08发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>IM客户端主程</v>
+        <v>UI设计师</v>
       </c>
       <c r="B42" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>北京捷迅佳音科技有限公司郑州分公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G42" t="str">
-        <v>12-02发布</v>
+        <v>12-05发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>IM客户端主程</v>
       </c>
       <c r="B43" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>北京捷迅佳音科技有限公司郑州分公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G43" t="str">
         <v>12-02发布</v>
@@ -1553,9 +1553,1113 @@
         <v>11-28发布</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B52" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C52" t="str">
+        <v>河南商蒙软件科技有限公司</v>
+      </c>
+      <c r="D52" t="str">
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E52" t="str">
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F52" t="str">
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G52" t="str">
+        <v>11-27发布</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B53" t="str">
+        <v>0.6-1万/月</v>
+      </c>
+      <c r="C53" t="str">
+        <v>河南九域腾龙信息工程有限公司</v>
+      </c>
+      <c r="D53" t="str">
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E53" t="str">
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F53" t="str">
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G53" t="str">
+        <v>11-25发布</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B54" t="str">
+        <v>1.5-2万/月</v>
+      </c>
+      <c r="C54" t="str">
+        <v>协同网络股份有限公司</v>
+      </c>
+      <c r="D54" t="str">
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="E54" t="str">
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="F54" t="str">
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="G54" t="str">
+        <v>11-25发布</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>测试工程师（制造产品软件测试）</v>
+      </c>
+      <c r="B55" t="str">
+        <v>5-8千/月</v>
+      </c>
+      <c r="C55" t="str">
+        <v>北京合众思壮科技股份有限公司</v>
+      </c>
+      <c r="D55" t="str">
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="E55" t="str">
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="F55" t="str">
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="G55" t="str">
+        <v>11-25发布</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>FAE现场工程师</v>
+      </c>
+      <c r="B56" t="str">
+        <v>0.6-1.2万/月</v>
+      </c>
+      <c r="C56" t="str">
+        <v>广东九联科技股份有限公司</v>
+      </c>
+      <c r="D56" t="str">
+        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="E56" t="str">
+        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="F56" t="str">
+        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="G56" t="str">
+        <v>11-25发布</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Android 开发安卓工程师</v>
+      </c>
+      <c r="B57" t="str">
+        <v>0.8-1万/月</v>
+      </c>
+      <c r="C57" t="str">
+        <v>河南恒辉房地产顾问有限公司</v>
+      </c>
+      <c r="D57" t="str">
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+      </c>
+      <c r="E57" t="str">
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+      </c>
+      <c r="F57" t="str">
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+      </c>
+      <c r="G57" t="str">
+        <v>11-24发布</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>软件测试（双休+补贴）</v>
+      </c>
+      <c r="B58" t="str">
+        <v>4.5-6千/月</v>
+      </c>
+      <c r="C58" t="str">
+        <v>成都红耀科技有限公司</v>
+      </c>
+      <c r="D58" t="str">
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+      </c>
+      <c r="E58" t="str">
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+      </c>
+      <c r="F58" t="str">
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+      </c>
+      <c r="G58" t="str">
+        <v>11-23发布</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Java开发工程师</v>
+      </c>
+      <c r="B59" t="str">
+        <v>15-30万/年</v>
+      </c>
+      <c r="C59" t="str">
+        <v>郑州宇通客车股份有限公司</v>
+      </c>
+      <c r="D59" t="str">
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E59" t="str">
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F59" t="str">
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G59" t="str">
+        <v>11-21发布</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>C++开发工程师</v>
+      </c>
+      <c r="B60" t="str">
+        <v>1-2万/月</v>
+      </c>
+      <c r="C60" t="str">
+        <v>河南华景乐游电子科技有限公司</v>
+      </c>
+      <c r="D60" t="str">
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E60" t="str">
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F60" t="str">
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G60" t="str">
+        <v>11-20发布</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B61" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C61" t="str">
+        <v>云计划软件科技（上海）有限公司</v>
+      </c>
+      <c r="D61" t="str">
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E61" t="str">
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F61" t="str">
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G61" t="str">
+        <v>11-18发布</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>美工招聘</v>
+      </c>
+      <c r="B62" t="str">
+        <v>0.5-1万/月</v>
+      </c>
+      <c r="C62" t="str">
+        <v>河南省鑫属实业有限公司</v>
+      </c>
+      <c r="D62" t="str">
+        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E62" t="str">
+        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F62" t="str">
+        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G62" t="str">
+        <v>11-14发布</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Android高级开发工程师</v>
+      </c>
+      <c r="B63" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C63" t="str">
+        <v>河南芯盾网安科技发展有限公司</v>
+      </c>
+      <c r="D63" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+      </c>
+      <c r="E63" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+      </c>
+      <c r="F63" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+      </c>
+      <c r="G63" t="str">
+        <v>11-13发布</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>LINUX底层开发工程师</v>
+      </c>
+      <c r="B64" t="str">
+        <v>1.2-1.8万/月</v>
+      </c>
+      <c r="C64" t="str">
+        <v>郑州煤矿机械集团股份有限公司</v>
+      </c>
+      <c r="D64" t="str">
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="E64" t="str">
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="F64" t="str">
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="G64" t="str">
+        <v>11-11发布</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Android开发</v>
+      </c>
+      <c r="B65" t="str">
+        <v>0.8-1.2万/月</v>
+      </c>
+      <c r="C65" t="str">
+        <v>河南正商置业有限公司</v>
+      </c>
+      <c r="D65" t="str">
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+      </c>
+      <c r="E65" t="str">
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+      </c>
+      <c r="F65" t="str">
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+      </c>
+      <c r="G65" t="str">
+        <v>11-09发布</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Unity程序开发工程师（高级）（洛阳）</v>
+      </c>
+      <c r="B66" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C66" t="str">
+        <v>洛阳星航游戏科技有限公司</v>
+      </c>
+      <c r="D66" t="str">
+        <v>异地招聘  |  3-4年经验  |  招1人</v>
+      </c>
+      <c r="E66" t="str">
+        <v>异地招聘  |  3-4年经验  |  招1人</v>
+      </c>
+      <c r="F66" t="str">
+        <v>异地招聘  |  3-4年经验  |  招1人</v>
+      </c>
+      <c r="G66" t="str">
+        <v>11-04发布</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>资深Android开发</v>
+      </c>
+      <c r="B67" t="str">
+        <v>1.5-2万/月</v>
+      </c>
+      <c r="C67" t="str">
+        <v>郑州珑凌科技有限公司</v>
+      </c>
+      <c r="D67" t="str">
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E67" t="str">
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F67" t="str">
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G67" t="str">
+        <v>10-31发布</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>安卓开发</v>
+      </c>
+      <c r="B68" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C68" t="str">
+        <v>郑州聚雅信息技术有限公司</v>
+      </c>
+      <c r="D68" t="str">
+        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
+      </c>
+      <c r="E68" t="str">
+        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
+      </c>
+      <c r="F68" t="str">
+        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
+      </c>
+      <c r="G68" t="str">
+        <v>10-30发布</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B69" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C69" t="str">
+        <v>南京迈特望科技股份有限公司</v>
+      </c>
+      <c r="D69" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
+      </c>
+      <c r="E69" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
+      </c>
+      <c r="F69" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
+      </c>
+      <c r="G69" t="str">
+        <v>10-28发布</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Android系统开发工程师</v>
+      </c>
+      <c r="B70" t="str">
+        <v>1.5-2万/月</v>
+      </c>
+      <c r="C70" t="str">
+        <v>桂林市远为商务信息咨询有限公司</v>
+      </c>
+      <c r="D70" t="str">
+        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
+      </c>
+      <c r="E70" t="str">
+        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
+      </c>
+      <c r="F70" t="str">
+        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
+      </c>
+      <c r="G70" t="str">
+        <v>10-27发布</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B71" t="str">
+        <v>0.8-1万/月</v>
+      </c>
+      <c r="C71" t="str">
+        <v>河南杰文信息技术有限公司</v>
+      </c>
+      <c r="D71" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="E71" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="F71" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="G71" t="str">
+        <v>10-27发布</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B72" t="str">
+        <v>5-7千/月</v>
+      </c>
+      <c r="C72" t="str">
+        <v>郑州京慧越科技有限公司</v>
+      </c>
+      <c r="D72" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E72" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F72" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G72" t="str">
+        <v>10-27发布</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B73" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C73" t="str">
+        <v>郑州巨成网络设备有限公司</v>
+      </c>
+      <c r="D73" t="str">
+        <v>郑州-高新区  |  1年经验  |  本科  |  招6人</v>
+      </c>
+      <c r="E73" t="str">
+        <v>郑州-高新区  |  1年经验  |  本科  |  招6人</v>
+      </c>
+      <c r="F73" t="str">
+        <v>郑州-高新区  |  1年经验  |  本科  |  招6人</v>
+      </c>
+      <c r="G73" t="str">
+        <v>10-19发布</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>技术总监/CTO</v>
+      </c>
+      <c r="B74" t="str">
+        <v>0.8-1.5万/月</v>
+      </c>
+      <c r="C74" t="str">
+        <v>河南睿腾信息技术有限公司</v>
+      </c>
+      <c r="D74" t="str">
+        <v>郑州-中原区  |  5-7年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="E74" t="str">
+        <v>郑州-中原区  |  5-7年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="F74" t="str">
+        <v>郑州-中原区  |  5-7年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="G74" t="str">
+        <v>10-16发布</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>安卓端工程师</v>
+      </c>
+      <c r="B75" t="str">
+        <v>0.8-1.5万/月</v>
+      </c>
+      <c r="C75" t="str">
+        <v>河南万邦国际农产品物流股份有限公司</v>
+      </c>
+      <c r="D75" t="str">
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E75" t="str">
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F75" t="str">
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G75" t="str">
+        <v>12-14发布</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>软件测试工程师</v>
+      </c>
+      <c r="B76" t="str">
+        <v>0.6-1万/月</v>
+      </c>
+      <c r="C76" t="str">
+        <v>河南万邦国际农产品物流股份有限公司</v>
+      </c>
+      <c r="D76" t="str">
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E76" t="str">
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F76" t="str">
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G76" t="str">
+        <v>12-14发布</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>高级UI设计师</v>
+      </c>
+      <c r="B77" t="str">
+        <v>0.8-1万/月</v>
+      </c>
+      <c r="C77" t="str">
+        <v>郑州软通合力计算机技术有限公司</v>
+      </c>
+      <c r="D77" t="str">
+        <v>郑州  |  招2人</v>
+      </c>
+      <c r="E77" t="str">
+        <v>郑州  |  招2人</v>
+      </c>
+      <c r="F77" t="str">
+        <v>郑州  |  招2人</v>
+      </c>
+      <c r="G77" t="str">
+        <v>12-14发布</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B78" t="str">
+        <v>0.7-1万/月</v>
+      </c>
+      <c r="C78" t="str">
+        <v>郑州软通合力计算机技术有限公司</v>
+      </c>
+      <c r="D78" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+      </c>
+      <c r="E78" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+      </c>
+      <c r="F78" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+      </c>
+      <c r="G78" t="str">
+        <v>12-14发布</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>android工程师</v>
+      </c>
+      <c r="B79" t="str">
+        <v>0.8-1万/月</v>
+      </c>
+      <c r="C79" t="str">
+        <v>郑州郑大信息技术有限公司</v>
+      </c>
+      <c r="D79" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E79" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F79" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G79" t="str">
+        <v>12-14发布</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>高级JAVA开发工程师（郑州）</v>
+      </c>
+      <c r="B80" t="str">
+        <v>1.3-1.8万/月</v>
+      </c>
+      <c r="C80" t="str">
+        <v>北京硬盒科技有限公司</v>
+      </c>
+      <c r="D80" t="str">
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+      </c>
+      <c r="E80" t="str">
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+      </c>
+      <c r="F80" t="str">
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+      </c>
+      <c r="G80" t="str">
+        <v>12-13发布</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B81" t="str">
+        <v>0.6-1万/月</v>
+      </c>
+      <c r="C81" t="str">
+        <v>河南盛苑实业有限公司</v>
+      </c>
+      <c r="D81" t="str">
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+      </c>
+      <c r="E81" t="str">
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+      </c>
+      <c r="F81" t="str">
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+      </c>
+      <c r="G81" t="str">
+        <v>12-12发布</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>cocos开发</v>
+      </c>
+      <c r="B82" t="str">
+        <v>1.8-3.5万/月</v>
+      </c>
+      <c r="C82" t="str">
+        <v>上海雍米计算机科技有限公司</v>
+      </c>
+      <c r="D82" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+      </c>
+      <c r="E82" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+      </c>
+      <c r="F82" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+      </c>
+      <c r="G82" t="str">
+        <v>12-11发布</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Android安卓开发</v>
+      </c>
+      <c r="B83" t="str">
+        <v>1.6-3.5万/月</v>
+      </c>
+      <c r="C83" t="str">
+        <v>上海雍米计算机科技有限公司</v>
+      </c>
+      <c r="D83" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+      </c>
+      <c r="E83" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+      </c>
+      <c r="F83" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+      </c>
+      <c r="G83" t="str">
+        <v>12-11发布</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>嵌入式软件工程师</v>
+      </c>
+      <c r="B84" t="str">
+        <v>0.5-1万/月</v>
+      </c>
+      <c r="C84" t="str">
+        <v>郑州思博科信息技术有限公司</v>
+      </c>
+      <c r="D84" t="str">
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="E84" t="str">
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="F84" t="str">
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="G84" t="str">
+        <v>12-10发布</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Android软件工程师</v>
+      </c>
+      <c r="B85" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C85" t="str">
+        <v>郑州思博科信息技术有限公司</v>
+      </c>
+      <c r="D85" t="str">
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+      </c>
+      <c r="E85" t="str">
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+      </c>
+      <c r="F85" t="str">
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+      </c>
+      <c r="G85" t="str">
+        <v>12-10发布</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B86" t="str">
+        <v>0.7-1.5万/月</v>
+      </c>
+      <c r="C86" t="str">
+        <v>河南八六三软件股份有限公司</v>
+      </c>
+      <c r="D86" t="str">
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+      </c>
+      <c r="E86" t="str">
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+      </c>
+      <c r="F86" t="str">
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+      </c>
+      <c r="G86" t="str">
+        <v>12-10发布</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Android中级开发工程师</v>
+      </c>
+      <c r="B87" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C87" t="str">
+        <v>河南哈夫曼信息科技有限公司</v>
+      </c>
+      <c r="D87" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="E87" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="F87" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="G87" t="str">
+        <v>12-08发布</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
+      </c>
+      <c r="B88" t="str">
+        <v>1.5-2万/月</v>
+      </c>
+      <c r="C88" t="str">
+        <v>河南哈夫曼信息科技有限公司</v>
+      </c>
+      <c r="D88" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="E88" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="F88" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="G88" t="str">
+        <v>12-08发布</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>C++开发工程师</v>
+      </c>
+      <c r="B89" t="str">
+        <v>0.8-1万/月</v>
+      </c>
+      <c r="C89" t="str">
+        <v>北京科电航宇空间技术有限公司</v>
+      </c>
+      <c r="D89" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E89" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F89" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G89" t="str">
+        <v>12-01发布</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Java开发工程师</v>
+      </c>
+      <c r="B90" t="str">
+        <v>0.8-1万/月</v>
+      </c>
+      <c r="C90" t="str">
+        <v>北京科电航宇空间技术有限公司</v>
+      </c>
+      <c r="D90" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E90" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F90" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G90" t="str">
+        <v>12-01发布</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>安卓底层开发工程师</v>
+      </c>
+      <c r="B91" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C91" t="str">
+        <v>郑州欣意无限信息技术有限公司</v>
+      </c>
+      <c r="D91" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="E91" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="F91" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="G91" t="str">
+        <v>11-27发布</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>软件开发工程师（Android）</v>
+      </c>
+      <c r="B92" t="str">
+        <v>0.8-1万/月</v>
+      </c>
+      <c r="C92" t="str">
+        <v>河南九域腾龙信息工程有限公司</v>
+      </c>
+      <c r="D92" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+      </c>
+      <c r="E92" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+      </c>
+      <c r="F92" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+      </c>
+      <c r="G92" t="str">
+        <v>11-25发布</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Android开发工程师（硬件）</v>
+      </c>
+      <c r="B93" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C93" t="str">
+        <v>河南华景乐游电子科技有限公司</v>
+      </c>
+      <c r="D93" t="str">
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E93" t="str">
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F93" t="str">
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G93" t="str">
+        <v>11-20发布</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B94" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C94" t="str">
+        <v>云计划软件科技（上海）有限公司</v>
+      </c>
+      <c r="D94" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E94" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F94" t="str">
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G94" t="str">
+        <v>11-18发布</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Web开发工程师</v>
+      </c>
+      <c r="B95" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C95" t="str">
+        <v>郑州煤矿机械集团股份有限公司</v>
+      </c>
+      <c r="D95" t="str">
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E95" t="str">
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F95" t="str">
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G95" t="str">
+        <v>11-11发布</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="B96" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C96" t="str">
+        <v>郑州聚雅信息技术有限公司</v>
+      </c>
+      <c r="D96" t="str">
+        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E96" t="str">
+        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F96" t="str">
+        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G96" t="str">
+        <v>10-30发布</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B97" t="str">
+        <v>0.8-1万/月</v>
+      </c>
+      <c r="C97" t="str">
+        <v>郑州聚雅信息技术有限公司</v>
+      </c>
+      <c r="D97" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E97" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F97" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G97" t="str">
+        <v>10-30发布</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B98" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C98" t="str">
+        <v>郑州聚雅信息技术有限公司</v>
+      </c>
+      <c r="D98" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="E98" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="F98" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="G98" t="str">
+        <v>10-30发布</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>camera驱动工程师</v>
+      </c>
+      <c r="B99" t="str">
+        <v>1-2万/月</v>
+      </c>
+      <c r="C99" t="str">
+        <v>桂林市远为商务信息咨询有限公司</v>
+      </c>
+      <c r="D99" t="str">
+        <v>异地招聘  |  1年经验  |  大专  |  招若干人</v>
+      </c>
+      <c r="E99" t="str">
+        <v>异地招聘  |  1年经验  |  大专  |  招若干人</v>
+      </c>
+      <c r="F99" t="str">
+        <v>异地招聘  |  1年经验  |  大专  |  招若干人</v>
+      </c>
+      <c r="G99" t="str">
+        <v>10-27发布</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G99"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,94 +405,94 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>android高级开发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>3-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G2" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B3" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G3" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Web前端开发工程师</v>
+        <v>8-12K招Android\安卓 开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州优碧科技有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G5" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="6">
@@ -500,45 +500,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>web前端/h5</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B7" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>深圳市捷兴电子商务有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="8">
@@ -549,341 +549,341 @@
         <v>6-8千/月</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G8" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B9" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南迈科路重工科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B11" t="str">
-        <v>7-9千/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招4人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招4人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招4人</v>
       </c>
       <c r="G11" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B12" t="str">
-        <v>1.2-4万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E12" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F12" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G12" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>软件工程师 (智能座舱架构方向)</v>
       </c>
       <c r="B13" t="str">
-        <v>6-8千/月</v>
+        <v>35-50万/年</v>
       </c>
       <c r="C13" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>郑州精益达汽车零部件有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
       </c>
       <c r="G13" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>前端开发工程师</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B14" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G14" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Java高级开发工程师</v>
+        <v>高级JAVA开发工程师（郑州）</v>
       </c>
       <c r="B15" t="str">
-        <v>6-8千/月</v>
+        <v>1.3-1.8万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>北京硬盒科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G15" t="str">
-        <v>12-14发布</v>
+        <v>12-20发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B16" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C16" t="str">
-        <v>河南迈科路重工科技有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G16" t="str">
-        <v>12-14发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G17" t="str">
-        <v>12-14发布</v>
+        <v>12-20发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>5.5-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G18" t="str">
-        <v>12-14发布</v>
+        <v>12-19发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>DCLOUD工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G19" t="str">
-        <v>12-14发布</v>
+        <v>12-19发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>前端开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B20" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>星际线工业软件（上海）有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E20" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F20" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G20" t="str">
-        <v>12-13发布</v>
+        <v>12-19发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>软件工程师 (智能座舱架构方向)</v>
+        <v>Web开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>35-50万/年</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州精益达汽车零部件有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G21" t="str">
-        <v>12-13发布</v>
+        <v>12-19发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Java高级开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B22" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E22" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F22" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G22" t="str">
-        <v>12-13发布</v>
+        <v>12-19发布</v>
       </c>
     </row>
     <row r="23">
@@ -891,344 +891,344 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>6-9千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G23" t="str">
-        <v>12-13发布</v>
+        <v>12-19发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>12-12发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Android安卓开发</v>
       </c>
       <c r="B25" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G25" t="str">
-        <v>12-11发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B26" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G26" t="str">
-        <v>12-11发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android 开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>5-8千/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E27" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F27" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G27" t="str">
-        <v>12-11发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G28" t="str">
-        <v>12-11发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>UI设计</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B29" t="str">
-        <v>1.8-4万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C29" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G29" t="str">
-        <v>12-11发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>安卓开发工程师国定节假日福利+保险）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>河南煋谷网络科技有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G30" t="str">
-        <v>12-11发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android开发工程师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>0.6-1.1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G31" t="str">
-        <v>12-11发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android开发（上海出差）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E32" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F32" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G32" t="str">
-        <v>12-10发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>.NET(C#)中级软件开发工程师</v>
+        <v>web前端/h5</v>
       </c>
       <c r="B33" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>北京恳维科技有限公司</v>
+        <v>深圳市捷兴电子商务有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G33" t="str">
-        <v>12-10发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>郑州保鼎科技服务有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G34" t="str">
-        <v>12-10发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B35" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G35" t="str">
-        <v>12-09发布</v>
+        <v>12-17发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>安卓开发工程师国定节假日福利+保险）</v>
       </c>
       <c r="B36" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>河南煋谷网络科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="G36" t="str">
-        <v>12-09发布</v>
+        <v>12-17发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>30-60万/年</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G37" t="str">
-        <v>12-09发布</v>
+        <v>12-17发布</v>
       </c>
     </row>
     <row r="38">
@@ -1236,45 +1236,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C38" t="str">
-        <v>广东易臣信息技术有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G38" t="str">
-        <v>12-09发布</v>
+        <v>12-17发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android资深发工程师</v>
+        <v>Android开发（上海出差）</v>
       </c>
       <c r="B39" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>12-08发布</v>
+        <v>12-17发布</v>
       </c>
     </row>
     <row r="40">
@@ -1282,206 +1282,206 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>0.8-1万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州启程教育科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G40" t="str">
-        <v>12-08发布</v>
+        <v>12-17发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>8-12K招Android\安卓 开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C41" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G41" t="str">
-        <v>12-08发布</v>
+        <v>12-16发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G42" t="str">
-        <v>12-05发布</v>
+        <v>12-16发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>IM客户端主程</v>
+        <v>UI设计师</v>
       </c>
       <c r="B43" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C43" t="str">
-        <v>北京捷迅佳音科技有限公司郑州分公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G43" t="str">
-        <v>12-02发布</v>
+        <v>12-15发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>星际线工业软件（上海）有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G44" t="str">
-        <v>12-01发布</v>
+        <v>12-15发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Android开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>0.8-1.4万/月</v>
+        <v>15-30万/年</v>
       </c>
       <c r="C45" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>郑州宇通客车股份有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G45" t="str">
-        <v>12-01发布</v>
+        <v>12-15发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>高级前端开发工程师（H5）(J10039)</v>
+        <v>.NET(C#)中级软件开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州两岸企业管理有限公司</v>
+        <v>北京恳维科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G46" t="str">
-        <v>12-01发布</v>
+        <v>12-10发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>郑州启程教育科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G47" t="str">
-        <v>12-01发布</v>
+        <v>12-08发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>IM客户端主程</v>
       </c>
       <c r="B48" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>北京捷迅佳音科技有限公司郑州分公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G48" t="str">
-        <v>12-01发布</v>
+        <v>12-02发布</v>
       </c>
     </row>
     <row r="49">
@@ -1489,91 +1489,91 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1.4万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G49" t="str">
-        <v>11-30发布</v>
+        <v>12-01发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>高级前端开发工程师（H5）(J10039)</v>
       </c>
       <c r="B50" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>郑州两岸企业管理有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G50" t="str">
-        <v>11-28发布</v>
+        <v>12-01发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B51" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州市智成软件科技有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G51" t="str">
-        <v>11-28发布</v>
+        <v>12-01发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B52" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G52" t="str">
-        <v>11-27发布</v>
+        <v>12-01发布</v>
       </c>
     </row>
     <row r="53">
@@ -1581,433 +1581,433 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G53" t="str">
-        <v>11-25发布</v>
+        <v>11-30发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android开发工程师</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B54" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>协同网络股份有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G54" t="str">
-        <v>11-25发布</v>
+        <v>11-28发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C55" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>郑州市智成软件科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G55" t="str">
-        <v>11-25发布</v>
+        <v>11-28发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>FAE现场工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C56" t="str">
-        <v>广东九联科技股份有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E56" t="str">
-        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F56" t="str">
-        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G56" t="str">
-        <v>11-25发布</v>
+        <v>11-27发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android 开发安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G57" t="str">
-        <v>11-24发布</v>
+        <v>11-25发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>4.5-6千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>协同网络股份有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G58" t="str">
-        <v>11-23发布</v>
+        <v>11-25发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Java开发工程师</v>
+        <v>FAE现场工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>15-30万/年</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州宇通客车股份有限公司</v>
+        <v>广东九联科技股份有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G59" t="str">
-        <v>11-21发布</v>
+        <v>11-25发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>C++开发工程师</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B60" t="str">
-        <v>1-2万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C60" t="str">
-        <v>河南华景乐游电子科技有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G60" t="str">
-        <v>11-20发布</v>
+        <v>11-25发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android开发工程师</v>
+        <v>Android 开发安卓工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G61" t="str">
-        <v>11-18发布</v>
+        <v>11-24发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>美工招聘</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B62" t="str">
-        <v>0.5-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C62" t="str">
-        <v>河南省鑫属实业有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G62" t="str">
-        <v>11-14发布</v>
+        <v>11-23发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android高级开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>1-1.5万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>河南华景乐游电子科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G63" t="str">
-        <v>11-13发布</v>
+        <v>11-20发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G64" t="str">
-        <v>11-11发布</v>
+        <v>11-18发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android开发</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>河南正商置业有限公司</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G65" t="str">
-        <v>11-09发布</v>
+        <v>11-13发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Unity程序开发工程师（高级）（洛阳）</v>
+        <v>Android开发</v>
       </c>
       <c r="B66" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>洛阳星航游戏科技有限公司</v>
+        <v>河南正商置业有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>异地招聘  |  3-4年经验  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E66" t="str">
-        <v>异地招聘  |  3-4年经验  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F66" t="str">
-        <v>异地招聘  |  3-4年经验  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G66" t="str">
-        <v>11-04发布</v>
+        <v>11-09发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>资深Android开发</v>
+        <v>Unity程序开发工程师（高级）（洛阳）</v>
       </c>
       <c r="B67" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>洛阳星航游戏科技有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  招1人</v>
       </c>
       <c r="G67" t="str">
-        <v>10-31发布</v>
+        <v>11-04发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>安卓开发</v>
+        <v>资深Android开发</v>
       </c>
       <c r="B68" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州聚雅信息技术有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G68" t="str">
-        <v>10-30发布</v>
+        <v>10-31发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>UI设计师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B69" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C69" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>郑州聚雅信息技术有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>10-28发布</v>
+        <v>10-30发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android系统开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B70" t="str">
-        <v>1.5-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C70" t="str">
-        <v>桂林市远为商务信息咨询有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E70" t="str">
-        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F70" t="str">
-        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G70" t="str">
-        <v>10-27发布</v>
+        <v>10-28发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android开发工程师</v>
+        <v>Android系统开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C71" t="str">
-        <v>河南杰文信息技术有限公司</v>
+        <v>桂林市远为商务信息咨询有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G71" t="str">
         <v>10-27发布</v>
@@ -2018,19 +2018,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>5-7千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州京慧越科技有限公司</v>
+        <v>河南杰文信息技术有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G72" t="str">
         <v>10-27发布</v>
@@ -2041,68 +2041,68 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>6-8千/月</v>
+        <v>5-7千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州巨成网络设备有限公司</v>
+        <v>郑州京慧越科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招6人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招6人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招6人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G73" t="str">
-        <v>10-19发布</v>
+        <v>10-27发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>技术总监/CTO</v>
+        <v>android工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>河南睿腾信息技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-中原区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-中原区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-中原区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G74" t="str">
-        <v>10-16发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>安卓端工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1.3-1.8万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>北京硬盒科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G75" t="str">
-        <v>12-14发布</v>
+        <v>12-20发布</v>
       </c>
     </row>
     <row r="76">
@@ -2125,288 +2125,288 @@
         <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>12-14发布</v>
+        <v>12-20发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>高级UI设计师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G77" t="str">
-        <v>12-14发布</v>
+        <v>12-20发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android开发工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.7-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G78" t="str">
-        <v>12-14发布</v>
+        <v>12-19发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android工程师</v>
+        <v>cocos开发</v>
       </c>
       <c r="B79" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.8-3.5万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G79" t="str">
-        <v>12-14发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>高级JAVA开发工程师（郑州）</v>
+        <v>UI设计</v>
       </c>
       <c r="B80" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>1.8-4万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G80" t="str">
-        <v>12-13发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
       </c>
       <c r="G81" t="str">
-        <v>12-12发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>cocos开发</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>1.8-3.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>12-11发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android安卓开发</v>
+        <v>安卓底层开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G83" t="str">
-        <v>12-11发布</v>
+        <v>12-18发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.5-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G84" t="str">
-        <v>12-10发布</v>
+        <v>12-17发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android软件工程师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B85" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G85" t="str">
-        <v>12-10发布</v>
+        <v>12-17发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G86" t="str">
-        <v>12-10发布</v>
+        <v>12-17发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android中级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G87" t="str">
-        <v>12-08发布</v>
+        <v>12-17发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G88" t="str">
-        <v>12-08发布</v>
+        <v>12-16发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>C++开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B89" t="str">
         <v>0.8-1万/月</v>
@@ -2424,188 +2424,188 @@
         <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G89" t="str">
-        <v>12-01发布</v>
+        <v>12-16发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Java开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C90" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G90" t="str">
-        <v>12-01发布</v>
+        <v>12-15发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>安卓底层开发工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C91" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G91" t="str">
-        <v>11-27发布</v>
+        <v>12-15发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>软件UI工程师</v>
       </c>
       <c r="B92" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G92" t="str">
-        <v>11-25发布</v>
+        <v>12-15发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Android开发工程师（硬件）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C93" t="str">
-        <v>河南华景乐游电子科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G93" t="str">
-        <v>11-20发布</v>
+        <v>12-12发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android开发工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B94" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C94" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G94" t="str">
-        <v>11-18发布</v>
+        <v>11-25发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Web开发工程师</v>
+        <v>Android开发工程师（硬件）</v>
       </c>
       <c r="B95" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南华景乐游电子科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G95" t="str">
-        <v>11-11发布</v>
+        <v>11-20发布</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>安卓</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C96" t="str">
-        <v>郑州聚雅信息技术有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E96" t="str">
-        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F96" t="str">
-        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G96" t="str">
-        <v>10-30发布</v>
+        <v>11-18发布</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓</v>
       </c>
       <c r="B97" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C97" t="str">
         <v>郑州聚雅信息技术有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E97" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F97" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G97" t="str">
         <v>10-30发布</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C98" t="str">
         <v>郑州聚雅信息技术有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E98" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F98" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G98" t="str">
         <v>10-30发布</v>
@@ -2636,30 +2636,53 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B99" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C99" t="str">
+        <v>郑州聚雅信息技术有限公司</v>
+      </c>
+      <c r="D99" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="E99" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="F99" t="str">
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+      </c>
+      <c r="G99" t="str">
+        <v>10-30发布</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
         <v>camera驱动工程师</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B100" t="str">
         <v>1-2万/月</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C100" t="str">
         <v>桂林市远为商务信息咨询有限公司</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D100" t="str">
         <v>异地招聘  |  1年经验  |  大专  |  招若干人</v>
       </c>
-      <c r="E99" t="str">
+      <c r="E100" t="str">
         <v>异地招聘  |  1年经验  |  大专  |  招若干人</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F100" t="str">
         <v>异地招聘  |  1年经验  |  大专  |  招若干人</v>
       </c>
-      <c r="G99" t="str">
+      <c r="G100" t="str">
         <v>10-27发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G99"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,94 +405,94 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>DCLOUD工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G3" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>8-12K招Android\安卓 开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
         <v>0.8-1.2万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>南京欣网互联网络科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G4" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android高级开发工程师</v>
+        <v>游戏主策划</v>
       </c>
       <c r="B5" t="str">
-        <v>3-6千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州鸿戈网络科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="6">
@@ -500,551 +500,551 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B7" t="str">
-        <v>5.5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B8" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C8" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Java高级开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B9" t="str">
-        <v>6-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G9" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南迈科路重工科技有限公司</v>
+        <v>郑州保鼎科技服务有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G10" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>小程序开发实习生</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>3.5-5千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招4人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招4人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招4人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G11" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G12" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>软件工程师 (智能座舱架构方向)</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>35-50万/年</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州精益达汽车零部件有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州  |  8-9年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G13" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G14" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>高级JAVA开发工程师（郑州）</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B15" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C15" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G15" t="str">
-        <v>12-20发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G16" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G17" t="str">
-        <v>12-20发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G18" t="str">
-        <v>12-19发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Web前端开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>河南迈科路重工科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>12-19发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>12-19发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Web开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B21" t="str">
-        <v>6-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G21" t="str">
-        <v>12-19发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>UI设计师</v>
       </c>
       <c r="B22" t="str">
-        <v>1.2-4万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E22" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F22" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G22" t="str">
-        <v>12-19发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Android开发工程师</v>
+        <v>游戏前端</v>
       </c>
       <c r="B23" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E23" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F23" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G23" t="str">
-        <v>12-19发布</v>
+        <v>01-17发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android软件开发工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B24" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G24" t="str">
-        <v>12-18发布</v>
+        <v>01-16发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android安卓开发</v>
+        <v>Web开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C25" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G25" t="str">
-        <v>12-18发布</v>
+        <v>01-16发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B26" t="str">
-        <v>0.5-1万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>12-18发布</v>
+        <v>01-15发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>6-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G27" t="str">
-        <v>12-18发布</v>
+        <v>01-15发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G28" t="str">
-        <v>12-18发布</v>
+        <v>01-15发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>30-60万/年</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G29" t="str">
-        <v>12-18发布</v>
+        <v>01-15发布</v>
       </c>
     </row>
     <row r="30">
@@ -1055,226 +1055,226 @@
         <v>6-8千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G30" t="str">
-        <v>12-18发布</v>
+        <v>01-15发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android 开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>5-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E31" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F31" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G31" t="str">
-        <v>12-18发布</v>
+        <v>01-15发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android开发工程师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>1-2万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G32" t="str">
-        <v>12-18发布</v>
+        <v>01-14发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>web前端/h5</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B33" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>深圳市捷兴电子商务有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G33" t="str">
-        <v>12-18发布</v>
+        <v>01-13发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州保鼎科技服务有限公司</v>
+        <v>雷神科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G34" t="str">
-        <v>12-18发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G35" t="str">
-        <v>12-17发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>安卓开发工程师国定节假日福利+保险）</v>
+        <v>Android开发（上海出差）</v>
       </c>
       <c r="B36" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南煋谷网络科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G36" t="str">
-        <v>12-17发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android资深发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G37" t="str">
-        <v>12-17发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B38" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G38" t="str">
-        <v>12-17发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android开发（上海出差）</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B39" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E39" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F39" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G39" t="str">
-        <v>12-17发布</v>
+        <v>01-11发布</v>
       </c>
     </row>
     <row r="40">
@@ -1282,91 +1282,91 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>7-9千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G40" t="str">
-        <v>12-17发布</v>
+        <v>01-09发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>6-8千/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C41" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G41" t="str">
-        <v>12-16发布</v>
+        <v>01-08发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师国定节假日福利+保险）</v>
       </c>
       <c r="B42" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>河南煋谷网络科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="G42" t="str">
-        <v>12-16发布</v>
+        <v>01-08发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>UI设计师</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B43" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G43" t="str">
-        <v>12-15发布</v>
+        <v>01-07发布</v>
       </c>
     </row>
     <row r="44">
@@ -1389,444 +1389,444 @@
         <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G44" t="str">
-        <v>12-15发布</v>
+        <v>01-05发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Java开发工程师</v>
+        <v>web前端/h5</v>
       </c>
       <c r="B45" t="str">
-        <v>15-30万/年</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>郑州宇通客车股份有限公司</v>
+        <v>深圳市捷兴电子商务有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G45" t="str">
-        <v>12-15发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>.NET(C#)中级软件开发工程师</v>
+        <v>UI设计</v>
       </c>
       <c r="B46" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-4万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>北京恳维科技有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G46" t="str">
-        <v>12-10发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android开发工程师</v>
+        <v>Android 开发安卓工程师</v>
       </c>
       <c r="B47" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州启程教育科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G47" t="str">
-        <v>12-08发布</v>
+        <v>01-03发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>IM客户端主程</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>北京捷迅佳音科技有限公司郑州分公司</v>
+        <v>河南飞渡电子科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G48" t="str">
-        <v>12-02发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B49" t="str">
-        <v>0.8-1.4万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G49" t="str">
-        <v>12-01发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>高级前端开发工程师（H5）(J10039)</v>
+        <v>AR增强现实开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>1.5-2万/月</v>
+        <v>6-7千/月</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州两岸企业管理有限公司</v>
+        <v>郑州点慧育标信息科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G50" t="str">
-        <v>12-01发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G51" t="str">
-        <v>12-01发布</v>
+        <v>12-28发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G52" t="str">
-        <v>12-01发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>1.3-1.8万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>北京硬盒科技有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G53" t="str">
-        <v>11-30发布</v>
+        <v>12-24发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C54" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G54" t="str">
-        <v>11-28发布</v>
+        <v>12-24发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B55" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>郑州市智成软件科技有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G55" t="str">
-        <v>11-28发布</v>
+        <v>12-23发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B56" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C56" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G56" t="str">
-        <v>11-27发布</v>
+        <v>12-23发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android开发工程师</v>
+        <v>8-12K招Android\安卓 开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G57" t="str">
-        <v>11-25发布</v>
+        <v>12-22发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Android开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>1.5-2万/月</v>
+        <v>15-30万/年</v>
       </c>
       <c r="C58" t="str">
-        <v>协同网络股份有限公司</v>
+        <v>郑州宇通客车股份有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G58" t="str">
-        <v>11-25发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>FAE现场工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B59" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C59" t="str">
-        <v>广东九联科技股份有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D59" t="str">
-        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E59" t="str">
-        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F59" t="str">
-        <v>异地招聘  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G59" t="str">
-        <v>11-25发布</v>
+        <v>12-15发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>.NET(C#)中级软件开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>5-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>北京恳维科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G60" t="str">
-        <v>11-25发布</v>
+        <v>12-10发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android 开发安卓工程师</v>
+        <v>IM客户端主程</v>
       </c>
       <c r="B61" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>北京捷迅佳音科技有限公司郑州分公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G61" t="str">
-        <v>11-24发布</v>
+        <v>12-02发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1.4万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G62" t="str">
-        <v>11-23发布</v>
+        <v>12-01发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>C++开发工程师</v>
+        <v>高级前端开发工程师（H5）(J10039)</v>
       </c>
       <c r="B63" t="str">
-        <v>1-2万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>河南华景乐游电子科技有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G63" t="str">
-        <v>11-20发布</v>
+        <v>12-01发布</v>
       </c>
     </row>
     <row r="64">
@@ -1834,183 +1834,183 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G64" t="str">
-        <v>11-18发布</v>
+        <v>11-30发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C65" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>郑州市智成软件科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G65" t="str">
-        <v>11-13发布</v>
+        <v>11-28发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C66" t="str">
-        <v>河南正商置业有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G66" t="str">
-        <v>11-09发布</v>
+        <v>11-27发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Unity程序开发工程师（高级）（洛阳）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>洛阳星航游戏科技有限公司</v>
+        <v>协同网络股份有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>异地招聘  |  3-4年经验  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E67" t="str">
-        <v>异地招聘  |  3-4年经验  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F67" t="str">
-        <v>异地招聘  |  3-4年经验  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G67" t="str">
-        <v>11-04发布</v>
+        <v>11-25发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>资深Android开发</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B68" t="str">
-        <v>1.5-2万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G68" t="str">
-        <v>10-31发布</v>
+        <v>11-25发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>安卓开发</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>6-8千/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州聚雅信息技术有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-管城回族区  |  无需经验  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G69" t="str">
-        <v>10-30发布</v>
+        <v>12-25发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>UI设计师</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B70" t="str">
-        <v>6-8千/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C70" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G70" t="str">
-        <v>10-28发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android系统开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B71" t="str">
-        <v>1.5-2万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>桂林市远为商务信息咨询有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E71" t="str">
-        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F71" t="str">
-        <v>异地招聘  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G71" t="str">
-        <v>10-27发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="72">
@@ -2021,272 +2021,272 @@
         <v>0.8-1万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>河南杰文信息技术有限公司</v>
+        <v>郑州启程教育科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G72" t="str">
-        <v>10-27发布</v>
+        <v>12-08发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>5-7千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州京慧越科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G73" t="str">
-        <v>10-27发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G74" t="str">
-        <v>12-21发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Java高级开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B75" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E75" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F75" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G75" t="str">
-        <v>12-20发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>软件测试工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G76" t="str">
-        <v>12-20发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>安卓端工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C77" t="str">
         <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G77" t="str">
-        <v>12-20发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G78" t="str">
-        <v>12-19发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>cocos开发</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>1.8-3.5万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G79" t="str">
-        <v>12-18发布</v>
+        <v>01-16发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>UI设计</v>
+        <v>android工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>1.8-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G80" t="str">
-        <v>12-18发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android软件工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B81" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G81" t="str">
-        <v>12-18发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>前端开发工程师</v>
+        <v>cocos开发</v>
       </c>
       <c r="B82" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.8-3.5万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G82" t="str">
-        <v>12-18发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>安卓底层开发工程师</v>
+        <v>Android安卓开发</v>
       </c>
       <c r="B83" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G83" t="str">
-        <v>12-18发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="84">
@@ -2309,7 +2309,7 @@
         <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G84" t="str">
-        <v>12-17发布</v>
+        <v>12-28发布</v>
       </c>
     </row>
     <row r="85">
@@ -2332,99 +2332,99 @@
         <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G85" t="str">
-        <v>12-17发布</v>
+        <v>12-28发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>高级UI设计师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B86" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G86" t="str">
-        <v>12-17发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G87" t="str">
-        <v>12-17发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>C++开发工程师</v>
+        <v>高级JAVA开发工程师（郑州）</v>
       </c>
       <c r="B88" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.3-1.8万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>北京硬盒科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G88" t="str">
-        <v>12-16发布</v>
+        <v>12-24发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Java开发工程师</v>
+        <v>安卓底层开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G89" t="str">
-        <v>12-16发布</v>
+        <v>12-24发布</v>
       </c>
     </row>
     <row r="90">
@@ -2432,27 +2432,27 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E90" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F90" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G90" t="str">
-        <v>12-15发布</v>
+        <v>12-23发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>iOS开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B91" t="str">
         <v>6-8千/月</v>
@@ -2461,13 +2461,13 @@
         <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G91" t="str">
         <v>12-15发布</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>软件UI工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C92" t="str">
         <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D92" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E92" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F92" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G92" t="str">
         <v>12-15发布</v>
@@ -2498,191 +2498,30 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Android开发工程师</v>
+        <v>软件UI工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C93" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G93" t="str">
-        <v>12-12发布</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>软件开发工程师（Android）</v>
-      </c>
-      <c r="B94" t="str">
-        <v>0.8-1万/月</v>
-      </c>
-      <c r="C94" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
-      </c>
-      <c r="D94" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
-      </c>
-      <c r="E94" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
-      </c>
-      <c r="F94" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
-      </c>
-      <c r="G94" t="str">
-        <v>11-25发布</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>Android开发工程师（硬件）</v>
-      </c>
-      <c r="B95" t="str">
-        <v>1-1.5万/月</v>
-      </c>
-      <c r="C95" t="str">
-        <v>河南华景乐游电子科技有限公司</v>
-      </c>
-      <c r="D95" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="E95" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="F95" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="G95" t="str">
-        <v>11-20发布</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>Android开发工程师</v>
-      </c>
-      <c r="B96" t="str">
-        <v>1-1.5万/月</v>
-      </c>
-      <c r="C96" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
-      </c>
-      <c r="D96" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="E96" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="F96" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="G96" t="str">
-        <v>11-18发布</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="B97" t="str">
-        <v>6-8千/月</v>
-      </c>
-      <c r="C97" t="str">
-        <v>郑州聚雅信息技术有限公司</v>
-      </c>
-      <c r="D97" t="str">
-        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="E97" t="str">
-        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="F97" t="str">
-        <v>郑州-管城回族区  |  1年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="G97" t="str">
-        <v>10-30发布</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>Android开发工程师</v>
-      </c>
-      <c r="B98" t="str">
-        <v>0.8-1万/月</v>
-      </c>
-      <c r="C98" t="str">
-        <v>郑州聚雅信息技术有限公司</v>
-      </c>
-      <c r="D98" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="E98" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="F98" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="G98" t="str">
-        <v>10-30发布</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B99" t="str">
-        <v>6-8千/月</v>
-      </c>
-      <c r="C99" t="str">
-        <v>郑州聚雅信息技术有限公司</v>
-      </c>
-      <c r="D99" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
-      </c>
-      <c r="E99" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
-      </c>
-      <c r="F99" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
-      </c>
-      <c r="G99" t="str">
-        <v>10-30发布</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>camera驱动工程师</v>
-      </c>
-      <c r="B100" t="str">
-        <v>1-2万/月</v>
-      </c>
-      <c r="C100" t="str">
-        <v>桂林市远为商务信息咨询有限公司</v>
-      </c>
-      <c r="D100" t="str">
-        <v>异地招聘  |  1年经验  |  大专  |  招若干人</v>
-      </c>
-      <c r="E100" t="str">
-        <v>异地招聘  |  1年经验  |  大专  |  招若干人</v>
-      </c>
-      <c r="F100" t="str">
-        <v>异地招聘  |  1年经验  |  大专  |  招若干人</v>
-      </c>
-      <c r="G100" t="str">
-        <v>10-27发布</v>
+        <v>12-15发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +423,7 @@
         <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="3">
@@ -434,249 +434,249 @@
         <v>1-1.5万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E3" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F3" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G3" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>南京欣网互联网络科技有限公司</v>
+        <v>郑州保鼎科技服务有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>游戏主策划</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州鸿戈网络科技有限公司</v>
+        <v>南京欣网互联网络科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G5" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G7" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G8" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>4.5-6千/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G9" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>1-1.5万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州保鼎科技服务有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G11" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>安卓工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>云涌科技</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Java高级开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G13" t="str">
-        <v>01-18发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="14">
@@ -684,91 +684,91 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>7-9千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G14" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>4.5-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C15" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G15" t="str">
-        <v>01-18发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>安卓端工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G16" t="str">
-        <v>01-18发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B17" t="str">
-        <v>6-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C17" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G17" t="str">
-        <v>01-18发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="18">
@@ -776,252 +776,252 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.9-1.2万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>河南众诚信息科技股份有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G18" t="str">
-        <v>01-18发布</v>
+        <v>01-24发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android工程师（YD15ysw）(J12486)</v>
       </c>
       <c r="B19" t="str">
-        <v>6-8千/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C19" t="str">
-        <v>河南迈科路重工科技有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G19" t="str">
-        <v>01-18发布</v>
+        <v>01-23发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android开发工程师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>1-1.6万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G20" t="str">
-        <v>01-18发布</v>
+        <v>01-23发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>01-18发布</v>
+        <v>01-21发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>01-18发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>游戏前端</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B23" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>01-17发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>互联网产品经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>01-16发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Web开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>6-8千/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G25" t="str">
-        <v>01-16发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B26" t="str">
-        <v>2-2.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>01-15发布</v>
+        <v>01-13发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G27" t="str">
-        <v>01-15发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B28" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G28" t="str">
-        <v>01-15发布</v>
+        <v>01-11发布</v>
       </c>
     </row>
     <row r="29">
@@ -1029,252 +1029,252 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G29" t="str">
-        <v>01-15发布</v>
+        <v>01-09发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师国定节假日福利+保险）</v>
       </c>
       <c r="B30" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>河南煋谷网络科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="G30" t="str">
-        <v>01-15发布</v>
+        <v>01-08发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android开发工程师</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B31" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G31" t="str">
-        <v>01-15发布</v>
+        <v>01-07发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android 开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>5-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>星际线工业软件（上海）有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>01-14发布</v>
+        <v>01-05发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android安卓开发</v>
       </c>
       <c r="B33" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G33" t="str">
-        <v>01-13发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Android开发工程师</v>
+        <v>Android 开发安卓工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>雷神科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G34" t="str">
-        <v>01-12发布</v>
+        <v>01-03发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>DCLOUD工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南飞渡电子科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G35" t="str">
-        <v>01-12发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android开发（上海出差）</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B36" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C36" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E36" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F36" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G36" t="str">
-        <v>01-12发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android开发工程师</v>
+        <v>AR增强现实开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-7千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州点慧育标信息科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G37" t="str">
-        <v>01-12发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G38" t="str">
-        <v>01-12发布</v>
+        <v>12-28发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G39" t="str">
-        <v>01-11发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="40">
@@ -1282,939 +1282,939 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E40" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F40" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G40" t="str">
-        <v>01-09发布</v>
+        <v>12-23发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android开发工程师</v>
+        <v>8-12K招Android\安卓 开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>6-9千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G41" t="str">
-        <v>01-08发布</v>
+        <v>12-22发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>安卓开发工程师国定节假日福利+保险）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南煋谷网络科技有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G42" t="str">
-        <v>01-08发布</v>
+        <v>12-15发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.4万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G43" t="str">
-        <v>01-07发布</v>
+        <v>12-01发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>星际线工业软件（上海）有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D44" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E44" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F44" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G44" t="str">
-        <v>01-05发布</v>
+        <v>11-30发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>web前端/h5</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C45" t="str">
-        <v>深圳市捷兴电子商务有限公司</v>
+        <v>郑州市智成软件科技有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G45" t="str">
-        <v>01-04发布</v>
+        <v>11-28发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>UI设计</v>
+        <v>技术主管</v>
       </c>
       <c r="B46" t="str">
-        <v>1.8-4万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G46" t="str">
-        <v>01-04发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android 开发安卓工程师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B47" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G47" t="str">
-        <v>01-03发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Android开发工程师</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B48" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C48" t="str">
-        <v>河南飞渡电子科技有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G48" t="str">
-        <v>12-29发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>高级硬件架构师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>30-60万/年</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G49" t="str">
-        <v>12-29发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>AR增强现实开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>6-7千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州点慧育标信息科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G50" t="str">
-        <v>12-29发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android资深发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>1.5-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C51" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G51" t="str">
-        <v>12-28发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C52" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G52" t="str">
-        <v>12-27发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Java高级开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C53" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>河南迈科路重工科技有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E53" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F53" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G53" t="str">
-        <v>12-24发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B54" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G54" t="str">
-        <v>12-24发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B55" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C55" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G55" t="str">
-        <v>12-23发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B56" t="str">
-        <v>6-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G56" t="str">
-        <v>12-23发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>8-12K招Android\安卓 开发工程师</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B57" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G57" t="str">
-        <v>12-22发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Java开发工程师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B58" t="str">
-        <v>15-30万/年</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州宇通客车股份有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G58" t="str">
-        <v>12-21发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>UI设计师</v>
+        <v>Web开发工程师</v>
       </c>
       <c r="B59" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C59" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G59" t="str">
-        <v>12-15发布</v>
+        <v>01-21发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>.NET(C#)中级软件开发工程师</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B60" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>北京恳维科技有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G60" t="str">
-        <v>12-10发布</v>
+        <v>01-21发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>IM客户端主程</v>
+        <v>游戏主策划</v>
       </c>
       <c r="B61" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>北京捷迅佳音科技有限公司郑州分公司</v>
+        <v>郑州鸿戈网络科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G61" t="str">
-        <v>12-02发布</v>
+        <v>01-19发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android开发工程师</v>
+        <v>游戏前端</v>
       </c>
       <c r="B62" t="str">
-        <v>0.8-1.4万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G62" t="str">
-        <v>12-01发布</v>
+        <v>01-17发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>高级前端开发工程师（H5）(J10039)</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B63" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G63" t="str">
-        <v>12-01发布</v>
+        <v>01-16发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B64" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G64" t="str">
-        <v>11-30发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android开发工程师</v>
+        <v>web前端/h5</v>
       </c>
       <c r="B65" t="str">
-        <v>6-8千/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>郑州市智成软件科技有限公司</v>
+        <v>深圳市捷兴电子商务有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G65" t="str">
-        <v>11-28发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>6-8千/月</v>
+        <v>1.3-1.8万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>北京硬盒科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G66" t="str">
-        <v>11-27发布</v>
+        <v>12-24发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>1.5-2万/月</v>
+        <v>15-30万/年</v>
       </c>
       <c r="C67" t="str">
-        <v>协同网络股份有限公司</v>
+        <v>郑州宇通客车股份有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G67" t="str">
-        <v>11-25发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>.NET(C#)中级软件开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>5-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>北京恳维科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G68" t="str">
-        <v>11-25发布</v>
+        <v>12-10发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android高级开发工程师</v>
+        <v>IM客户端主程</v>
       </c>
       <c r="B69" t="str">
-        <v>3-6千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>北京捷迅佳音科技有限公司郑州分公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>12-25发布</v>
+        <v>12-02发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>小程序开发实习生</v>
+        <v>高级前端开发工程师（H5）(J10039)</v>
       </c>
       <c r="B70" t="str">
-        <v>3.5-5千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G70" t="str">
-        <v>01-18发布</v>
+        <v>12-01发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>5.5-8千/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G71" t="str">
-        <v>01-18发布</v>
+        <v>12-25发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B72" t="str">
-        <v>0.8-1万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州启程教育科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G72" t="str">
-        <v>12-08发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>前端开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B73" t="str">
-        <v>0.6-1万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G73" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州启程教育科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G74" t="str">
-        <v>01-18发布</v>
+        <v>12-08发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C75" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G75" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>01-18发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>软件测试工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C77" t="str">
         <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G77" t="str">
-        <v>01-18发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>安卓底层开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G78" t="str">
-        <v>01-18发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G79" t="str">
-        <v>01-16发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B80" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G80" t="str">
         <v>01-12发布</v>
@@ -2222,306 +2222,398 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G81" t="str">
-        <v>01-12发布</v>
+        <v>12-28发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>cocos开发</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B82" t="str">
-        <v>1.8-3.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G82" t="str">
-        <v>01-04发布</v>
+        <v>12-28发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android安卓开发</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C83" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G83" t="str">
-        <v>01-04发布</v>
+        <v>12-15发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Android中级开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B84" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G84" t="str">
-        <v>12-28发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G85" t="str">
-        <v>12-28发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>C++开发工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G86" t="str">
-        <v>12-27发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Java开发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B87" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G87" t="str">
-        <v>12-27发布</v>
+        <v>01-25发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>高级JAVA开发工程师（郑州）</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G88" t="str">
-        <v>12-24发布</v>
+        <v>01-21发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>安卓底层开发工程师</v>
+        <v>UI设计</v>
       </c>
       <c r="B89" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-4万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G89" t="str">
-        <v>12-24发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android开发工程师</v>
+        <v>cocos开发</v>
       </c>
       <c r="B90" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.8-3.5万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G90" t="str">
-        <v>12-23发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Android开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E91" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F91" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G91" t="str">
-        <v>12-15发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>iOS开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G92" t="str">
-        <v>12-15发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
+        <v>高级JAVA开发工程师（郑州）</v>
+      </c>
+      <c r="B93" t="str">
+        <v>1.3-1.8万/月</v>
+      </c>
+      <c r="C93" t="str">
+        <v>北京硬盒科技有限公司</v>
+      </c>
+      <c r="D93" t="str">
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+      </c>
+      <c r="E93" t="str">
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+      </c>
+      <c r="F93" t="str">
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+      </c>
+      <c r="G93" t="str">
+        <v>12-24发布</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>嵌入式软件工程师</v>
+      </c>
+      <c r="B94" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C94" t="str">
+        <v>河南盛苑实业有限公司</v>
+      </c>
+      <c r="D94" t="str">
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E94" t="str">
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F94" t="str">
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G94" t="str">
+        <v>12-23发布</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B95" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C95" t="str">
+        <v>河南鑫利安全技术服务有限责任公司</v>
+      </c>
+      <c r="D95" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E95" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F95" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G95" t="str">
+        <v>12-15发布</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
         <v>软件UI工程师</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B96" t="str">
         <v>0.8-1万/月</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C96" t="str">
         <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
-      <c r="D93" t="str">
+      <c r="D96" t="str">
         <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
-      <c r="E93" t="str">
+      <c r="E96" t="str">
         <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F96" t="str">
         <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
       </c>
-      <c r="G93" t="str">
+      <c r="G96" t="str">
         <v>12-15发布</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>渗透测试工程师</v>
+      </c>
+      <c r="B97" t="str">
+        <v>5-8千/月</v>
+      </c>
+      <c r="C97" t="str">
+        <v>河南宝通信息安全测评有限公司</v>
+      </c>
+      <c r="D97" t="str">
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
+      </c>
+      <c r="E97" t="str">
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
+      </c>
+      <c r="F97" t="str">
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
+      </c>
+      <c r="G97" t="str">
+        <v>01-26发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G97"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,298 +408,298 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>01-26发布</v>
+        <v>02-09发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B3" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G3" t="str">
-        <v>01-26发布</v>
+        <v>02-09发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>安卓开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B4" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州保鼎科技服务有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>01-26发布</v>
+        <v>02-09发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C5" t="str">
-        <v>南京欣网互联网络科技有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G5" t="str">
-        <v>01-26发布</v>
+        <v>02-09发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>安卓工程师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C6" t="str">
-        <v>云涌科技</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G6" t="str">
-        <v>01-26发布</v>
+        <v>02-09发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android开发工程师</v>
+        <v>人工智能讲师</v>
       </c>
       <c r="B7" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南合众信泰科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>01-26发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>01-26发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>7-9千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州保鼎科技服务有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G9" t="str">
-        <v>01-26发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B10" t="str">
-        <v>1-1.6万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G10" t="str">
-        <v>01-26发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B11" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G11" t="str">
-        <v>01-26发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>6-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南艾沃贝环境科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>01-26发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>安卓端工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G13" t="str">
-        <v>01-25发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B14" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>河南迈科路重工科技有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>01-26发布</v>
+        <v>02-07发布</v>
       </c>
     </row>
     <row r="15">
@@ -707,68 +707,68 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G15" t="str">
-        <v>01-25发布</v>
+        <v>02-07发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G16" t="str">
-        <v>01-25发布</v>
+        <v>02-07发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G17" t="str">
-        <v>01-25发布</v>
+        <v>02-07发布</v>
       </c>
     </row>
     <row r="18">
@@ -776,91 +776,91 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.9-1.2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>河南众诚信息科技股份有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G18" t="str">
-        <v>01-24发布</v>
+        <v>02-07发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android工程师（YD15ysw）(J12486)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>6-9千/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>01-23发布</v>
+        <v>02-07发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android 开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>01-23发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B21" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>01-21发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="22">
@@ -868,298 +868,298 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>6-8千/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>01-20发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.6-1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C23" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>01-20发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android开发工程师</v>
+        <v>IT技术总监</v>
       </c>
       <c r="B24" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>豫乾大数据集团有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G24" t="str">
-        <v>01-20发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>6-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G25" t="str">
-        <v>01-18发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>UI设计师</v>
       </c>
       <c r="B26" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C26" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G26" t="str">
-        <v>01-13发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android开发工程师</v>
+        <v>Web开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G27" t="str">
-        <v>01-12发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B28" t="str">
-        <v>0.5-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C28" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G28" t="str">
-        <v>01-11发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B29" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E29" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F29" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G29" t="str">
-        <v>01-09发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>安卓开发工程师国定节假日福利+保险）</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>河南煋谷网络科技有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G30" t="str">
-        <v>01-08发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G31" t="str">
-        <v>01-07发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>前端开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>星际线工业软件（上海）有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>01-05发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android安卓开发</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B33" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C33" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G33" t="str">
-        <v>01-04发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Android 开发安卓工程师</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B34" t="str">
-        <v>0.8-1万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G34" t="str">
-        <v>01-03发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="35">
@@ -1167,206 +1167,206 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>河南飞渡电子科技有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G35" t="str">
-        <v>12-29发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G36" t="str">
-        <v>12-29发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>AR增强现实开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6-7千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州点慧育标信息科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G37" t="str">
-        <v>12-29发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android资深发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>1.5-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C38" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G38" t="str">
-        <v>12-28发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android开发工程师</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B39" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C39" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>12-27发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android开发工程师</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B40" t="str">
-        <v>0.6-1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C40" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G40" t="str">
-        <v>12-23发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>8-12K招Android\安卓 开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G41" t="str">
-        <v>12-22发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Android开发工程师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B42" t="str">
-        <v>6-8千/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E42" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F42" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G42" t="str">
-        <v>12-15发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>0.8-1.4万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G43" t="str">
-        <v>12-01发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="44">
@@ -1374,111 +1374,111 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G44" t="str">
-        <v>11-30发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>郑州市智成软件科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G45" t="str">
-        <v>11-28发布</v>
+        <v>01-28发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>技术主管</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G46" t="str">
-        <v>01-26发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G47" t="str">
-        <v>01-26发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>UI设计师</v>
       </c>
       <c r="B48" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G48" t="str">
         <v>01-26发布</v>
@@ -1486,554 +1486,554 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Web前端开发工程师</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B49" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G49" t="str">
-        <v>01-26发布</v>
+        <v>01-21发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>渗透测试工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C50" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G50" t="str">
-        <v>01-26发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>游戏主策划</v>
       </c>
       <c r="B51" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>郑州鸿戈网络科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G51" t="str">
-        <v>01-26发布</v>
+        <v>01-19发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>6-8千/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C52" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G52" t="str">
-        <v>01-26发布</v>
+        <v>01-18发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>游戏前端</v>
       </c>
       <c r="B53" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>河南迈科路重工科技有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G53" t="str">
-        <v>01-26发布</v>
+        <v>01-17发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>UI设计师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B54" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G54" t="str">
-        <v>01-26发布</v>
+        <v>01-16发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G55" t="str">
-        <v>01-25发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B56" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E56" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F56" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G56" t="str">
-        <v>01-25发布</v>
+        <v>01-11发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>安卓开发工程师国定节假日福利+保险）</v>
       </c>
       <c r="B57" t="str">
-        <v>2-2.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>河南煋谷网络科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="G57" t="str">
-        <v>01-25发布</v>
+        <v>01-08发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B58" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G58" t="str">
-        <v>01-25发布</v>
+        <v>01-07发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Web开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>星际线工业软件（上海）有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G59" t="str">
-        <v>01-21发布</v>
+        <v>01-05发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>web前端/h5</v>
       </c>
       <c r="B60" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>深圳市捷兴电子商务有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G60" t="str">
-        <v>01-21发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>游戏主策划</v>
+        <v>Android安卓开发</v>
       </c>
       <c r="B61" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>郑州鸿戈网络科技有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G61" t="str">
-        <v>01-19发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>游戏前端</v>
+        <v>Android 开发安卓工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G62" t="str">
-        <v>01-17发布</v>
+        <v>01-03发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>互联网产品经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>河南飞渡电子科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G63" t="str">
-        <v>01-16发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B64" t="str">
-        <v>1-1.5万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G64" t="str">
-        <v>01-12发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>web前端/h5</v>
+        <v>AR增强现实开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>6-7千/月</v>
       </c>
       <c r="C65" t="str">
-        <v>深圳市捷兴电子商务有限公司</v>
+        <v>郑州点慧育标信息科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G65" t="str">
-        <v>01-04发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E66" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F66" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G66" t="str">
-        <v>12-24发布</v>
+        <v>12-28发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Java开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>15-30万/年</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州宇通客车股份有限公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G67" t="str">
-        <v>12-21发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>.NET(C#)中级软件开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.3-1.8万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>北京恳维科技有限公司</v>
+        <v>北京硬盒科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G68" t="str">
-        <v>12-10发布</v>
+        <v>12-24发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>IM客户端主程</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>北京捷迅佳音科技有限公司郑州分公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G69" t="str">
-        <v>12-02发布</v>
+        <v>12-23发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>高级前端开发工程师（H5）(J10039)</v>
+        <v>8-12K招Android\安卓 开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G70" t="str">
-        <v>12-01发布</v>
+        <v>12-22发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android高级开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>3-6千/月</v>
+        <v>15-30万/年</v>
       </c>
       <c r="C71" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州宇通客车股份有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G71" t="str">
-        <v>12-25发布</v>
+        <v>12-21发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>小程序开发实习生</v>
+        <v>.NET(C#)中级软件开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>3.5-5千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>北京恳维科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G72" t="str">
-        <v>01-26发布</v>
+        <v>12-10发布</v>
       </c>
     </row>
     <row r="73">
@@ -2056,53 +2056,53 @@
         <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G73" t="str">
-        <v>01-26发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B74" t="str">
-        <v>0.8-1万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州启程教育科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G74" t="str">
-        <v>12-08发布</v>
+        <v>01-31发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.7-1万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G75" t="str">
-        <v>01-26发布</v>
+        <v>12-25发布</v>
       </c>
     </row>
     <row r="76">
@@ -2125,53 +2125,53 @@
         <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>01-26发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G77" t="str">
-        <v>01-25发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>安卓底层开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B78" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G78" t="str">
-        <v>01-20发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="79">
@@ -2179,260 +2179,260 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G79" t="str">
-        <v>01-20发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B80" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G80" t="str">
-        <v>01-12发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android中级开发工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G81" t="str">
-        <v>12-28发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>1.5-2万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G82" t="str">
-        <v>12-28发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>iOS开发工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>12-15发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>高级UI设计师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G84" t="str">
-        <v>01-26发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G85" t="str">
-        <v>01-26发布</v>
+        <v>01-28发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>软件测试工程师</v>
+        <v>Android工程师（YD15ysw）(J12486)</v>
       </c>
       <c r="B86" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G86" t="str">
-        <v>01-25发布</v>
+        <v>01-23发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>DCLOUD工程师</v>
+        <v>安卓底层开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G87" t="str">
-        <v>01-25发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G88" t="str">
-        <v>01-21发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>UI设计</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B89" t="str">
-        <v>1.8-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G89" t="str">
-        <v>01-04发布</v>
+        <v>01-12发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>cocos开发</v>
+        <v>UI设计</v>
       </c>
       <c r="B90" t="str">
-        <v>1.8-3.5万/月</v>
+        <v>1.8-4万/月</v>
       </c>
       <c r="C90" t="str">
         <v>上海雍米计算机科技有限公司</v>
@@ -2452,168 +2452,237 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>C++开发工程师</v>
+        <v>cocos开发</v>
       </c>
       <c r="B91" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.8-3.5万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G91" t="str">
-        <v>12-27发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Java开发工程师</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G92" t="str">
-        <v>12-27发布</v>
+        <v>12-28发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>高级JAVA开发工程师（郑州）</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B93" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C93" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G93" t="str">
-        <v>12-24发布</v>
+        <v>12-28发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C94" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G94" t="str">
-        <v>12-23发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>UI设计师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C95" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G95" t="str">
-        <v>12-15发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>软件UI工程师</v>
+        <v>高级JAVA开发工程师（郑州）</v>
       </c>
       <c r="B96" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.3-1.8万/月</v>
       </c>
       <c r="C96" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>北京硬盒科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E96" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F96" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G96" t="str">
-        <v>12-15发布</v>
+        <v>12-24发布</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
+        <v>嵌入式软件工程师</v>
+      </c>
+      <c r="B97" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C97" t="str">
+        <v>河南盛苑实业有限公司</v>
+      </c>
+      <c r="D97" t="str">
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E97" t="str">
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F97" t="str">
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G97" t="str">
+        <v>12-23发布</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B98" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C98" t="str">
+        <v>河南鑫利安全技术服务有限责任公司</v>
+      </c>
+      <c r="D98" t="str">
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E98" t="str">
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F98" t="str">
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G98" t="str">
+        <v>12-15发布</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>软件UI工程师</v>
+      </c>
+      <c r="B99" t="str">
+        <v>0.8-1万/月</v>
+      </c>
+      <c r="C99" t="str">
+        <v>河南鑫利安全技术服务有限责任公司</v>
+      </c>
+      <c r="D99" t="str">
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E99" t="str">
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F99" t="str">
+        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G99" t="str">
+        <v>12-15发布</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B100" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C97" t="str">
+      <c r="C100" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D100" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E97" t="str">
+      <c r="E100" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F100" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G97" t="str">
-        <v>01-26发布</v>
+      <c r="G100" t="str">
+        <v>01-27发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G97"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,301 +405,301 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B2" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>02-09发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.5-1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C3" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G3" t="str">
-        <v>02-09发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>技术主管</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B4" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>02-09发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android助理工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>3-5千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>02-09发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android 开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B6" t="str">
-        <v>5-8千/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C6" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E6" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F6" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G6" t="str">
-        <v>02-09发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>人工智能讲师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>河南合众信泰科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G7" t="str">
-        <v>02-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G8" t="str">
-        <v>02-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>安卓开发工程师</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B9" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州保鼎科技服务有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G9" t="str">
-        <v>02-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G10" t="str">
-        <v>02-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E11" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F11" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G11" t="str">
-        <v>02-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B12" t="str">
-        <v>4.5-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>河南艾沃贝环境科技有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G12" t="str">
-        <v>02-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>前端开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G13" t="str">
-        <v>02-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>6-8千/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>河南迈科路重工科技有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>02-07发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="15">
@@ -707,68 +707,68 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C15" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G15" t="str">
-        <v>02-07发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G16" t="str">
-        <v>02-07发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>云涌科技</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G17" t="str">
-        <v>02-07发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="18">
@@ -776,22 +776,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>1.1-2万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州保鼎科技服务有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招1人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招1人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招1人</v>
       </c>
       <c r="G18" t="str">
-        <v>02-07发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="19">
@@ -814,7 +814,7 @@
         <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>02-07发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="20">
@@ -837,237 +837,237 @@
         <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>02-06发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android开发（SZZF15zjf）(J12500)</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6-9千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G21" t="str">
-        <v>02-06发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>7-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>02-05发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Java开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G23" t="str">
-        <v>02-05发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>IT技术总监</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>豫乾大数据集团有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G24" t="str">
-        <v>02-05发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android软件开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B25" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C25" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G25" t="str">
-        <v>02-04发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>UI设计师</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>6-8千/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G26" t="str">
-        <v>02-04发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Web开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G27" t="str">
-        <v>02-04发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G28" t="str">
-        <v>02-04发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B29" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G29" t="str">
-        <v>02-04发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G30" t="str">
-        <v>02-04发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="31">
@@ -1090,122 +1090,122 @@
         <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G31" t="str">
-        <v>02-03发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G32" t="str">
-        <v>02-03发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B33" t="str">
-        <v>6-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G33" t="str">
-        <v>02-03发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>Web开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>2-2.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C34" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G34" t="str">
-        <v>02-03发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android开发工程师</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>6-8千/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G35" t="str">
-        <v>02-02发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B36" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G36" t="str">
-        <v>02-02发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="37">
@@ -1213,298 +1213,298 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>1-1.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南艾沃贝环境科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E37" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F37" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G37" t="str">
-        <v>02-02发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android开发工程师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G38" t="str">
-        <v>02-01发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>02-01发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B40" t="str">
-        <v>5-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G40" t="str">
-        <v>02-01发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B41" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G41" t="str">
-        <v>01-30发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B42" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C42" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G42" t="str">
-        <v>01-29发布</v>
+        <v>02-18发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Web前端开发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B43" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G43" t="str">
-        <v>01-29发布</v>
+        <v>02-12发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android开发工程师</v>
+        <v>人工智能讲师</v>
       </c>
       <c r="B44" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南合众信泰科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G44" t="str">
-        <v>01-29发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android工程师</v>
+        <v>Android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B45" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C45" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G45" t="str">
-        <v>01-28发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>渗透测试工程师</v>
+        <v>IT技术总监</v>
       </c>
       <c r="B46" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>豫乾大数据集团有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G46" t="str">
-        <v>01-27发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B47" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C47" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D47" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E47" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F47" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G47" t="str">
-        <v>01-27发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>UI设计师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B48" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G48" t="str">
-        <v>01-26发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B49" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G49" t="str">
-        <v>01-21发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="50">
@@ -1512,45 +1512,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G50" t="str">
-        <v>01-20发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>游戏主策划</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B51" t="str">
-        <v>1-1.5万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州鸿戈网络科技有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G51" t="str">
-        <v>01-19发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="52">
@@ -1558,344 +1558,344 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>6-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G52" t="str">
-        <v>01-18发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>游戏前端</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B53" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G53" t="str">
-        <v>01-17发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>互联网产品经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G54" t="str">
-        <v>01-16发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B55" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-二七区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G55" t="str">
-        <v>01-12发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G56" t="str">
-        <v>01-11发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>安卓开发工程师国定节假日福利+保险）</v>
+        <v>UI设计师</v>
       </c>
       <c r="B57" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>河南煋谷网络科技有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G57" t="str">
-        <v>01-08发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C58" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G58" t="str">
-        <v>01-07发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>前端开发工程师</v>
+        <v>游戏主策划</v>
       </c>
       <c r="B59" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>星际线工业软件（上海）有限公司</v>
+        <v>郑州鸿戈网络科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E59" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F59" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G59" t="str">
-        <v>01-05发布</v>
+        <v>01-19发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>web前端/h5</v>
+        <v>游戏前端</v>
       </c>
       <c r="B60" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>深圳市捷兴电子商务有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G60" t="str">
-        <v>01-04发布</v>
+        <v>01-17发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android安卓开发</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B61" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G61" t="str">
-        <v>01-04发布</v>
+        <v>01-16发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android 开发安卓工程师</v>
+        <v>安卓开发工程师国定节假日福利+保险）</v>
       </c>
       <c r="B62" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南煋谷网络科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="G62" t="str">
-        <v>01-03发布</v>
+        <v>01-08发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B63" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>河南飞渡电子科技有限公司</v>
+        <v>星际线工业软件（上海）有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G63" t="str">
-        <v>12-29发布</v>
+        <v>01-05发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>高级硬件架构师</v>
+        <v>web前端/h5</v>
       </c>
       <c r="B64" t="str">
-        <v>30-60万/年</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>深圳市捷兴电子商务有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G64" t="str">
-        <v>12-29发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>AR增强现实开发工程师</v>
+        <v>Android安卓开发</v>
       </c>
       <c r="B65" t="str">
-        <v>6-7千/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>郑州点慧育标信息科技有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G65" t="str">
-        <v>12-29发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android资深发工程师</v>
+        <v>Android 开发安卓工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G66" t="str">
-        <v>12-28发布</v>
+        <v>01-03发布</v>
       </c>
     </row>
     <row r="67">
@@ -1903,45 +1903,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>河南飞渡电子科技有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G67" t="str">
-        <v>12-27发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Java高级开发工程师</v>
+        <v>AR增强现实开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>6-7千/月</v>
       </c>
       <c r="C68" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>郑州点慧育标信息科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E68" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F68" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G68" t="str">
-        <v>12-24发布</v>
+        <v>12-29发布</v>
       </c>
     </row>
     <row r="69">
@@ -1949,513 +1949,513 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>12-23发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>8-12K招Android\安卓 开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1.3-1.8万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>北京硬盒科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G70" t="str">
-        <v>12-22发布</v>
+        <v>12-24发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Java开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>15-30万/年</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州宇通客车股份有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G71" t="str">
-        <v>12-21发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>.NET(C#)中级软件开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B72" t="str">
-        <v>1-1.5万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C72" t="str">
-        <v>北京恳维科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G72" t="str">
-        <v>12-10发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B73" t="str">
-        <v>5.5-8千/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G73" t="str">
-        <v>02-05发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>小程序开发实习生</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>3.5-5千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G74" t="str">
-        <v>01-31发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android高级开发工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>3-6千/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G75" t="str">
-        <v>12-25发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>前端开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.6-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州保鼎科技服务有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>02-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.5-1万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G77" t="str">
-        <v>02-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>技术主管</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G78" t="str">
-        <v>02-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C79" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G79" t="str">
-        <v>02-05发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>高级UI设计师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B80" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G80" t="str">
-        <v>02-05发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>iOS开发工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B81" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
-        <v>02-04发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>02-04发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>软件测试工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>02-03发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G84" t="str">
-        <v>02-03发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>DCLOUD工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G85" t="str">
-        <v>01-28发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android工程师（YD15ysw）(J12486)</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B86" t="str">
-        <v>6-9千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G86" t="str">
-        <v>01-23发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>安卓底层开发工程师</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B87" t="str">
         <v>1-1.5万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G87" t="str">
-        <v>01-20发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android开发工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G88" t="str">
-        <v>01-20发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>Android工程师（YD15ysw）(J12486)</v>
       </c>
       <c r="B89" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G89" t="str">
-        <v>01-12发布</v>
+        <v>01-23发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>UI设计</v>
+        <v>安卓底层开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>1.8-4万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G90" t="str">
-        <v>01-04发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>cocos开发</v>
+        <v>UI设计</v>
       </c>
       <c r="B91" t="str">
-        <v>1.8-3.5万/月</v>
+        <v>1.8-4万/月</v>
       </c>
       <c r="C91" t="str">
         <v>上海雍米计算机科技有限公司</v>
@@ -2475,53 +2475,53 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Android中级开发工程师</v>
+        <v>cocos开发</v>
       </c>
       <c r="B92" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-3.5万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>上海雍米计算机科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G92" t="str">
-        <v>12-28发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C93" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>北京科电航宇空间技术有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G93" t="str">
-        <v>12-28发布</v>
+        <v>12-27发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>C++开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B94" t="str">
         <v>0.8-1万/月</v>
@@ -2544,145 +2544,53 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Java开发工程师</v>
+        <v>高级JAVA开发工程师（郑州）</v>
       </c>
       <c r="B95" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.3-1.8万/月</v>
       </c>
       <c r="C95" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>北京硬盒科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G95" t="str">
-        <v>12-27发布</v>
+        <v>12-24发布</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>高级JAVA开发工程师（郑州）</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C96" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="E96" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="F96" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="G96" t="str">
-        <v>12-24发布</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>嵌入式软件工程师</v>
-      </c>
-      <c r="B97" t="str">
-        <v>6-8千/月</v>
-      </c>
-      <c r="C97" t="str">
-        <v>河南盛苑实业有限公司</v>
-      </c>
-      <c r="D97" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="E97" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="F97" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="G97" t="str">
-        <v>12-23发布</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>Android开发工程师</v>
-      </c>
-      <c r="B98" t="str">
-        <v>6-8千/月</v>
-      </c>
-      <c r="C98" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
-      </c>
-      <c r="D98" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="E98" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="F98" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="G98" t="str">
-        <v>12-15发布</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>软件UI工程师</v>
-      </c>
-      <c r="B99" t="str">
-        <v>0.8-1万/月</v>
-      </c>
-      <c r="C99" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
-      </c>
-      <c r="D99" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="E99" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="F99" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="G99" t="str">
-        <v>12-15发布</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>渗透测试工程师</v>
-      </c>
-      <c r="B100" t="str">
-        <v>5-8千/月</v>
-      </c>
-      <c r="C100" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
-      </c>
-      <c r="D100" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="E100" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="F100" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="G100" t="str">
         <v>01-27发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G96"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,140 +405,140 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>技术主管</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B2" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G2" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android 开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>5-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E3" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F3" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G3" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G4" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G5" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G6" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android高级开发工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="8">
@@ -546,137 +546,137 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>软件开发项目经理</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B9" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G9" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G10" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>前端开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G11" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>6-8千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G12" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G13" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="14">
@@ -684,114 +684,114 @@
         <v>Java开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>5-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C14" t="str">
         <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B15" t="str">
-        <v>6-8千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G15" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Android开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C16" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G16" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Android开发工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G17" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>1.1-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州保鼎科技服务有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G18" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="19">
@@ -799,298 +799,298 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>1-1.6万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C19" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G19" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Java高级开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B20" t="str">
-        <v>6-8千/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州海为电子科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G20" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>C++开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>4-6千/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G21" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G22" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G23" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B25" t="str">
-        <v>4.5-6千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G25" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>手机软件测试工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B26" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G26" t="str">
-        <v>02-23发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B27" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G27" t="str">
-        <v>02-23发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C28" t="str">
-        <v>云涌科技</v>
+        <v>河南艾沃贝环境科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G28" t="str">
-        <v>02-23发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>技术主管</v>
       </c>
       <c r="B29" t="str">
-        <v>6-8千/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G29" t="str">
-        <v>02-23发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Android开发工程师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>1-2万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G30" t="str">
-        <v>02-23发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>0.6-1万/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G31" t="str">
-        <v>02-23发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="32">
@@ -1113,122 +1113,122 @@
         <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G32" t="str">
-        <v>02-23发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E33" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F33" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G33" t="str">
-        <v>02-23发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Web开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>6-8千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-经开区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G34" t="str">
-        <v>02-22发布</v>
+        <v>02-27发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android助理工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>3-5千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G35" t="str">
-        <v>02-22发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B36" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G36" t="str">
-        <v>02-22发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南艾沃贝环境科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G37" t="str">
-        <v>02-22发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="38">
@@ -1251,352 +1251,352 @@
         <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G38" t="str">
-        <v>02-22发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android软件开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>02-20发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G40" t="str">
-        <v>02-20发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G41" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B42" t="str">
-        <v>4.5-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C42" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G42" t="str">
-        <v>02-18发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B43" t="str">
         <v>0.5-1万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G43" t="str">
-        <v>02-12发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>人工智能讲师</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B44" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>河南合众信泰科技有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G44" t="str">
-        <v>02-08发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Android开发（SZZF15zjf）(J12500)</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B45" t="str">
-        <v>6-9千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G45" t="str">
-        <v>02-06发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>IT技术总监</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B46" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C46" t="str">
-        <v>豫乾大数据集团有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G46" t="str">
-        <v>02-05发布</v>
+        <v>02-18发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>UI设计师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B47" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G47" t="str">
-        <v>02-04发布</v>
+        <v>02-12发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>人工智能讲师</v>
       </c>
       <c r="B48" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>河南合众信泰科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G48" t="str">
-        <v>02-04发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>Android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B49" t="str">
-        <v>2-2.5万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C49" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G49" t="str">
-        <v>02-03发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android开发工程师</v>
+        <v>IT技术总监</v>
       </c>
       <c r="B50" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>豫乾大数据集团有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E50" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F50" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G50" t="str">
-        <v>02-02发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>UI设计师</v>
       </c>
       <c r="B51" t="str">
-        <v>5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C51" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G51" t="str">
-        <v>02-01发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B52" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G52" t="str">
-        <v>01-30发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B53" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G53" t="str">
-        <v>01-29发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="54">
@@ -1604,45 +1604,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G54" t="str">
-        <v>01-29发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>渗透测试工程师</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B55" t="str">
-        <v>0.6-1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C55" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G55" t="str">
-        <v>01-27发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="56">
@@ -1650,45 +1650,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E56" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F56" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G56" t="str">
-        <v>01-27发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>UI设计师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B57" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G57" t="str">
-        <v>01-26发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="58">
@@ -1696,436 +1696,436 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G58" t="str">
-        <v>01-20发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>游戏主策划</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州鸿戈网络科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G59" t="str">
-        <v>01-19发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>游戏前端</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G60" t="str">
-        <v>01-17发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>互联网产品经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B61" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G61" t="str">
-        <v>01-16发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>安卓开发工程师国定节假日福利+保险）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C62" t="str">
-        <v>河南煋谷网络科技有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G62" t="str">
-        <v>01-08发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>前端开发工程师</v>
+        <v>游戏主策划</v>
       </c>
       <c r="B63" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>星际线工业软件（上海）有限公司</v>
+        <v>郑州鸿戈网络科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E63" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F63" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G63" t="str">
-        <v>01-05发布</v>
+        <v>01-19发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>web前端/h5</v>
+        <v>游戏前端</v>
       </c>
       <c r="B64" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>深圳市捷兴电子商务有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G64" t="str">
-        <v>01-04发布</v>
+        <v>01-17发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android安卓开发</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B65" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G65" t="str">
-        <v>01-04发布</v>
+        <v>01-16发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android 开发安卓工程师</v>
+        <v>安卓开发工程师国定节假日福利+保险）</v>
       </c>
       <c r="B66" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南煋谷网络科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="G66" t="str">
-        <v>01-03发布</v>
+        <v>01-08发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B67" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>河南飞渡电子科技有限公司</v>
+        <v>星际线工业软件（上海）有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G67" t="str">
-        <v>12-29发布</v>
+        <v>01-05发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>AR增强现实开发工程师</v>
+        <v>web前端/h5</v>
       </c>
       <c r="B68" t="str">
-        <v>6-7千/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州点慧育标信息科技有限公司</v>
+        <v>深圳市捷兴电子商务有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G68" t="str">
-        <v>12-29发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android开发工程师</v>
+        <v>Android 开发安卓工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G69" t="str">
-        <v>12-27发布</v>
+        <v>01-03发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Java高级开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>1.3-1.8万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C70" t="str">
-        <v>北京硬盒科技有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E70" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F70" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G70" t="str">
-        <v>12-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android高级开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B71" t="str">
-        <v>3-6千/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G71" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B72" t="str">
-        <v>5.5-8千/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C72" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G72" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>小程序开发实习生</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B73" t="str">
-        <v>3.5-5千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G73" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>软件测试工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G74" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G75" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州保鼎科技服务有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G76" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="77">
@@ -2133,252 +2133,252 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>7-9千/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C77" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G77" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C78" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G78" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>高级UI设计师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B79" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G79" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>DCLOUD工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B80" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G80" t="str">
-        <v>02-24发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G81" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android软件工程师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B82" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G82" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>APP开发工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G84" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B85" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G85" t="str">
-        <v>02-22发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G86" t="str">
-        <v>02-22发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android中级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>1-1.5万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G87" t="str">
-        <v>02-22发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="88">
@@ -2452,145 +2452,30 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>UI设计</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>1.8-4万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C91" t="str">
-        <v>上海雍米计算机科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="G91" t="str">
-        <v>01-04发布</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>cocos开发</v>
-      </c>
-      <c r="B92" t="str">
-        <v>1.8-3.5万/月</v>
-      </c>
-      <c r="C92" t="str">
-        <v>上海雍米计算机科技有限公司</v>
-      </c>
-      <c r="D92" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
-      </c>
-      <c r="E92" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
-      </c>
-      <c r="F92" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招3人</v>
-      </c>
-      <c r="G92" t="str">
-        <v>01-04发布</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>C++开发工程师</v>
-      </c>
-      <c r="B93" t="str">
-        <v>0.8-1万/月</v>
-      </c>
-      <c r="C93" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
-      </c>
-      <c r="D93" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
-      </c>
-      <c r="E93" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
-      </c>
-      <c r="F93" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
-      </c>
-      <c r="G93" t="str">
-        <v>12-27发布</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>Java开发工程师</v>
-      </c>
-      <c r="B94" t="str">
-        <v>0.8-1万/月</v>
-      </c>
-      <c r="C94" t="str">
-        <v>北京科电航宇空间技术有限公司</v>
-      </c>
-      <c r="D94" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
-      </c>
-      <c r="E94" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
-      </c>
-      <c r="F94" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招1人</v>
-      </c>
-      <c r="G94" t="str">
-        <v>12-27发布</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>高级JAVA开发工程师（郑州）</v>
-      </c>
-      <c r="B95" t="str">
-        <v>1.3-1.8万/月</v>
-      </c>
-      <c r="C95" t="str">
-        <v>北京硬盒科技有限公司</v>
-      </c>
-      <c r="D95" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
-      </c>
-      <c r="E95" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
-      </c>
-      <c r="F95" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
-      </c>
-      <c r="G95" t="str">
-        <v>12-24发布</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>渗透测试工程师</v>
-      </c>
-      <c r="B96" t="str">
-        <v>5-8千/月</v>
-      </c>
-      <c r="C96" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
-      </c>
-      <c r="D96" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="E96" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="F96" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="G96" t="str">
         <v>01-27发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G96"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,140 +405,140 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C4" t="str">
-        <v>云涌科技</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B5" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>技术工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>4-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="8">
@@ -546,91 +546,91 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Web前端开发工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>1-1.5万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="12">
@@ -638,160 +638,160 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>1-2万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B13" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Java开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>游戏推广</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B15" t="str">
-        <v>3-8千/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>高级硬件架构师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>30-60万/年</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>6-8千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="19">
@@ -799,206 +799,206 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>7-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>UI设计师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B20" t="str">
-        <v>6-9千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州海为电子科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>前端开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B21" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B22" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B24" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>1.2-4万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C25" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E25" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F25" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>4.5-6千/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B27" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-01发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="28">
@@ -1012,1470 +1012,1516 @@
         <v>河南艾沃贝环境科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-01发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>技术主管</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-01发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Android 开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>5-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E30" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F30" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-01发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android助理工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>3-5千/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-01发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B32" t="str">
-        <v>6-8千/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>郑州海为电子科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-01发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android软件开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B33" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G33" t="str">
-        <v>02-28发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>C++开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B34" t="str">
-        <v>4-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G34" t="str">
-        <v>02-27发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B35" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G35" t="str">
-        <v>02-26发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>软件开发项目经理</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G36" t="str">
-        <v>02-26发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G37" t="str">
-        <v>02-24发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android资深发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>1.5-2万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C38" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G38" t="str">
-        <v>02-24发布</v>
+        <v>02-27发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>安卓端工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>02-24发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android开发工程师</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B40" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G40" t="str">
-        <v>02-24发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>手机软件测试工程师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G41" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G42" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>0.5-1万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G43" t="str">
-        <v>02-22发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G44" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B45" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C45" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G45" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B46" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G46" t="str">
-        <v>02-18发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B47" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G47" t="str">
-        <v>02-12发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>人工智能讲师</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B48" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>河南合众信泰科技有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G48" t="str">
-        <v>02-08发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android开发（SZZF15zjf）(J12500)</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B49" t="str">
-        <v>6-9千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C49" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G49" t="str">
-        <v>02-06发布</v>
+        <v>02-18发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>IT技术总监</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B50" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>豫乾大数据集团有限公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G50" t="str">
-        <v>02-05发布</v>
+        <v>02-12发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>UI设计师</v>
+        <v>人工智能讲师</v>
       </c>
       <c r="B51" t="str">
-        <v>6-8千/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南合众信泰科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G51" t="str">
-        <v>02-04发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>Android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B52" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G52" t="str">
-        <v>02-04发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>IT技术总监</v>
       </c>
       <c r="B53" t="str">
-        <v>2-2.5万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>豫乾大数据集团有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G53" t="str">
-        <v>02-03发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B54" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D54" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E54" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F54" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G54" t="str">
-        <v>02-02发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B55" t="str">
-        <v>5-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G55" t="str">
-        <v>02-01发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android开发工程师</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B56" t="str">
-        <v>0.8-1万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G56" t="str">
-        <v>01-30发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G57" t="str">
-        <v>01-29发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Android开发工程师</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B58" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C58" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G58" t="str">
-        <v>01-29发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>渗透测试工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G59" t="str">
-        <v>01-27发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android开发工程师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B60" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E60" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F60" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G60" t="str">
-        <v>01-27发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G61" t="str">
-        <v>01-26发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G62" t="str">
-        <v>01-20发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>游戏主策划</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>郑州鸿戈网络科技有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G63" t="str">
-        <v>01-19发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>游戏前端</v>
+        <v>UI设计师</v>
       </c>
       <c r="B64" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G64" t="str">
-        <v>01-17发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>互联网产品经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C65" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-管城回族区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G65" t="str">
-        <v>01-16发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>安卓开发工程师国定节假日福利+保险）</v>
+        <v>游戏主策划</v>
       </c>
       <c r="B66" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>河南煋谷网络科技有限公司</v>
+        <v>郑州鸿戈网络科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G66" t="str">
-        <v>01-08发布</v>
+        <v>01-19发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>前端开发工程师</v>
+        <v>游戏前端</v>
       </c>
       <c r="B67" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>星际线工业软件（上海）有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G67" t="str">
-        <v>01-05发布</v>
+        <v>01-17发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>web前端/h5</v>
+        <v>安卓开发工程师国定节假日福利+保险）</v>
       </c>
       <c r="B68" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>深圳市捷兴电子商务有限公司</v>
+        <v>河南煋谷网络科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
       </c>
       <c r="G68" t="str">
-        <v>01-04发布</v>
+        <v>01-08发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android 开发安卓工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B69" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>星际线工业软件（上海）有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G69" t="str">
-        <v>01-03发布</v>
+        <v>01-05发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android高级开发工程师</v>
+        <v>web前端/h5</v>
       </c>
       <c r="B70" t="str">
-        <v>3-6千/月</v>
+        <v>1.6-3.5万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>深圳市捷兴电子商务有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G70" t="str">
-        <v>03-02发布</v>
+        <v>01-04发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>Android 开发安卓工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>5.5-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C71" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G71" t="str">
-        <v>03-02发布</v>
+        <v>01-03发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>小程序开发实习生</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>3.5-5千/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G72" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>用户增长运营专员</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B73" t="str">
-        <v>0.8-1万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G73" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android软件工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B74" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G74" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G75" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android高级开发工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B76" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B77" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>高级UI设计师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>DCLOUD工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>技术主管</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>1.8-2万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G80" t="str">
-        <v>02-28发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android中级开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G81" t="str">
-        <v>02-24发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>软件测试工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G84" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>技术主管</v>
       </c>
       <c r="B85" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G85" t="str">
-        <v>02-23发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>APP开发工程师</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G86" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B87" t="str">
-        <v>1-2万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G87" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>iOS开发工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G88" t="str">
-        <v>02-04发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android工程师（YD15ysw）(J12486)</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>6-9千/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G89" t="str">
-        <v>01-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>安卓底层开发工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C90" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G90" t="str">
-        <v>01-20发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
+        <v>Android工程师（YD15ysw）(J12486)</v>
+      </c>
+      <c r="B91" t="str">
+        <v>6-9千/月</v>
+      </c>
+      <c r="C91" t="str">
+        <v>北京东方国信科技股份有限公司</v>
+      </c>
+      <c r="D91" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E91" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F91" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G91" t="str">
+        <v>01-23发布</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>安卓底层开发工程师</v>
+      </c>
+      <c r="B92" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C92" t="str">
+        <v>郑州欣意无限信息技术有限公司</v>
+      </c>
+      <c r="D92" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="E92" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="F92" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="G92" t="str">
+        <v>01-20发布</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B93" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C93" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D93" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E91" t="str">
+      <c r="E93" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F93" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G93" t="str">
         <v>01-27发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -408,22 +408,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.5-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C2" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="4">
@@ -454,344 +454,344 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Unity3d讲师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B6" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南新华电脑学院</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>前端开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B7" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>安卓工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>云涌科技</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>安卓工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B10" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>技术工程师</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>4-8千/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B12" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>30-60万/年</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Java开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>1-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C18" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="19">
@@ -799,378 +799,378 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>游戏推广</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>3-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>6-8千/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C23" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E24" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F24" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>6-8千/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C25" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android 开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>5-8千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D26" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E26" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F26" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>互联网产品经理</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B27" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-02发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B28" t="str">
-        <v>4.5-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C28" t="str">
-        <v>河南艾沃贝环境科技有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Web前端开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B30" t="str">
-        <v>1-1.5万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>UI设计师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B32" t="str">
-        <v>6-9千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州海为电子科技有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B34" t="str">
-        <v>6-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-01发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>技术主管</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B35" t="str">
-        <v>1.8-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D35" t="str">
         <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
@@ -1182,99 +1182,99 @@
         <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-01发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android助理工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>3-5千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-01发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-01发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>C++开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B38" t="str">
-        <v>4-6千/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>郑州海为电子科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G38" t="str">
-        <v>02-27发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B39" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G39" t="str">
-        <v>02-26发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="40">
@@ -1992,186 +1992,186 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android 开发安卓工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G71" t="str">
-        <v>01-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android高级开发工程师</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B72" t="str">
-        <v>3-6千/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C72" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G72" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>小程序开发实习生</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B73" t="str">
-        <v>3.5-5千/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G73" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B74" t="str">
-        <v>5.5-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G74" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>高级UI设计师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G75" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>用户增长运营专员</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B76" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B77" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>APP开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C78" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="79">
@@ -2179,42 +2179,42 @@
         <v>Android高级开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Android开发工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B80" t="str">
-        <v>7-9千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G80" t="str">
         <v>03-03发布</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android高级开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
         <v>03-03发布</v>
@@ -2245,45 +2245,45 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android软件工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C83" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G83" t="str">
         <v>03-02发布</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>DCLOUD工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G84" t="str">
         <v>03-02发布</v>

--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,22 +408,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="3">
@@ -431,22 +431,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.7-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="4">
@@ -454,22 +454,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="5">
@@ -477,249 +477,249 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>技术工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Unity3d讲师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>河南新华电脑学院</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B8" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>android工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B10" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android助理工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>3-5千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Java开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B13" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>C++开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B14" t="str">
-        <v>4-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android开发工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B15" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G15" t="str">
         <v>03-04发布</v>
@@ -727,22 +727,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C16" t="str">
-        <v>云涌科技</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G16" t="str">
         <v>03-04发布</v>
@@ -750,22 +750,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G17" t="str">
         <v>03-04发布</v>
@@ -773,22 +773,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B18" t="str">
-        <v>6-8千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C18" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G18" t="str">
         <v>03-04发布</v>
@@ -796,22 +796,22 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B19" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G19" t="str">
         <v>03-04发布</v>
@@ -819,22 +819,22 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android开发工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G20" t="str">
         <v>03-04发布</v>
@@ -842,22 +842,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Java高级开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G21" t="str">
         <v>03-04发布</v>
@@ -865,22 +865,22 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>安卓工程师</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G22" t="str">
         <v>03-04发布</v>
@@ -888,22 +888,22 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>技术工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B23" t="str">
-        <v>4-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G23" t="str">
         <v>03-04发布</v>
@@ -911,22 +911,22 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>前端开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G24" t="str">
         <v>03-04发布</v>
@@ -934,22 +934,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android 开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>5-8千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C25" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D25" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E25" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F25" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G25" t="str">
         <v>03-04发布</v>
@@ -960,19 +960,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C26" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G26" t="str">
         <v>03-04发布</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G27" t="str">
         <v>03-04发布</v>
@@ -1003,137 +1003,137 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-03发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>高级硬件架构师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>30-60万/年</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>1-2万/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>游戏推广</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>3-8千/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-03发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B33" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G33" t="str">
         <v>03-03发布</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D34" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E34" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F34" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G34" t="str">
         <v>03-03发布</v>
@@ -1164,68 +1164,68 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>互联网产品经理</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B35" t="str">
-        <v>1-1.5万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C35" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-02发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G37" t="str">
         <v>03-02发布</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>UI设计师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B54" t="str">
         <v>6-8千/月</v>
@@ -1610,13 +1610,13 @@
         <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G54" t="str">
         <v>02-04发布</v>
@@ -1923,183 +1923,183 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>安卓开发工程师国定节假日福利+保险）</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>河南煋谷网络科技有限公司</v>
+        <v>星际线工业软件（上海）有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招10人</v>
+        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G68" t="str">
-        <v>01-08发布</v>
+        <v>01-05发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>前端开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C69" t="str">
-        <v>星际线工业软件（上海）有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E69" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F69" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G69" t="str">
-        <v>01-05发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>web前端/h5</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B70" t="str">
-        <v>1.6-3.5万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C70" t="str">
-        <v>深圳市捷兴电子商务有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G70" t="str">
-        <v>01-04发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android高级开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B71" t="str">
-        <v>3-6千/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G71" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>小程序开发实习生</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>3.5-5千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G72" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B73" t="str">
-        <v>5.5-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G73" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>高级UI设计师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B74" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G74" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G75" t="str">
         <v>03-04发布</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>DCLOUD工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
         <v>03-04发布</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>用户增长运营专员</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B77" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G77" t="str">
         <v>03-04发布</v>
@@ -2268,91 +2268,91 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android软件工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B83" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-02发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.5-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-02发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>技术主管</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B85" t="str">
-        <v>1.8-2万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G85" t="str">
-        <v>02-28发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android中级开发工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G86" t="str">
         <v>02-24发布</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G87" t="str">
         <v>02-24发布</v>
@@ -2383,145 +2383,99 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>软件测试工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B88" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G88" t="str">
-        <v>02-24发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>Android工程师（YD15ysw）(J12486)</v>
       </c>
       <c r="B89" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G89" t="str">
-        <v>02-24发布</v>
+        <v>01-23发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>iOS开发工程师</v>
+        <v>安卓底层开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G90" t="str">
-        <v>02-04发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Android工程师（YD15ysw）(J12486)</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6-9千/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C91" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="G91" t="str">
-        <v>01-23发布</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>安卓底层开发工程师</v>
-      </c>
-      <c r="B92" t="str">
-        <v>1-1.5万/月</v>
-      </c>
-      <c r="C92" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
-      </c>
-      <c r="D92" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
-      </c>
-      <c r="E92" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
-      </c>
-      <c r="F92" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
-      </c>
-      <c r="G92" t="str">
-        <v>01-20发布</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>渗透测试工程师</v>
-      </c>
-      <c r="B93" t="str">
-        <v>5-8千/月</v>
-      </c>
-      <c r="C93" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
-      </c>
-      <c r="D93" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="E93" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="F93" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="G93" t="str">
         <v>01-27发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,163 +405,163 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.5-1万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C2" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B3" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>技术工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B6" t="str">
-        <v>4-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B7" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="9">
@@ -569,160 +569,160 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>安卓工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>云涌科技</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>前端开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B12" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C13" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Unity3d讲师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B14" t="str">
-        <v>6-8千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>河南新华电脑学院</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>互联网产品经理</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C15" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="16">
@@ -730,459 +730,459 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Web前端开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>游戏推广</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>3-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D19" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B20" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Android助理工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>3-5千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-04发布</v>
+        <v>03-07发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-04发布</v>
+        <v>03-07发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Java开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B24" t="str">
-        <v>0.6-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C24" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-04发布</v>
+        <v>03-07发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>C++开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>4-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-04发布</v>
+        <v>03-06发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android开发工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B26" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-04发布</v>
+        <v>03-06发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B27" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-04发布</v>
+        <v>03-06发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C28" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-04发布</v>
+        <v>03-06发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android开发工程师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B29" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C29" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-05发布</v>
+        <v>03-06发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Java高级开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>6-8千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-04发布</v>
+        <v>03-06发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>前端开发工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-04发布</v>
+        <v>03-06发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android 开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>5-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-04发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>android工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-03发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C34" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-03发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>30-60万/年</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-03发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="36">
@@ -1205,789 +1205,789 @@
         <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-03发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android软件开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B37" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-02发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>UI设计师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>6-9千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州海为电子科技有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-02发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>技术主管</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>1.8-2万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-01发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>软件开发项目经理</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C40" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G40" t="str">
-        <v>02-26发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android资深发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G41" t="str">
-        <v>02-24发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>安卓端工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B42" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C42" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G42" t="str">
-        <v>02-24发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B43" t="str">
-        <v>1-1.6万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C43" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>郑州海为电子科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G43" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>手机软件测试工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B44" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G44" t="str">
-        <v>02-23发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B45" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G45" t="str">
-        <v>02-23发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>0.5-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G46" t="str">
-        <v>02-22发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G47" t="str">
-        <v>02-20发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G48" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B49" t="str">
-        <v>4.5-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C49" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G49" t="str">
-        <v>02-18发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B50" t="str">
         <v>0.5-1万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G50" t="str">
-        <v>02-12发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>人工智能讲师</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B51" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>河南合众信泰科技有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G51" t="str">
-        <v>02-08发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android开发（SZZF15zjf）(J12500)</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B52" t="str">
-        <v>6-9千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G52" t="str">
-        <v>02-06发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>IT技术总监</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B53" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>豫乾大数据集团有限公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G53" t="str">
-        <v>02-05发布</v>
+        <v>02-12发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>iOS开发工程师</v>
+        <v>人工智能讲师</v>
       </c>
       <c r="B54" t="str">
-        <v>6-8千/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南合众信泰科技有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G54" t="str">
-        <v>02-04发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>Android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B55" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C55" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G55" t="str">
-        <v>02-04发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>IT技术总监</v>
       </c>
       <c r="B56" t="str">
-        <v>2-2.5万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>豫乾大数据集团有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G56" t="str">
-        <v>02-03发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android开发工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D57" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E57" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F57" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G57" t="str">
-        <v>02-02发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B58" t="str">
-        <v>5-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G58" t="str">
-        <v>02-01发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Android开发工程师</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B59" t="str">
-        <v>0.8-1万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G59" t="str">
-        <v>01-30发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G60" t="str">
-        <v>01-29发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android开发工程师</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B61" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C61" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G61" t="str">
-        <v>01-29发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>渗透测试工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G62" t="str">
-        <v>01-27发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android开发工程师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B63" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E63" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F63" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G63" t="str">
-        <v>01-27发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G64" t="str">
-        <v>01-26发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G65" t="str">
-        <v>01-20发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>游戏主策划</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州鸿戈网络科技有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G66" t="str">
-        <v>01-19发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>游戏前端</v>
+        <v>UI设计师</v>
       </c>
       <c r="B67" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G67" t="str">
-        <v>01-17发布</v>
+        <v>01-26发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C68" t="str">
-        <v>星际线工业软件（上海）有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E68" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F68" t="str">
-        <v>异地招聘  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G68" t="str">
-        <v>01-05发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android高级开发工程师</v>
+        <v>游戏主策划</v>
       </c>
       <c r="B69" t="str">
-        <v>3-6千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州鸿戈网络科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>03-04发布</v>
+        <v>01-19发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>小程序开发实习生</v>
+        <v>游戏前端</v>
       </c>
       <c r="B70" t="str">
-        <v>3.5-5千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G70" t="str">
-        <v>03-04发布</v>
+        <v>01-17发布</v>
       </c>
     </row>
     <row r="71">
@@ -2010,472 +2010,541 @@
         <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G71" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B72" t="str">
-        <v>6-8千/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C72" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G72" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>高级UI设计师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G73" t="str">
-        <v>03-05发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>用户增长运营专员</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G74" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android软件工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G75" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>DCLOUD工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B78" t="str">
-        <v>7-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C78" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android高级开发工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G80" t="str">
-        <v>03-03发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>APP开发工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B81" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G81" t="str">
-        <v>03-03发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-03发布</v>
+        <v>03-07发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>技术主管</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>02-28发布</v>
+        <v>03-07发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Android中级开发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G84" t="str">
-        <v>02-24发布</v>
+        <v>03-05发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B85" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G85" t="str">
-        <v>02-24发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G86" t="str">
-        <v>02-24发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>软件测试工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G87" t="str">
-        <v>02-24发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>UI设计师</v>
+        <v>技术主管</v>
       </c>
       <c r="B88" t="str">
-        <v>6-8千/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G88" t="str">
-        <v>02-04发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android工程师（YD15ysw）(J12486)</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>6-9千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G89" t="str">
-        <v>01-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>安卓底层开发工程师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B90" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G90" t="str">
-        <v>01-20发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B91" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C91" t="str">
+        <v>河南鑫利安全技术服务有限责任公司</v>
+      </c>
+      <c r="D91" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E91" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F91" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G91" t="str">
+        <v>02-04发布</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Android工程师（YD15ysw）(J12486)</v>
+      </c>
+      <c r="B92" t="str">
+        <v>6-9千/月</v>
+      </c>
+      <c r="C92" t="str">
+        <v>北京东方国信科技股份有限公司</v>
+      </c>
+      <c r="D92" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E92" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F92" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G92" t="str">
+        <v>01-23发布</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>安卓底层开发工程师</v>
+      </c>
+      <c r="B93" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C93" t="str">
+        <v>郑州欣意无限信息技术有限公司</v>
+      </c>
+      <c r="D93" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="E93" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="F93" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="G93" t="str">
+        <v>01-20发布</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B94" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C94" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D94" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E91" t="str">
+      <c r="E94" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F94" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G94" t="str">
         <v>01-27发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G94"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,255 +405,255 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>4-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C2" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>前端开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>高级UI</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.6-1万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C8" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B9" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B10" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B11" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Java开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="13">
@@ -661,206 +661,206 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>7-9千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>游戏推广</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>3-8千/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>安卓端工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>云涌科技</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B20" t="str">
-        <v>1.2-4万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E20" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F20" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Java高级开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B21" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="22">
@@ -868,68 +868,68 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-07发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.5-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-07发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-07发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="25">
@@ -952,53 +952,53 @@
         <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-06发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>互联网产品经理</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B26" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-06发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-06发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="28">
@@ -1021,122 +1021,122 @@
         <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-06发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>android工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-06发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>C++开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B30" t="str">
-        <v>4-6千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-06发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>技术工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B31" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-06发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android软件开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B32" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-05发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-05发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="34">
@@ -1144,22 +1144,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-05发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="35">
@@ -1182,651 +1182,651 @@
         <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-05发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android开发工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>1-2万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-08发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>安卓工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B37" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-05发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>1-1.5万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android助理工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>3-5千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B41" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C41" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G41" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>高级硬件架构师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G42" t="str">
-        <v>03-03发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>6-9千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州海为电子科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-02发布</v>
+        <v>03-07发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>技术主管</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B44" t="str">
-        <v>1.8-2万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C44" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G44" t="str">
-        <v>03-01发布</v>
+        <v>03-06发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>软件开发项目经理</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C45" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G45" t="str">
-        <v>02-26发布</v>
+        <v>03-06发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android资深发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G46" t="str">
-        <v>02-24发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B47" t="str">
-        <v>1-1.6万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C47" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>郑州海为电子科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G47" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>手机软件测试工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B48" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G48" t="str">
-        <v>02-23发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B49" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G49" t="str">
-        <v>02-23发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>0.5-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G50" t="str">
-        <v>02-22发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G51" t="str">
-        <v>02-20发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G52" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B53" t="str">
-        <v>0.5-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C53" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G53" t="str">
-        <v>02-12发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>人工智能讲师</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B54" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南合众信泰科技有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G54" t="str">
-        <v>02-08发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android开发（SZZF15zjf）(J12500)</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B55" t="str">
-        <v>6-9千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G55" t="str">
-        <v>02-06发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>IT技术总监</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B56" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>豫乾大数据集团有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G56" t="str">
-        <v>02-05发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>iOS开发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B57" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G57" t="str">
-        <v>02-04发布</v>
+        <v>02-12发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>人工智能讲师</v>
       </c>
       <c r="B58" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>河南合众信泰科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G58" t="str">
-        <v>02-04发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>Android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B59" t="str">
-        <v>2-2.5万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C59" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G59" t="str">
-        <v>02-03发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android开发工程师</v>
+        <v>IT技术总监</v>
       </c>
       <c r="B60" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>豫乾大数据集团有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E60" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F60" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G60" t="str">
-        <v>02-02发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C61" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G61" t="str">
-        <v>02-01发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B62" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G62" t="str">
-        <v>01-30发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B63" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G63" t="str">
-        <v>01-29发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="64">
@@ -1834,45 +1834,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G64" t="str">
-        <v>01-29发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>渗透测试工程师</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B65" t="str">
-        <v>0.6-1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C65" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G65" t="str">
-        <v>01-27发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="66">
@@ -1880,45 +1880,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E66" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F66" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G66" t="str">
-        <v>01-27发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>UI设计师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B67" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G67" t="str">
-        <v>01-26发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="68">
@@ -1926,625 +1926,740 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G68" t="str">
-        <v>01-20发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>游戏主策划</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州鸿戈网络科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G69" t="str">
-        <v>01-19发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>游戏前端</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G70" t="str">
-        <v>01-17发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>5.5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G71" t="str">
-        <v>03-08发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>小程序开发实习生</v>
+        <v>游戏主策划</v>
       </c>
       <c r="B72" t="str">
-        <v>3.5-5千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州鸿戈网络科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G72" t="str">
-        <v>03-08发布</v>
+        <v>01-19发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android高级开发工程师</v>
+        <v>游戏前端</v>
       </c>
       <c r="B73" t="str">
-        <v>3-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G73" t="str">
-        <v>03-04发布</v>
+        <v>01-17发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>高级测试工程师</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B74" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C74" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G74" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B75" t="str">
-        <v>6-8千/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C75" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G75" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-08发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.7-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>高级UI设计师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C78" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>软件测试工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B80" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G80" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>用户增长运营专员</v>
+        <v>高级UI</v>
       </c>
       <c r="B81" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
-        <v>03-08发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android软件工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-07发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-07发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>DCLOUD工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B84" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-05发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-03发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G86" t="str">
-        <v>03-03发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>APP开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-03发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>技术主管</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G88" t="str">
-        <v>02-28发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android中级开发工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G89" t="str">
-        <v>02-24发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B90" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G90" t="str">
-        <v>02-24发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>UI设计师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G91" t="str">
-        <v>02-04发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Android工程师（YD15ysw）(J12486)</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>6-9千/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G92" t="str">
-        <v>01-23发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>安卓底层开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B93" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C93" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G93" t="str">
-        <v>01-20发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
+        <v>Android中级开发工程师</v>
+      </c>
+      <c r="B94" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C94" t="str">
+        <v>河南哈夫曼信息科技有限公司</v>
+      </c>
+      <c r="D94" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="E94" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="F94" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="G94" t="str">
+        <v>02-24发布</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
+      </c>
+      <c r="B95" t="str">
+        <v>1.5-2万/月</v>
+      </c>
+      <c r="C95" t="str">
+        <v>河南哈夫曼信息科技有限公司</v>
+      </c>
+      <c r="D95" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="E95" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="F95" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="G95" t="str">
+        <v>02-24发布</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B96" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C96" t="str">
+        <v>河南鑫利安全技术服务有限责任公司</v>
+      </c>
+      <c r="D96" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E96" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F96" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G96" t="str">
+        <v>02-04发布</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Android工程师（YD15ysw）(J12486)</v>
+      </c>
+      <c r="B97" t="str">
+        <v>6-9千/月</v>
+      </c>
+      <c r="C97" t="str">
+        <v>北京东方国信科技股份有限公司</v>
+      </c>
+      <c r="D97" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E97" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F97" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G97" t="str">
+        <v>01-23发布</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>安卓底层开发工程师</v>
+      </c>
+      <c r="B98" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C98" t="str">
+        <v>郑州欣意无限信息技术有限公司</v>
+      </c>
+      <c r="D98" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="E98" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="F98" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="G98" t="str">
+        <v>01-20发布</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B99" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C99" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D94" t="str">
+      <c r="D99" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E94" t="str">
+      <c r="E99" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F99" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G94" t="str">
+      <c r="G99" t="str">
         <v>01-27发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G94"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G99"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,375 +423,375 @@
         <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>前端开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B4" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>UI设计师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B5" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B6" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android助理工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>3-5千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Web前端开发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B8" t="str">
-        <v>4-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-经开区  |  1年经验  |  中专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>UI设计师</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B10" t="str">
-        <v>0.5-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Web前端开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>前端开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C16" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Java开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="19">
@@ -799,68 +799,68 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B20" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6-8千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="22">
@@ -883,7 +883,7 @@
         <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="23">
@@ -906,283 +906,283 @@
         <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B24" t="str">
-        <v>0.6-1万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C24" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>高级UI设计师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>0.8-1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android软件开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Unity3d讲师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B28" t="str">
-        <v>6-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>河南新华电脑学院</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>互联网产品经理</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-09发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>安卓工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B33" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>云涌科技</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-09发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Android开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B34" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-09发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android 开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E35" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F35" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-09发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="36">
@@ -1205,214 +1205,214 @@
         <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-09发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-08发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B38" t="str">
-        <v>1-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-08发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android开发工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-08发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>游戏推广</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B41" t="str">
-        <v>3-8千/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G41" t="str">
-        <v>03-08发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>安卓端工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B42" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G42" t="str">
-        <v>03-08发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-07发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>4.5-6千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G44" t="str">
-        <v>03-06发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>C++开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>4-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G45" t="str">
-        <v>03-06发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="46">
@@ -1420,459 +1420,459 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G46" t="str">
-        <v>03-04发布</v>
+        <v>03-07发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>UI设计师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B47" t="str">
-        <v>6-9千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州海为电子科技有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G47" t="str">
-        <v>03-02发布</v>
+        <v>03-06发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>技术主管</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G48" t="str">
-        <v>03-01发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>软件开发项目经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B49" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C49" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>郑州海为电子科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G49" t="str">
-        <v>02-26发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android资深发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B50" t="str">
-        <v>1.5-2万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G50" t="str">
-        <v>02-24发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android开发工程师</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B51" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G51" t="str">
-        <v>02-24发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>手机软件测试工程师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G52" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G53" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G54" t="str">
-        <v>02-22发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B55" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C55" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G55" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B56" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G56" t="str">
-        <v>02-20发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B57" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G57" t="str">
-        <v>02-12发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>人工智能讲师</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B58" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>河南合众信泰科技有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G58" t="str">
-        <v>02-08发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Android开发（SZZF15zjf）(J12500)</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B59" t="str">
-        <v>6-9千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G59" t="str">
-        <v>02-06发布</v>
+        <v>02-12发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>IT技术总监</v>
+        <v>人工智能讲师</v>
       </c>
       <c r="B60" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>豫乾大数据集团有限公司</v>
+        <v>河南合众信泰科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G60" t="str">
-        <v>02-05发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>iOS开发工程师</v>
+        <v>Android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B61" t="str">
-        <v>6-8千/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C61" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G61" t="str">
-        <v>02-04发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>IT技术总监</v>
       </c>
       <c r="B62" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>豫乾大数据集团有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G62" t="str">
-        <v>02-04发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>2-2.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C63" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G63" t="str">
-        <v>02-03发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B64" t="str">
         <v>1-1.5万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E64" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F64" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G64" t="str">
-        <v>02-02发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B65" t="str">
-        <v>5-8千/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G65" t="str">
-        <v>02-01发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="66">
@@ -1880,45 +1880,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G66" t="str">
-        <v>01-30发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B67" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C67" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G67" t="str">
-        <v>01-29发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="68">
@@ -1926,45 +1926,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G68" t="str">
-        <v>01-29发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>渗透测试工程师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B69" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>01-27发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="70">
@@ -1972,694 +1972,763 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E70" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F70" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G70" t="str">
-        <v>01-27发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G71" t="str">
-        <v>01-20发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>游戏主策划</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州鸿戈网络科技有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G72" t="str">
-        <v>01-19发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>游戏前端</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G73" t="str">
-        <v>01-17发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>小程序开发实习生</v>
+        <v>游戏主策划</v>
       </c>
       <c r="B74" t="str">
-        <v>3.5-5千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州鸿戈网络科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G74" t="str">
-        <v>03-10发布</v>
+        <v>01-19发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>游戏前端</v>
       </c>
       <c r="B75" t="str">
-        <v>5.5-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G75" t="str">
-        <v>03-10发布</v>
+        <v>01-17发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android高级开发工程师</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B76" t="str">
-        <v>3-6千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>UI设计师</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B77" t="str">
-        <v>6-8千/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C77" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B78" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.7-1万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-10发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>高级UI设计师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G80" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>高级UI</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>高级测试工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B82" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>DCLOUD工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>用户增长运营专员</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-09发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-08发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android软件工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C86" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G86" t="str">
-        <v>03-08发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B87" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-08发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G88" t="str">
-        <v>03-08发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>软件测试工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G89" t="str">
-        <v>03-08发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G90" t="str">
-        <v>03-03发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Android高级开发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G91" t="str">
-        <v>03-03发布</v>
+        <v>03-09发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>APP开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G92" t="str">
-        <v>03-03发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>技术主管</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B93" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C93" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G93" t="str">
-        <v>02-28发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android中级开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C94" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G94" t="str">
-        <v>02-24发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C95" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G95" t="str">
-        <v>02-24发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>UI设计师</v>
+        <v>技术主管</v>
       </c>
       <c r="B96" t="str">
-        <v>6-8千/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C96" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E96" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F96" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G96" t="str">
-        <v>02-04发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Android工程师（YD15ysw）(J12486)</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>6-9千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C97" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E97" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F97" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G97" t="str">
-        <v>01-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>安卓底层开发工程师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B98" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C98" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E98" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F98" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G98" t="str">
-        <v>01-20发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B99" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C99" t="str">
+        <v>河南鑫利安全技术服务有限责任公司</v>
+      </c>
+      <c r="D99" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="E99" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="F99" t="str">
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+      </c>
+      <c r="G99" t="str">
+        <v>02-04发布</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Android工程师（YD15ysw）(J12486)</v>
+      </c>
+      <c r="B100" t="str">
+        <v>6-9千/月</v>
+      </c>
+      <c r="C100" t="str">
+        <v>北京东方国信科技股份有限公司</v>
+      </c>
+      <c r="D100" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E100" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F100" t="str">
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G100" t="str">
+        <v>01-23发布</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>安卓底层开发工程师</v>
+      </c>
+      <c r="B101" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C101" t="str">
+        <v>郑州欣意无限信息技术有限公司</v>
+      </c>
+      <c r="D101" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="E101" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="F101" t="str">
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+      </c>
+      <c r="G101" t="str">
+        <v>01-20发布</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B102" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C102" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D102" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E99" t="str">
+      <c r="E102" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F102" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G99" t="str">
+      <c r="G102" t="str">
         <v>01-27发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G99"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G102"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -405,275 +405,275 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B2" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B3" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B5" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B6" t="str">
-        <v>1.5-2万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C6" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>APP开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android助理工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>3-5千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B11" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Java开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B12" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G13" t="str">
         <v>03-12发布</v>
@@ -681,22 +681,22 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G14" t="str">
         <v>03-12发布</v>
@@ -704,22 +704,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>安卓端工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G15" t="str">
         <v>03-12发布</v>
@@ -727,22 +727,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>4-8千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G16" t="str">
         <v>03-12发布</v>
@@ -753,19 +753,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G17" t="str">
         <v>03-12发布</v>
@@ -773,22 +773,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android开发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B18" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G18" t="str">
         <v>03-12发布</v>
@@ -796,22 +796,22 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android开发工程师</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C19" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G19" t="str">
         <v>03-12发布</v>
@@ -819,22 +819,22 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>UI设计师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B20" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G20" t="str">
         <v>03-12发布</v>
@@ -842,22 +842,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>C++开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>4-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G21" t="str">
         <v>03-12发布</v>
@@ -865,22 +865,22 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Android开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>7-9千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G22" t="str">
         <v>03-12发布</v>
@@ -888,22 +888,22 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G23" t="str">
         <v>03-12发布</v>
@@ -911,22 +911,22 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>游戏推广</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>3-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G24" t="str">
         <v>03-12发布</v>
@@ -934,22 +934,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>安卓工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>云涌科技</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G25" t="str">
         <v>03-12发布</v>
@@ -957,22 +957,22 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android 开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>5-8千/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C26" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E26" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F26" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G26" t="str">
         <v>03-12发布</v>
@@ -980,45 +980,45 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B27" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E28" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F28" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G28" t="str">
         <v>03-12发布</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>1-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C29" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G29" t="str">
         <v>03-12发布</v>
@@ -1052,19 +1052,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G30" t="str">
         <v>03-12发布</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>前端开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B31" t="str">
-        <v>0.6-1万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G31" t="str">
         <v>03-12发布</v>
@@ -1095,114 +1095,114 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android软件开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>互联网产品经理</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>1-1.5万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C33" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B34" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C34" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B35" t="str">
-        <v>6-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>技术工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B36" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G36" t="str">
         <v>03-11发布</v>
@@ -1210,22 +1210,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B37" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G37" t="str">
         <v>03-11发布</v>
@@ -1233,22 +1233,22 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G38" t="str">
         <v>03-11发布</v>
@@ -1256,68 +1256,68 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C39" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-11发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>前端开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B40" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-10发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>高级硬件架构师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>30-60万/年</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G41" t="str">
         <v>03-10发布</v>
@@ -2107,68 +2107,68 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B76" t="str">
-        <v>1-2万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C76" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>小程序开发实习生</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B77" t="str">
-        <v>3.5-5千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>5.5-8千/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C78" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G78" t="str">
         <v>03-12发布</v>
@@ -2176,25 +2176,25 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android高级开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B79" t="str">
-        <v>3-6千/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C79" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="80">

--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,255 +405,255 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>UI设计师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>UI设计师</v>
       </c>
       <c r="B3" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>android工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B5" t="str">
-        <v>1.5-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C5" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>高级硬件架构师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B6" t="str">
-        <v>30-60万/年</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6-8千/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B9" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>APP开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B10" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>UI设计师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="13">
@@ -661,390 +661,390 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Android开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C16" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Android开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.5-1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C18" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android助理工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B19" t="str">
-        <v>3-5千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Java开发工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B22" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Web前端开发工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B24" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>安卓端工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B25" t="str">
         <v>0.8-1.5万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Web前端开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>4-8千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-12发布</v>
+        <v>03-14发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B27" t="str">
-        <v>6-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-13发布</v>
+        <v>03-14发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B28" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-12发布</v>
+        <v>03-14发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>C++开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>4-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="30">
@@ -1052,88 +1052,88 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>7-9千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>游戏推广</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B31" t="str">
-        <v>3-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>安卓工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>云涌科技</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android 开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C33" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E33" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F33" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G33" t="str">
         <v>03-12发布</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G34" t="str">
         <v>03-12发布</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E35" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F35" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G35" t="str">
         <v>03-12发布</v>
@@ -1187,186 +1187,186 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>互联网产品经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>1-1.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>6-8千/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>技术工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>4-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-13发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>高级UI设计师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>前端开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C41" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G41" t="str">
-        <v>03-10发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Unity3d讲师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B42" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南新华电脑学院</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G42" t="str">
-        <v>03-09发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-09发布</v>
+        <v>03-10发布</v>
       </c>
     </row>
     <row r="44">
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>渗透测试工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C71" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G71" t="str">
         <v>01-27发布</v>
@@ -2018,295 +2018,295 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C72" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E72" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F72" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G72" t="str">
-        <v>01-27发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android开发工程师</v>
+        <v>游戏主策划</v>
       </c>
       <c r="B73" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>郑州鸿戈网络科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G73" t="str">
-        <v>01-20发布</v>
+        <v>01-19发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>游戏主策划</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>1-1.5万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州鸿戈网络科技有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G74" t="str">
-        <v>01-19发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>游戏前端</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B75" t="str">
-        <v>0.6-1万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C75" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G75" t="str">
-        <v>01-17发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>小程序开发实习生</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B76" t="str">
-        <v>3.5-5千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B77" t="str">
-        <v>1-2万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C77" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android高级开发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>3-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>5.5-8千/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C79" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G80" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>软件测试工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G81" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>用户增长运营专员</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-12发布</v>
+        <v>03-14发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android高级开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-12发布</v>
+        <v>03-14发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Android开发工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G84" t="str">
         <v>03-12发布</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>高级UI设计师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G85" t="str">
         <v>03-12发布</v>
@@ -2337,22 +2337,22 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>UI设计师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B86" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G86" t="str">
         <v>03-12发布</v>
@@ -2360,30 +2360,30 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>高级UI</v>
+        <v>UI设计师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>高级测试工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B88" t="str">
         <v>0.8-1.2万/月</v>
@@ -2392,13 +2392,13 @@
         <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G88" t="str">
         <v>03-11发布</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G89" t="str">
         <v>03-11发布</v>
@@ -2429,79 +2429,79 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android软件工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C90" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G90" t="str">
-        <v>03-10发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>DCLOUD工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B91" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G91" t="str">
-        <v>03-09发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G92" t="str">
-        <v>03-08发布</v>
+        <v>03-03发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C93" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
@@ -2521,214 +2521,168 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android高级开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B94" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C94" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G94" t="str">
-        <v>03-03发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>APP开发工程师</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C95" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G95" t="str">
-        <v>03-03发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>技术主管</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B96" t="str">
-        <v>1.8-2万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C96" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E96" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F96" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G96" t="str">
-        <v>02-28发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Android中级开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B97" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C97" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E97" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F97" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G97" t="str">
-        <v>02-24发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>Android工程师（YD15ysw）(J12486)</v>
       </c>
       <c r="B98" t="str">
-        <v>1.5-2万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C98" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E98" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F98" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G98" t="str">
-        <v>02-24发布</v>
+        <v>01-23发布</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>UI设计师</v>
+        <v>安卓底层开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C99" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>郑州欣意无限信息技术有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E99" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F99" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G99" t="str">
-        <v>02-04发布</v>
+        <v>01-20发布</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Android工程师（YD15ysw）(J12486)</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>6-9千/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C100" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="E100" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="F100" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="G100" t="str">
-        <v>01-23发布</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>安卓底层开发工程师</v>
-      </c>
-      <c r="B101" t="str">
-        <v>1-1.5万/月</v>
-      </c>
-      <c r="C101" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
-      </c>
-      <c r="D101" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
-      </c>
-      <c r="E101" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
-      </c>
-      <c r="F101" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
-      </c>
-      <c r="G101" t="str">
-        <v>01-20发布</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>渗透测试工程师</v>
-      </c>
-      <c r="B102" t="str">
-        <v>5-8千/月</v>
-      </c>
-      <c r="C102" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
-      </c>
-      <c r="D102" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="E102" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="F102" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="G102" t="str">
-        <v>01-27发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G102"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,1520 +405,1520 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>前端开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B2" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B3" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>android工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B5" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B6" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android助理工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>3-5千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Java开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Unity3d讲师</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>6-8千/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>河南新华电脑学院</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>UI设计师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B11" t="str">
-        <v>6-8千/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州中兴产业园有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android高级开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android开发工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B13" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B14" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android开发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B15" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>高级硬件架构师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B17" t="str">
-        <v>6-8千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C17" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android 开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>5-8千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E18" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F18" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>游戏推广</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>3-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>0.6-1万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B22" t="str">
-        <v>1.5-2万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-15发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>0.8-1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C24" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-15发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-15发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>APP开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B26" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-14发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B27" t="str">
-        <v>4.5-6千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-14发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>android工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E28" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F28" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-14发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>渗透测试工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B29" t="str">
-        <v>0.6-1万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C29" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-13发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Android开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B30" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-13发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>互联网产品经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-13发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>技术工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B32" t="str">
-        <v>4-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-13发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android开发工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-12发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B34" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C34" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-12发布</v>
+        <v>03-20发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-12发布</v>
+        <v>03-19发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B36" t="str">
-        <v>4.5-6千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C36" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-12发布</v>
+        <v>03-19发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>安卓端工程师</v>
+        <v>Android助理工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>3-5千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-12发布</v>
+        <v>03-19发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>4-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-12发布</v>
+        <v>03-19发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android开发工程师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B39" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C39" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-12发布</v>
+        <v>03-18发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>安卓工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C40" t="str">
-        <v>云涌科技</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-12发布</v>
+        <v>03-18发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>C++开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>4-6千/月</v>
+        <v>0.6-1.3万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>东方通信股份有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G41" t="str">
-        <v>03-12发布</v>
+        <v>03-17发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>高级UI设计师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>0.8-1万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C42" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G42" t="str">
-        <v>03-11发布</v>
+        <v>03-17发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-10发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>1-2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G44" t="str">
-        <v>03-08发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B45" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G45" t="str">
-        <v>03-08发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G46" t="str">
-        <v>03-07发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G47" t="str">
-        <v>03-06发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B48" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G48" t="str">
-        <v>03-04发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>6-9千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州海为电子科技有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-02发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>技术主管</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B50" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G50" t="str">
-        <v>03-01发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>软件开发项目经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G51" t="str">
-        <v>02-26发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android资深发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G52" t="str">
-        <v>02-24发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B53" t="str">
-        <v>1-1.6万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C53" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>郑州海为电子科技有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G53" t="str">
-        <v>02-24发布</v>
+        <v>03-02发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>手机软件测试工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B54" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G54" t="str">
-        <v>02-23发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B55" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G55" t="str">
-        <v>02-23发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>0.5-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G56" t="str">
-        <v>02-22发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G57" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B58" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C58" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G58" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B59" t="str">
         <v>0.5-1万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G59" t="str">
-        <v>02-12发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>人工智能讲师</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B60" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>河南合众信泰科技有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G60" t="str">
-        <v>02-08发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android开发（SZZF15zjf）(J12500)</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B61" t="str">
-        <v>6-9千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G61" t="str">
-        <v>02-06发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>IT技术总监</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B62" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>豫乾大数据集团有限公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G62" t="str">
-        <v>02-05发布</v>
+        <v>02-12发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>iOS开发工程师</v>
+        <v>人工智能讲师</v>
       </c>
       <c r="B63" t="str">
-        <v>6-8千/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南合众信泰科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G63" t="str">
-        <v>02-04发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>Android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B64" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G64" t="str">
-        <v>02-04发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>IT技术总监</v>
       </c>
       <c r="B65" t="str">
-        <v>2-2.5万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>豫乾大数据集团有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G65" t="str">
-        <v>02-03发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android开发工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D66" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E66" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F66" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G66" t="str">
-        <v>02-02发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B67" t="str">
-        <v>5-8千/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G67" t="str">
-        <v>02-01发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="68">
@@ -1926,45 +1926,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G68" t="str">
-        <v>01-30发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B69" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C69" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>01-29发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="70">
@@ -1972,22 +1972,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G70" t="str">
-        <v>01-29发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="71">
@@ -1995,22 +1995,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C71" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E71" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F71" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G71" t="str">
-        <v>01-27发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="72">
@@ -2018,160 +2018,160 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G72" t="str">
-        <v>01-20发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>游戏主策划</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B73" t="str">
-        <v>1-1.5万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州鸿戈网络科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G73" t="str">
-        <v>01-19发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android高级开发工程师</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B74" t="str">
-        <v>3-6千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G74" t="str">
-        <v>03-15发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>小程序开发实习生</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>3.5-5千/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G75" t="str">
-        <v>03-15发布</v>
+        <v>03-20发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>1-2万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>5.5-8千/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>DCLOUD工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.8-1万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="79">
@@ -2179,410 +2179,410 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>7-9千/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C79" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B80" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C80" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G80" t="str">
-        <v>03-15发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>高级UI设计师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G81" t="str">
-        <v>03-15发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android软件工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B82" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-14发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-14发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-12发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>软件测试工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-12发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>用户增长运营专员</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G86" t="str">
-        <v>03-12发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>UI设计师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-12发布</v>
+        <v>03-19发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>高级UI</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G88" t="str">
-        <v>03-11发布</v>
+        <v>03-19发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>高级测试工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B89" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G89" t="str">
-        <v>03-11发布</v>
+        <v>03-19发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G90" t="str">
-        <v>03-08发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G91" t="str">
-        <v>03-03发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Android高级开发工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G92" t="str">
-        <v>03-03发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>APP开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B93" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C93" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G93" t="str">
-        <v>03-03发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>技术主管</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>1.8-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C94" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G94" t="str">
-        <v>02-28发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android中级开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B95" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C95" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G95" t="str">
-        <v>02-24发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C96" t="str">
         <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E96" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F96" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G96" t="str">
         <v>02-24发布</v>
@@ -2590,99 +2590,76 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>UI设计师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B97" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C97" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E97" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F97" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G97" t="str">
-        <v>02-04发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Android工程师（YD15ysw）(J12486)</v>
+        <v>UI设计师</v>
       </c>
       <c r="B98" t="str">
-        <v>6-9千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C98" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E98" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F98" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G98" t="str">
-        <v>01-23发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>安卓底层开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>1-1.5万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C99" t="str">
-        <v>郑州欣意无限信息技术有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="E99" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="F99" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="G99" t="str">
-        <v>01-20发布</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>渗透测试工程师</v>
-      </c>
-      <c r="B100" t="str">
-        <v>5-8千/月</v>
-      </c>
-      <c r="C100" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
-      </c>
-      <c r="D100" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="E100" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="F100" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="G100" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G99"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,117 +405,117 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Java开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B2" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B3" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>APP开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C5" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="7">
@@ -523,298 +523,298 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>高级应用工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B9" t="str">
-        <v>1.8-2万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E9" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F9" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B10" t="str">
-        <v>0.6-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>UI设计师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>C++开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B12" t="str">
-        <v>4-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>互联网产品经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B13" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B14" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>安卓工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C16" t="str">
-        <v>云涌科技</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>UI设计师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>4-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android高级开发工程师</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B19" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="20">
@@ -837,30 +837,30 @@
         <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="22">
@@ -883,7 +883,7 @@
         <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="23">
@@ -891,433 +891,433 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-22发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android 开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>5-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E24" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F24" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-22发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android软件开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-22发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B26" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-22发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E27" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F27" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-22发布</v>
+        <v>03-24发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-22发布</v>
+        <v>03-24发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>30-60万/年</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-22发布</v>
+        <v>03-24发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Unity3d讲师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B30" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>河南新华电脑学院</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B31" t="str">
-        <v>6-8千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>高级UI</v>
+        <v>技术工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-21发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>单片机开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C33" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-21发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B34" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-20发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android软件工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-19发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>游戏推广</v>
+        <v>UI设计师</v>
       </c>
       <c r="B36" t="str">
-        <v>3-8千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C36" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-19发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android助理工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>3-5千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-19发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B38" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-19发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-18发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>技术工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B40" t="str">
-        <v>4-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-18发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>前端开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>0.6-1.3万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C41" t="str">
-        <v>东方通信股份有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G41" t="str">
         <v>03-17发布</v>
@@ -1325,68 +1325,68 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>4-8千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G42" t="str">
-        <v>03-17发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>1-2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-16发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>安卓端工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B44" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G44" t="str">
         <v>03-15发布</v>
@@ -1394,68 +1394,68 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G45" t="str">
-        <v>03-15发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>渗透测试工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G46" t="str">
-        <v>03-13发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B47" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G47" t="str">
         <v>03-12发布</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C48" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G48" t="str">
         <v>03-12发布</v>
@@ -1486,48 +1486,48 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B49" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-12发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G50" t="str">
-        <v>03-11发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="51">
@@ -1535,390 +1535,390 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G51" t="str">
-        <v>03-08发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B52" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G52" t="str">
-        <v>03-04发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>UI设计师</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B53" t="str">
-        <v>6-9千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>郑州海为电子科技有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G53" t="str">
-        <v>03-02发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>技术主管</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>1.8-2万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G54" t="str">
-        <v>03-01发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>软件开发项目经理</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G55" t="str">
-        <v>02-26发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android资深发工程师</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B56" t="str">
-        <v>1.5-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C56" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G56" t="str">
-        <v>02-24发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>手机软件测试工程师</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B57" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G57" t="str">
-        <v>02-23发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B58" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G58" t="str">
-        <v>02-23发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B59" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G59" t="str">
-        <v>02-22发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B60" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G60" t="str">
-        <v>02-20发布</v>
+        <v>02-12发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>人工智能讲师</v>
       </c>
       <c r="B61" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>河南合众信泰科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G61" t="str">
-        <v>02-20发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>Android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B62" t="str">
-        <v>0.5-1万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C62" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G62" t="str">
-        <v>02-12发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>人工智能讲师</v>
+        <v>IT技术总监</v>
       </c>
       <c r="B63" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>河南合众信泰科技有限公司</v>
+        <v>豫乾大数据集团有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G63" t="str">
-        <v>02-08发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android开发（SZZF15zjf）(J12500)</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>6-9千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C64" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G64" t="str">
-        <v>02-06发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>IT技术总监</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B65" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>豫乾大数据集团有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G65" t="str">
-        <v>02-05发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>iOS开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G66" t="str">
-        <v>02-04发布</v>
+        <v>02-02发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B67" t="str">
-        <v>2-2.5万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C67" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G67" t="str">
-        <v>02-03发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="68">
@@ -1926,45 +1926,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E68" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F68" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G68" t="str">
-        <v>02-02发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>5-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G69" t="str">
-        <v>02-01发布</v>
+        <v>01-29发布</v>
       </c>
     </row>
     <row r="70">
@@ -1972,88 +1972,88 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>三门峡崤云视联科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G70" t="str">
-        <v>01-30发布</v>
+        <v>01-27发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G71" t="str">
-        <v>01-29发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B72" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C72" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E72" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F72" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G72" t="str">
-        <v>01-27发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B73" t="str">
-        <v>5.5-8千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G73" t="str">
         <v>03-23发布</v>
@@ -2061,252 +2061,252 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>1-2万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G74" t="str">
-        <v>03-22发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android高级开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>3-6千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G75" t="str">
-        <v>03-20发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>高级驱动工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>高级基带工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>3-4万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E77" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F77" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B78" t="str">
-        <v>7-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C78" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android开发工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.7-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>高级UI设计师</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>0.8-1万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G80" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android高级开发工程师</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
-        <v>03-22发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-22发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>APP开发工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B83" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-22发布</v>
+        <v>03-24发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>DCLOUD工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G84" t="str">
         <v>03-22发布</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B85" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G85" t="str">
         <v>03-22发布</v>
@@ -2337,329 +2337,283 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>高级测试工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G86" t="str">
-        <v>03-21发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>前端开发工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-19发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>0.5-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G88" t="str">
-        <v>03-19发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>用户增长运营专员</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G89" t="str">
-        <v>03-19发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android开发工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G90" t="str">
-        <v>03-16发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B91" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C91" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G91" t="str">
-        <v>03-15发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>软件测试工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G92" t="str">
-        <v>03-15发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>UI设计师</v>
+        <v>技术主管</v>
       </c>
       <c r="B93" t="str">
-        <v>6-8千/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C93" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G93" t="str">
-        <v>03-12发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C94" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G94" t="str">
-        <v>03-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>技术主管</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B95" t="str">
-        <v>1.8-2万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G95" t="str">
-        <v>02-28发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Android中级开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B96" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C96" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南鑫利安全技术服务有限责任公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E96" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F96" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G96" t="str">
-        <v>02-24发布</v>
+        <v>02-04发布</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>1.5-2万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C97" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="E97" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="F97" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="G97" t="str">
-        <v>02-24发布</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>UI设计师</v>
-      </c>
-      <c r="B98" t="str">
-        <v>6-8千/月</v>
-      </c>
-      <c r="C98" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
-      </c>
-      <c r="D98" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="E98" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="F98" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
-      </c>
-      <c r="G98" t="str">
-        <v>02-04发布</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>渗透测试工程师</v>
-      </c>
-      <c r="B99" t="str">
-        <v>5-8千/月</v>
-      </c>
-      <c r="C99" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
-      </c>
-      <c r="D99" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="E99" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="F99" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="G99" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G99"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G97"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -405,255 +405,255 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>UI设计师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>UI设计师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B5" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Java开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.6-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B7" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B8" t="str">
-        <v>0.6-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C8" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B9" t="str">
-        <v>1.2-4万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C9" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E9" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F9" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B10" t="str">
         <v>4.5-6千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android 开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E11" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F11" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Unity3d讲师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B12" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>河南新华电脑学院</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="13">
@@ -661,321 +661,321 @@
         <v>UI设计师</v>
       </c>
       <c r="B13" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android高级开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>高级硬件架构师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>30-60万/年</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>高级应用工程师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B18" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E18" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F18" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>UI设计师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B20" t="str">
-        <v>1-1.6万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B22" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B23" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>android工程师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>0.8-1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>上海致昕信息科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>APP开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B25" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="27">
@@ -998,30 +998,30 @@
         <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-24发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android开发工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-24发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="29">
@@ -1029,157 +1029,157 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-24发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>游戏推广</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>3-8千/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>技术工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>C++开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>4-6千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-23发布</v>
+        <v>03-24发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>互联网产品经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C34" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-23发布</v>
+        <v>03-24发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>安卓工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B35" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>云涌科技</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G35" t="str">
         <v>03-23发布</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>UI设计师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B36" t="str">
-        <v>4-6千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G36" t="str">
         <v>03-23发布</v>
@@ -1210,117 +1210,117 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android开发工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>0.5-1万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>单片机开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C39" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-21发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>高级UI</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B40" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-21发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Web前端开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B41" t="str">
-        <v>4-8千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C41" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G41" t="str">
-        <v>03-17发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="42">
@@ -1328,206 +1328,206 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>1-2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G42" t="str">
-        <v>03-16发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>安卓端工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B43" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-15发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>1.5-2万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C44" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G44" t="str">
-        <v>03-15发布</v>
+        <v>03-17发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>渗透测试工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>0.6-1万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G45" t="str">
-        <v>03-13发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G46" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>UI设计师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B47" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G47" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Android开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G48" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B49" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B50" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G50" t="str">
-        <v>03-08发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="51">
@@ -1535,413 +1535,413 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C51" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G51" t="str">
-        <v>03-04发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>技术主管</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B52" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G52" t="str">
-        <v>03-01发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>软件开发项目经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G53" t="str">
-        <v>02-26发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android资深发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G54" t="str">
-        <v>02-24发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>手机软件测试工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B55" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G55" t="str">
-        <v>02-23发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B56" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G56" t="str">
-        <v>02-23发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>0.5-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G57" t="str">
-        <v>02-22发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G58" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B59" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C59" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G59" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B60" t="str">
         <v>0.5-1万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G60" t="str">
-        <v>02-12发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>人工智能讲师</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B61" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>河南合众信泰科技有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G61" t="str">
-        <v>02-08发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android开发（SZZF15zjf）(J12500)</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B62" t="str">
-        <v>6-9千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G62" t="str">
-        <v>02-06发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>IT技术总监</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B63" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>豫乾大数据集团有限公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G63" t="str">
-        <v>02-05发布</v>
+        <v>02-12发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>iOS开发工程师</v>
+        <v>人工智能讲师</v>
       </c>
       <c r="B64" t="str">
-        <v>6-8千/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南合众信泰科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-中原区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G64" t="str">
-        <v>02-04发布</v>
+        <v>02-08发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>Android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B65" t="str">
-        <v>2-2.5万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C65" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>北京东方国信科技股份有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G65" t="str">
-        <v>02-03发布</v>
+        <v>02-06发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android开发工程师</v>
+        <v>IT技术总监</v>
       </c>
       <c r="B66" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>豫乾大数据集团有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E66" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F66" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G66" t="str">
-        <v>02-02发布</v>
+        <v>02-05发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B67" t="str">
-        <v>5-8千/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G67" t="str">
-        <v>02-01发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Android开发工程师</v>
+        <v>测试工程师（制造产品软件测试）</v>
       </c>
       <c r="B68" t="str">
-        <v>0.8-1万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C68" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>北京合众思壮科技股份有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G68" t="str">
-        <v>01-30发布</v>
+        <v>02-01发布</v>
       </c>
     </row>
     <row r="69">
@@ -1949,22 +1949,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G69" t="str">
-        <v>01-29发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="70">
@@ -1992,91 +1992,91 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android高级开发工程师</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B71" t="str">
-        <v>3-6千/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G71" t="str">
-        <v>03-25发布</v>
+        <v>03-27发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B72" t="str">
-        <v>5.5-8千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G72" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>1-2万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G73" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android软件工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B74" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G74" t="str">
         <v>03-25发布</v>
@@ -2084,48 +2084,48 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C75" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G75" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>7-9千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="77">
@@ -2133,111 +2133,111 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.7-1万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C77" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C78" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B79" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>高级驱动工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E80" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F80" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G80" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>高级基带工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>3-4万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C81" t="str">
         <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E81" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F81" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G81" t="str">
         <v>03-25发布</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>DCLOUD工程师</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>0.8-1万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G82" t="str">
         <v>03-25发布</v>
@@ -2268,68 +2268,68 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>用户增长运营专员</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-24发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Android高级开发工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B84" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-22发布</v>
+        <v>03-24发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C85" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G85" t="str">
         <v>03-22发布</v>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>APP开发工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B86" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C86" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
@@ -2360,91 +2360,91 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>高级测试工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-21发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B88" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C88" t="str">
         <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G88" t="str">
-        <v>03-16发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G89" t="str">
-        <v>03-15发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>软件测试工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C90" t="str">
         <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G90" t="str">
         <v>03-15发布</v>
@@ -2452,114 +2452,114 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>UI设计师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G91" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B92" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G92" t="str">
-        <v>03-08发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>技术主管</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>1.8-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C93" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G93" t="str">
-        <v>02-28发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android中级开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B94" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C94" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G94" t="str">
-        <v>02-24发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C95" t="str">
         <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G95" t="str">
         <v>02-24发布</v>
@@ -2567,25 +2567,25 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>UI设计师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B96" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C96" t="str">
-        <v>河南鑫利安全技术服务有限责任公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E96" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F96" t="str">
-        <v>郑州-中原区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G96" t="str">
-        <v>02-04发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="97">

--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,45 +408,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B3" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="5">
@@ -492,122 +492,122 @@
         <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Web前端开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>1.2-4万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E7" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F7" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>高级硬件架构师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B9" t="str">
-        <v>30-60万/年</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B10" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="11">
@@ -630,467 +630,467 @@
         <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>UI设计师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B13" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Java开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>APP开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B15" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C15" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-26发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-26发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>单片机开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-26发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C18" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>UI设计师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Unity3d讲师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南新华电脑学院</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B22" t="str">
-        <v>0.5-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android 开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B24" t="str">
-        <v>5-8千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C24" t="str">
-        <v>上海致昕信息科技有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D24" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android开发工程师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B26" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android软件开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B27" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>高级测试工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E29" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F29" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>高级应用工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>1.8-2万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C31" t="str">
         <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E31" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F31" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="32">
@@ -1098,203 +1098,203 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-24发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B34" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-24发布</v>
+        <v>03-28发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B35" t="str">
-        <v>6-8千/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C35" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-23发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>游戏推广</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B36" t="str">
-        <v>3-8千/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-23发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>技术工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>4-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>云涌科技</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>C++开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>4-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C39" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-23发布</v>
+        <v>03-24发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>互联网产品经理</v>
+        <v>技术工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>1-1.5万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C40" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G40" t="str">
         <v>03-23发布</v>
@@ -1302,22 +1302,22 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>UI设计师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B41" t="str">
         <v>4-6千/月</v>
       </c>
       <c r="C41" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G41" t="str">
         <v>03-23发布</v>
@@ -1325,25 +1325,25 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B42" t="str">
-        <v>0.5-1万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G42" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="43">
@@ -1923,232 +1923,232 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>测试工程师（制造产品软件测试）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>5-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>北京合众思壮科技股份有限公司</v>
+        <v>河南玉霖汇星信息科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G68" t="str">
-        <v>02-01发布</v>
+        <v>01-30发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C69" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G69" t="str">
-        <v>01-30发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B70" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C70" t="str">
-        <v>三门峡崤云视联科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E70" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F70" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G70" t="str">
-        <v>01-27发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>小程序开发实习生</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B71" t="str">
-        <v>3.5-5千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G71" t="str">
-        <v>03-27发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>1-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G72" t="str">
-        <v>03-26发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>3-6千/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G73" t="str">
-        <v>03-25发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>5.5-8千/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G74" t="str">
-        <v>03-25发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android软件工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G75" t="str">
-        <v>03-26发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C76" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>7-9千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="78">
@@ -2156,91 +2156,91 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>高级UI设计师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B79" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>DCLOUD工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G80" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C81" t="str">
         <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="82">
@@ -2263,7 +2263,7 @@
         <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="83">
@@ -2286,7 +2286,7 @@
         <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="84">
@@ -2309,311 +2309,265 @@
         <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-24发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android高级开发工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B85" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-22发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G86" t="str">
-        <v>03-22发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>APP开发工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-22发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>高级UI</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G88" t="str">
-        <v>03-21发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B89" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G89" t="str">
-        <v>03-16发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G90" t="str">
-        <v>03-15发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>软件测试工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B91" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G91" t="str">
-        <v>03-15发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>UI设计师</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G92" t="str">
-        <v>03-12发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B93" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C93" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G93" t="str">
-        <v>03-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>技术主管</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B94" t="str">
-        <v>1.8-2万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C94" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G94" t="str">
-        <v>02-28发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android中级开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>1-1.5万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C95" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="G95" t="str">
-        <v>02-24发布</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
-      </c>
-      <c r="B96" t="str">
-        <v>1.5-2万/月</v>
-      </c>
-      <c r="C96" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
-      </c>
-      <c r="D96" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
-      </c>
-      <c r="E96" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
-      </c>
-      <c r="F96" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
-      </c>
-      <c r="G96" t="str">
-        <v>02-24发布</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>渗透测试工程师</v>
-      </c>
-      <c r="B97" t="str">
-        <v>5-8千/月</v>
-      </c>
-      <c r="C97" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
-      </c>
-      <c r="D97" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="E97" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="F97" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="G97" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G97"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G95"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,364 +408,364 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>1-1.6万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C2" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B4" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>小程序开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>单片机开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B8" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C8" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B10" t="str">
-        <v>0.5-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B11" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android高级开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E13" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F13" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B16" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G17" t="str">
         <v>03-30发布</v>
@@ -773,229 +773,229 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B18" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-29发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>APP开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B20" t="str">
-        <v>0.6-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>互联网产品经理</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B22" t="str">
-        <v>1-1.5万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C22" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Unity3d讲师</v>
+        <v>android工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南新华电脑学院</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Web前端开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B25" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B26" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-29发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>游戏推广</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>3-8千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G27" t="str">
         <v>03-29发布</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Java开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B28" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G28" t="str">
         <v>03-29发布</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G29" t="str">
         <v>03-29发布</v>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>安卓工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>云涌科技</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G30" t="str">
         <v>03-29发布</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B31" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G31" t="str">
         <v>03-29发布</v>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B32" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
         <v>03-29发布</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G33" t="str">
         <v>03-29发布</v>
@@ -1141,114 +1141,114 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>UI设计师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-28发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-30发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B36" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-26发布</v>
+        <v>03-28发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>高级测试工程师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B37" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android开发工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E38" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F38" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G38" t="str">
         <v>03-25发布</v>
@@ -1259,22 +1259,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-24发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="40">
@@ -1923,25 +1923,25 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Android开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B68" t="str">
-        <v>0.8-1万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C68" t="str">
-        <v>河南玉霖汇星信息科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G68" t="str">
-        <v>01-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="69">
@@ -1969,114 +1969,114 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B70" t="str">
-        <v>5.5-8千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G70" t="str">
-        <v>03-30发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>1-2万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G71" t="str">
-        <v>03-29发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>DCLOUD工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G72" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B73" t="str">
-        <v>7-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C73" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G73" t="str">
-        <v>03-30发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G74" t="str">
         <v>03-30发布</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>高级UI设计师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G75" t="str">
         <v>03-30发布</v>
@@ -2107,45 +2107,45 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android软件工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B77" t="str">
         <v>0.5-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G77" t="str">
         <v>03-29发布</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android开发工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B78" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C78" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G78" t="str">
         <v>03-29发布</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C79" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>APP开发工程师</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G80" t="str">
         <v>03-29发布</v>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>高级应用工程师</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>1.8-2万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C81" t="str">
         <v>郑州煤矿机械集团股份有限公司</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>高级驱动工程师</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C82" t="str">
         <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G82" t="str">
         <v>03-29发布</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>高级基带工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B83" t="str">
-        <v>3-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E83" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F83" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G83" t="str">
         <v>03-29发布</v>
@@ -2291,91 +2291,91 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>用户增长运营专员</v>
+        <v>高级UI</v>
       </c>
       <c r="B84" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-29发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>高级UI</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C85" t="str">
         <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-21发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android开发工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G86" t="str">
-        <v>03-16发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C87" t="str">
         <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G87" t="str">
         <v>03-15发布</v>
@@ -2383,114 +2383,114 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>软件测试工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B88" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G88" t="str">
-        <v>03-15发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>UI设计师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B89" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G89" t="str">
-        <v>03-12发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B90" t="str">
-        <v>6-8千/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G90" t="str">
-        <v>03-08发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>技术主管</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>1.8-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G91" t="str">
-        <v>02-28发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Android中级开发工程师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B92" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C92" t="str">
         <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G92" t="str">
         <v>02-24发布</v>
@@ -2498,76 +2498,53 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B93" t="str">
-        <v>1.5-2万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C93" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G93" t="str">
-        <v>02-24发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>小程序开发实习生</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>3.5-5千/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C94" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="G94" t="str">
-        <v>03-30发布</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>渗透测试工程师</v>
-      </c>
-      <c r="B95" t="str">
-        <v>5-8千/月</v>
-      </c>
-      <c r="C95" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
-      </c>
-      <c r="D95" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="E95" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="F95" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="G95" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G95"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G94"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,301 +405,301 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B2" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G2" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G3" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C4" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G4" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>前端开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B5" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G5" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>UI设计师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Web前端开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>游戏推广</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B8" t="str">
-        <v>3-8千/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G8" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B9" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G9" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>4.5-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Java高级开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B11" t="str">
-        <v>6-8千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G11" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B12" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G13" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>安卓工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>云涌科技</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G14" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="15">
@@ -707,10 +707,10 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
@@ -722,7 +722,7 @@
         <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G15" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="16">
@@ -745,418 +745,418 @@
         <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G16" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B17" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C17" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G17" t="str">
-        <v>03-30发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>小程序开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B18" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G18" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C19" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G19" t="str">
-        <v>03-30发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G20" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Java开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>30-60万/年</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G22" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>单片机开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B24" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C24" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>UI设计师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G25" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>android工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>03-31发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>APP开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G27" t="str">
-        <v>03-29发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G28" t="str">
-        <v>03-29发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G29" t="str">
-        <v>03-29发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>互联网产品经理</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G30" t="str">
-        <v>03-29发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Unity3d讲师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B31" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>河南新华电脑学院</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G31" t="str">
-        <v>03-29发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>UI设计师</v>
       </c>
       <c r="B32" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-29发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android高级开发工程师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B33" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C33" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B34" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G34" t="str">
         <v>03-29发布</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B35" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G35" t="str">
         <v>03-29发布</v>
@@ -1187,137 +1187,137 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>UI设计师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-28发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>高级测试工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B38" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-25发布</v>
+        <v>03-28发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android开发工程师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B39" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E39" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F39" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>技术工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>C++开发工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>4-6千/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G41" t="str">
         <v>03-23发布</v>
@@ -1877,68 +1877,68 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>IT技术总监</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B66" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>豫乾大数据集团有限公司</v>
+        <v>中原大易科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G66" t="str">
-        <v>02-05发布</v>
+        <v>02-03发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B67" t="str">
-        <v>2-2.5万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C67" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G67" t="str">
-        <v>02-03发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>5.5-8千/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C68" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G68" t="str">
         <v>03-31发布</v>
@@ -1946,48 +1946,48 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android高级开发工程师</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B69" t="str">
-        <v>3-6千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>03-30发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>1-2万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C70" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G70" t="str">
-        <v>03-29发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="71">
@@ -1995,203 +1995,203 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>7-9千/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C71" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G71" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B72" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C72" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G72" t="str">
-        <v>03-31发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>高级UI设计师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B73" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G73" t="str">
-        <v>03-31发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android软件工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G74" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.5-1万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G75" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>DCLOUD工程师</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-29发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-29发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>APP开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C79" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G79" t="str">
         <v>03-29发布</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>高级应用工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B80" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G80" t="str">
         <v>03-29发布</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>高级驱动工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
         <v>03-29发布</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>高级基带工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B82" t="str">
-        <v>3-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E82" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F82" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G82" t="str">
         <v>03-29发布</v>
@@ -2268,25 +2268,25 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>用户增长运营专员</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-29发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="84">
@@ -2314,45 +2314,45 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android开发工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-16发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C86" t="str">
         <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G86" t="str">
         <v>03-15发布</v>
@@ -2360,114 +2360,114 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>软件测试工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-15发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>UI设计师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B88" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G88" t="str">
-        <v>03-12发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B89" t="str">
-        <v>6-8千/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G89" t="str">
-        <v>03-08发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>技术主管</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>1.8-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G90" t="str">
-        <v>02-28发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Android中级开发工程师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B91" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C91" t="str">
         <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G91" t="str">
         <v>02-24发布</v>
@@ -2475,76 +2475,53 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B92" t="str">
-        <v>1.5-2万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G92" t="str">
-        <v>02-24发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>小程序开发实习生</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>3.5-5千/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C93" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="G93" t="str">
-        <v>03-31发布</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>渗透测试工程师</v>
-      </c>
-      <c r="B94" t="str">
-        <v>5-8千/月</v>
-      </c>
-      <c r="C94" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
-      </c>
-      <c r="D94" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="E94" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="F94" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="G94" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G94"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,237 +423,237 @@
         <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G2" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>单片机开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G3" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>C++开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B4" t="str">
-        <v>4-6千/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G4" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Java开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.6-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>UI设计师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B6" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G6" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>前端开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B7" t="str">
-        <v>0.6-1万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>高级硬件架构师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B8" t="str">
-        <v>30-60万/年</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G8" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>小程序开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B9" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>游戏推广</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B11" t="str">
-        <v>3-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G11" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>0.5-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="13">
@@ -661,137 +661,137 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C13" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G13" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>04-02发布</v>
+        <v>04-05发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android开发工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G15" t="str">
-        <v>04-02发布</v>
+        <v>04-05发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>1.2-4万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C16" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D16" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E16" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F16" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G16" t="str">
-        <v>04-02发布</v>
+        <v>04-05发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>4.5-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G17" t="str">
-        <v>04-02发布</v>
+        <v>04-05发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G18" t="str">
-        <v>04-02发布</v>
+        <v>04-03发布</v>
       </c>
     </row>
     <row r="19">
@@ -814,7 +814,7 @@
         <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G19" t="str">
-        <v>04-02发布</v>
+        <v>04-03发布</v>
       </c>
     </row>
     <row r="20">
@@ -837,7 +837,7 @@
         <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G20" t="str">
-        <v>04-01发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="21">
@@ -860,211 +860,211 @@
         <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>云涌科技</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>APP开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G25" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G26" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B27" t="str">
-        <v>0.6-1万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C27" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G27" t="str">
-        <v>04-01发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>高级应用工程师</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>1.8-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E28" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F28" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G28" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Web前端开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B29" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G29" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B30" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G30" t="str">
         <v>04-01发布</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G31" t="str">
         <v>04-01发布</v>
@@ -1831,367 +1831,367 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>人工智能讲师</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B64" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>河南合众信泰科技有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G64" t="str">
-        <v>02-08发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android开发（SZZF15zjf）(J12500)</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B65" t="str">
-        <v>6-9千/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C65" t="str">
-        <v>北京东方国信科技股份有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G65" t="str">
-        <v>02-06发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>2-2.5万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C66" t="str">
-        <v>中原大易科技有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G66" t="str">
-        <v>02-03发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>5.5-8千/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C67" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G67" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>3-6千/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G68" t="str">
-        <v>03-31发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B69" t="str">
-        <v>1-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G69" t="str">
-        <v>03-29发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android开发工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>7-9千/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G70" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android开发工程师</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>0.7-1万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G71" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>高级UI设计师</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>0.8-1万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G72" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>DCLOUD工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G73" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G74" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>高级驱动工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E75" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F75" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G75" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>高级基带工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>3-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E76" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F76" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G76" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-31发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B78" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-31发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C79" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G79" t="str">
         <v>03-29发布</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B80" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G80" t="str">
         <v>03-29发布</v>
@@ -2222,306 +2222,237 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>APP开发工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B81" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
-        <v>03-29发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>用户增长运营专员</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-29发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>高级测试工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-25发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>高级UI</v>
+        <v>UI设计师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-21发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-15发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>软件测试工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B86" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G86" t="str">
-        <v>03-15发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>UI设计师</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-12发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B88" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G88" t="str">
-        <v>03-08发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>技术主管</v>
+        <v>小程序开发实习生</v>
       </c>
       <c r="B89" t="str">
-        <v>1.8-2万/月</v>
+        <v>3.5-5千/月</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
       </c>
       <c r="G89" t="str">
-        <v>02-28发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android中级开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>1-1.5万/月</v>
+        <v>5-8千/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
       <c r="G90" t="str">
-        <v>02-24发布</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
-      </c>
-      <c r="B91" t="str">
-        <v>1.5-2万/月</v>
-      </c>
-      <c r="C91" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
-      </c>
-      <c r="D91" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
-      </c>
-      <c r="E91" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
-      </c>
-      <c r="F91" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
-      </c>
-      <c r="G91" t="str">
-        <v>02-24发布</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>小程序开发实习生</v>
-      </c>
-      <c r="B92" t="str">
-        <v>3.5-5千/月</v>
-      </c>
-      <c r="C92" t="str">
-        <v>郑州白露软件科技有限公司</v>
-      </c>
-      <c r="D92" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
-      </c>
-      <c r="E92" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
-      </c>
-      <c r="F92" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
-      </c>
-      <c r="G92" t="str">
-        <v>04-02发布</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>渗透测试工程师</v>
-      </c>
-      <c r="B93" t="str">
-        <v>5-8千/月</v>
-      </c>
-      <c r="C93" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
-      </c>
-      <c r="D93" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="E93" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="F93" t="str">
-        <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
-      </c>
-      <c r="G93" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G90"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,597 +405,597 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android高级开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G3" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>UI设计师</v>
+        <v>急聘Android开发（双休+奖金+五险一金）</v>
       </c>
       <c r="B4" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>广东易臣信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G4" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>1-1.5万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G5" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B6" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G6" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>游戏推广</v>
+        <v>android工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>3-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D8" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E8" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F8" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G8" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B9" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G9" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>1-1.6万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G10" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G11" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>高级应用工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E12" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F12" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G12" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B13" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C13" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G13" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>04-05发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>单片机开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C15" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G15" t="str">
-        <v>04-05发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>C++开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>4-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G16" t="str">
-        <v>04-05发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B17" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G17" t="str">
-        <v>04-05发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G18" t="str">
-        <v>04-03发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B19" t="str">
-        <v>6-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G19" t="str">
-        <v>04-03发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B20" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G20" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B21" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>04-02发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Android软件工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G22" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Android开发工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G23" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>云涌科技</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G24" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G25" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Java开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B26" t="str">
-        <v>0.6-1万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C26" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G26" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>高级硬件架构师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>30-60万/年</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G27" t="str">
         <v>04-06发布</v>
@@ -1003,206 +1003,206 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>小程序开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B28" t="str">
-        <v>6-8千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G28" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G29" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B30" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G30" t="str">
-        <v>04-01发布</v>
+        <v>04-03发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>APP开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B31" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G31" t="str">
-        <v>04-01发布</v>
+        <v>04-02发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>UI设计师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B32" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>03-31发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G33" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>互联网产品经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B34" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-29发布</v>
+        <v>03-31发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Unity3d讲师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B35" t="str">
-        <v>6-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>河南新华电脑学院</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android高级开发工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B36" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G36" t="str">
         <v>03-29发布</v>
@@ -1210,22 +1210,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B37" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G37" t="str">
         <v>03-29发布</v>
@@ -1233,114 +1233,114 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>UI设计师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-28发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B39" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-26发布</v>
+        <v>03-28发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android开发工程师</v>
+        <v>科技公司-PC端开发经理</v>
       </c>
       <c r="B40" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.7-1.2万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E40" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F40" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-25发布</v>
+        <v>03-26发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>技术工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G41" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>UI设计师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>4-6千/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G42" t="str">
         <v>03-23发布</v>
@@ -1348,114 +1348,114 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>UI设计师</v>
       </c>
       <c r="B43" t="str">
-        <v>1-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Web前端开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B44" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G44" t="str">
-        <v>03-17发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>1-2万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C45" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G45" t="str">
-        <v>03-16发布</v>
+        <v>03-17发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G46" t="str">
-        <v>03-15发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G47" t="str">
         <v>03-15发布</v>
@@ -1463,68 +1463,68 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>渗透测试工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B48" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G48" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B50" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G50" t="str">
         <v>03-12发布</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B51" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G51" t="str">
         <v>03-12发布</v>
@@ -1555,48 +1555,48 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G52" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B53" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G53" t="str">
-        <v>03-08发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="54">
@@ -1604,134 +1604,134 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G54" t="str">
-        <v>03-04发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>技术主管</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G55" t="str">
-        <v>03-01发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>软件开发项目经理</v>
+        <v>技术主管</v>
       </c>
       <c r="B56" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G56" t="str">
-        <v>02-26发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android资深发工程师</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B57" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G57" t="str">
-        <v>02-24发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>手机软件测试工程师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G58" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>6-8千/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G59" t="str">
         <v>02-23发布</v>
@@ -1739,68 +1739,68 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B60" t="str">
-        <v>0.5-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C60" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G60" t="str">
-        <v>02-22发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B61" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G61" t="str">
-        <v>02-20发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B62" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G62" t="str">
         <v>02-20发布</v>
@@ -1808,114 +1808,114 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B63" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G63" t="str">
-        <v>02-12发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B64" t="str">
-        <v>1-2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>北京超图软件股份有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G64" t="str">
-        <v>04-06发布</v>
+        <v>02-12发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>5.5-8千/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C65" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G65" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android高级开发工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B66" t="str">
-        <v>3-6千/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C66" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G66" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android开发工程师</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B67" t="str">
-        <v>7-9千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G67" t="str">
         <v>04-06发布</v>
@@ -1923,275 +1923,275 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Android开发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G68" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>高级UI设计师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G70" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>高级驱动工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E71" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F71" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G71" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>高级基带工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>3-4万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E72" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F72" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G72" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>前端开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B73" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G73" t="str">
-        <v>04-02发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B74" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G74" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>高级测试工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C75" t="str">
         <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G75" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>DCLOUD工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G76" t="str">
-        <v>04-02发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.5-1万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G77" t="str">
-        <v>03-29发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G78" t="str">
-        <v>03-29发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>APP开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C79" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G79" t="str">
         <v>03-29发布</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>用户增长运营专员</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B80" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G80" t="str">
         <v>03-29发布</v>
@@ -2222,68 +2222,68 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>高级UI</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
-        <v>03-21发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B82" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-15发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>软件测试工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C83" t="str">
         <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G83" t="str">
         <v>03-15发布</v>
@@ -2291,114 +2291,114 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>UI设计师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B85" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-08发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>技术主管</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>1.8-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C86" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G86" t="str">
-        <v>02-28发布</v>
+        <v>03-08发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android中级开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B87" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G87" t="str">
-        <v>02-24发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C88" t="str">
         <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G88" t="str">
         <v>02-24发布</v>
@@ -2406,53 +2406,76 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>小程序开发实习生</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B89" t="str">
-        <v>3.5-5千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G89" t="str">
-        <v>04-02发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
+        <v>小程序开发实习生</v>
+      </c>
+      <c r="B90" t="str">
+        <v>3.5-5千/月</v>
+      </c>
+      <c r="C90" t="str">
+        <v>郑州白露软件科技有限公司</v>
+      </c>
+      <c r="D90" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="E90" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="F90" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="G90" t="str">
+        <v>04-07发布</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B91" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C91" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D90" t="str">
+      <c r="D91" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E90" t="str">
+      <c r="E91" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F91" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G90" t="str">
+      <c r="G91" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G90"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -423,7 +423,7 @@
         <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="3">
@@ -446,257 +446,257 @@
         <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G3" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>急聘Android开发（双休+奖金+五险一金）</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>广东易臣信息技术有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G4" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>急聘Android开发（双休+奖金+五险一金）</v>
       </c>
       <c r="B5" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>广东易臣信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G5" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>android工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B7" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B8" t="str">
-        <v>0.6-1万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C8" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B9" t="str">
-        <v>6-8千/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C9" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G9" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>小程序开发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B10" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G10" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G11" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Java开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>0.6-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C13" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G13" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>UI设计师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G14" t="str">
         <v>04-07发布</v>
@@ -704,22 +704,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>C++开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>4-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G15" t="str">
         <v>04-07发布</v>
@@ -727,22 +727,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Java高级开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G16" t="str">
         <v>04-07发布</v>
@@ -750,22 +750,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G17" t="str">
         <v>04-07发布</v>
@@ -773,22 +773,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android高级开发工程师</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G18" t="str">
         <v>04-07发布</v>
@@ -796,22 +796,22 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D19" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E19" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F19" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G19" t="str">
         <v>04-07发布</v>
@@ -819,22 +819,22 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G20" t="str">
         <v>04-07发布</v>
@@ -842,22 +842,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G21" t="str">
         <v>04-07发布</v>
@@ -865,137 +865,137 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Android软件开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>0.8-1万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G22" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>单片机开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G23" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B24" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G24" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>高级测试工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B25" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C25" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G25" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G26" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G27" t="str">
         <v>04-06发布</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>游戏推广</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>3-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G28" t="str">
         <v>04-06发布</v>
@@ -1872,7 +1872,7 @@
         <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G65" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="66">
@@ -1895,7 +1895,7 @@
         <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G66" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="67">

--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,94 +405,94 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>安卓工程师</v>
+        <v>软件UI设计师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.4-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>云涌科技</v>
+        <v>郑州华砂信息技术有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G2" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>前端开发工程师</v>
+        <v>科技公司-PC端开发专业总监</v>
       </c>
       <c r="B3" t="str">
-        <v>0.6-1万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="G3" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android开发工程师（双休）</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G4" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>急聘Android开发（双休+奖金+五险一金）</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B5" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>广东易臣信息技术有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="6">
@@ -500,1057 +500,1057 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G6" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>UI设计师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G7" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>游戏推广</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B8" t="str">
-        <v>3-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G8" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>高级硬件架构师</v>
+        <v>急聘Android开发（双休+奖金+五险一金）</v>
       </c>
       <c r="B9" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>广东易臣信息技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G9" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>0.5-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G10" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Java高级开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B11" t="str">
-        <v>6-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C11" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G11" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G12" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B13" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G13" t="str">
-        <v>04-08发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>单片机开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>04-07发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android软件开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G15" t="str">
-        <v>04-07发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G16" t="str">
-        <v>04-07发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G17" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>小程序开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G18" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Java开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G20" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B21" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>C++开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B22" t="str">
-        <v>4-6千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G22" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Android高级开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G23" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B24" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E24" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F24" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G24" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G25" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android开发工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B27" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G27" t="str">
-        <v>04-06发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>高级测试工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G28" t="str">
-        <v>04-06发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>高级应用工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B29" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E29" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F29" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G29" t="str">
-        <v>04-06发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Android开发工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G30" t="str">
-        <v>04-03发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G31" t="str">
-        <v>04-02发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>04-01发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>APP开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C33" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G33" t="str">
-        <v>04-01发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G34" t="str">
-        <v>03-31发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>4.5-6千/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G35" t="str">
-        <v>03-30发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>互联网产品经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G36" t="str">
-        <v>03-29发布</v>
+        <v>04-03发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Unity3d讲师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B37" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南新华电脑学院</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G37" t="str">
-        <v>03-29发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android高级开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G38" t="str">
-        <v>03-29发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>UI设计师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B39" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C39" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-28发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>科技公司-PC端开发经理</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B40" t="str">
-        <v>0.7-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-郑东新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-26发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E41" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F41" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G41" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>技术工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B42" t="str">
-        <v>4-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G42" t="str">
-        <v>03-23发布</v>
+        <v>03-28发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>4-6千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>技术工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>1-1.5万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C44" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G44" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Web前端开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B45" t="str">
-        <v>4-8千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C45" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G45" t="str">
-        <v>03-17发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B46" t="str">
-        <v>1-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G46" t="str">
-        <v>03-16发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>安卓端工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C47" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G47" t="str">
-        <v>03-15发布</v>
+        <v>03-17发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G48" t="str">
-        <v>03-15发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>渗透测试工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B50" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G50" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>UI设计师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G51" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="52">
@@ -1558,19 +1558,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G52" t="str">
         <v>03-12发布</v>
@@ -1578,25 +1578,25 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>高级UI设计师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B53" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G53" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="54">
@@ -1604,157 +1604,157 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>0.6-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G54" t="str">
-        <v>03-08发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B55" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G55" t="str">
-        <v>03-04发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>技术主管</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G56" t="str">
-        <v>03-01发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>软件开发项目经理</v>
+        <v>技术主管</v>
       </c>
       <c r="B57" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G57" t="str">
-        <v>02-26发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Android资深发工程师</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B58" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G58" t="str">
-        <v>02-24发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>手机软件测试工程师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G59" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>6-8千/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G60" t="str">
         <v>02-23发布</v>
@@ -1762,68 +1762,68 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B61" t="str">
-        <v>0.5-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C61" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G61" t="str">
-        <v>02-22发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B62" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G62" t="str">
-        <v>02-20发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B63" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G63" t="str">
         <v>02-20发布</v>
@@ -1831,25 +1831,25 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B64" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>北京超图软件股份有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G64" t="str">
-        <v>02-12发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="65">
@@ -1872,7 +1872,7 @@
         <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G65" t="str">
-        <v>04-08发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="66">
@@ -1895,7 +1895,7 @@
         <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G66" t="str">
-        <v>04-08发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="67">
@@ -1923,229 +1923,229 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>DCLOUD工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G68" t="str">
-        <v>04-07发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android软件工程师</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G69" t="str">
-        <v>04-07发布</v>
+        <v>04-10发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C70" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G70" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>7-9千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G71" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android开发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G72" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>0.8-1万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C73" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G73" t="str">
-        <v>04-07发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>用户增长运营专员</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G74" t="str">
-        <v>04-06发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B75" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G75" t="str">
-        <v>04-06发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G76" t="str">
-        <v>04-06发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>高级驱动工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B77" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E77" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F77" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G77" t="str">
         <v>04-06发布</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>高级基带工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>3-4万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C78" t="str">
         <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E78" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F78" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G78" t="str">
         <v>04-06发布</v>
@@ -2176,68 +2176,68 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android开发工程师</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.5-1万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G79" t="str">
-        <v>03-29发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G80" t="str">
-        <v>03-29发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>APP开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C81" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G81" t="str">
         <v>03-29发布</v>
@@ -2245,183 +2245,183 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>高级UI</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B82" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-21发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-15发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>软件测试工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B84" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-15发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>UI设计师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G86" t="str">
-        <v>03-08发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>技术主管</v>
+        <v>UI设计师</v>
       </c>
       <c r="B87" t="str">
-        <v>1.8-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G87" t="str">
-        <v>02-28发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android中级开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B88" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G88" t="str">
-        <v>02-24发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C89" t="str">
         <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G89" t="str">
         <v>02-24发布</v>
@@ -2429,53 +2429,76 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>小程序开发实习生</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B90" t="str">
-        <v>3.5-5千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G90" t="str">
-        <v>04-07发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
+        <v>小程序开发实习生</v>
+      </c>
+      <c r="B91" t="str">
+        <v>3.5-5千/月</v>
+      </c>
+      <c r="C91" t="str">
+        <v>郑州白露软件科技有限公司</v>
+      </c>
+      <c r="D91" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="E91" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="F91" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="G91" t="str">
+        <v>04-10发布</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B92" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C92" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D92" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E91" t="str">
+      <c r="E92" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F92" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G92" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G92"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,186 +405,186 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>软件UI设计师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.4-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州华砂信息技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>科技公司-PC端开发专业总监</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B3" t="str">
-        <v>1-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G3" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师（双休）</v>
+        <v>移动应用软件开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.6-1万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G4" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>软件UI设计师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.4-1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>郑州华砂信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G5" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>科技公司-PC端开发专业总监</v>
       </c>
       <c r="B6" t="str">
-        <v>0.6-1万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="G6" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D8" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>急聘Android开发（双休+奖金+五险一金）</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>广东易臣信息技术有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="10">
@@ -592,551 +592,551 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G11" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B12" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android开发工程师（双休）</v>
       </c>
       <c r="B13" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G13" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android开发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B14" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G14" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>安卓工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B15" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.7-1.1万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>云涌科技</v>
+        <v>南京迈特望科技股份有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G15" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B16" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G16" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G17" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C18" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G18" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>UI设计师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C19" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G19" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B20" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B21" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G21" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>游戏推广</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B22" t="str">
-        <v>3-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G22" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>高级硬件架构师</v>
+        <v>急聘Android开发（双休+奖金+五险一金）</v>
       </c>
       <c r="B23" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>广东易臣信息技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G23" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>0.5-1万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android高级开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B25" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G25" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>单片机开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B26" t="str">
         <v>0.8-1.5万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Unity3d讲师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B27" t="str">
-        <v>6-8千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C27" t="str">
-        <v>河南新华电脑学院</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G27" t="str">
-        <v>04-08发布</v>
+        <v>04-11发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G28" t="str">
-        <v>04-08发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>UI设计师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G29" t="str">
-        <v>04-08发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>高级测试工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C30" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G30" t="str">
-        <v>04-08发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Web前端开发工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G31" t="str">
-        <v>04-08发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Java开发工程师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B32" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>C++开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B33" t="str">
-        <v>4-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G33" t="str">
-        <v>04-07发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="34">
@@ -1144,45 +1144,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G34" t="str">
-        <v>04-06发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>高级应用工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>1.8-2万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D35" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E35" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F35" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G35" t="str">
-        <v>04-06发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="36">
@@ -1190,226 +1190,226 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G36" t="str">
-        <v>04-03发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6-8千/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G37" t="str">
-        <v>04-01发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>APP开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C38" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G38" t="str">
-        <v>04-01发布</v>
+        <v>04-03发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B39" t="str">
-        <v>4.5-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C39" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>互联网产品经理</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G40" t="str">
-        <v>03-29发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android高级开发工程师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B41" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C41" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G41" t="str">
-        <v>03-29发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>UI设计师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B42" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G42" t="str">
-        <v>03-28发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B43" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E43" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F43" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-25发布</v>
+        <v>03-28发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>技术工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G44" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>UI设计师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>4-6千/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C45" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G45" t="str">
         <v>03-23发布</v>
@@ -1417,114 +1417,114 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>UI设计师</v>
       </c>
       <c r="B46" t="str">
-        <v>1-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G46" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Web前端开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B47" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G47" t="str">
-        <v>03-17发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>1-2万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C48" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G48" t="str">
-        <v>03-16发布</v>
+        <v>03-17发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-15发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G50" t="str">
         <v>03-15发布</v>
@@ -1532,68 +1532,68 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>渗透测试工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B51" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G51" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G52" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B53" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G53" t="str">
         <v>03-12发布</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B54" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G54" t="str">
         <v>03-12发布</v>
@@ -1624,160 +1624,160 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C55" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G55" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B56" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G56" t="str">
-        <v>03-04发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>技术主管</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G57" t="str">
-        <v>03-01发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>软件开发项目经理</v>
+        <v>技术主管</v>
       </c>
       <c r="B58" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G58" t="str">
-        <v>02-26发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Android资深发工程师</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B59" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G59" t="str">
-        <v>02-24发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>手机软件测试工程师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G60" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>6-8千/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G61" t="str">
         <v>02-23发布</v>
@@ -1785,68 +1785,68 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B62" t="str">
-        <v>0.5-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C62" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G62" t="str">
-        <v>02-22发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B63" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G63" t="str">
-        <v>02-20发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B64" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G64" t="str">
         <v>02-20发布</v>
@@ -1854,255 +1854,255 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android高级开发工程师</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B65" t="str">
-        <v>3-6千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G65" t="str">
-        <v>04-09发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B66" t="str">
-        <v>5.5-8千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G66" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>1-2万/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C67" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G67" t="str">
-        <v>04-06发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B68" t="str">
-        <v>6-8千/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C68" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G68" t="str">
-        <v>04-10发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>小程序开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>04-10发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android软件工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G70" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B71" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G71" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>DCLOUD工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G72" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android开发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>7-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G73" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>0.7-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G74" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>高级UI设计师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G75" t="str">
-        <v>04-09发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="76">
@@ -2110,249 +2110,249 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>1-1.5万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C76" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>04-08发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>用户增长运营专员</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G77" t="str">
-        <v>04-06发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B78" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G78" t="str">
-        <v>04-06发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>高级驱动工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E79" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F79" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G79" t="str">
-        <v>04-06发布</v>
+        <v>04-09发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>高级基带工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>3-4万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E80" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F80" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G80" t="str">
-        <v>04-06发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android开发工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B81" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G81" t="str">
-        <v>03-29发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G82" t="str">
-        <v>03-29发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>APP开发工程师</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>03-29发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>高级UI</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G84" t="str">
-        <v>03-21发布</v>
+        <v>04-06发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B85" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-15发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>软件测试工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C86" t="str">
         <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G86" t="str">
         <v>03-15发布</v>
@@ -2360,91 +2360,91 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>UI设计师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>技术主管</v>
+        <v>UI设计师</v>
       </c>
       <c r="B88" t="str">
-        <v>1.8-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C88" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G88" t="str">
-        <v>02-28发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android中级开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B89" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G89" t="str">
-        <v>02-24发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C90" t="str">
         <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G90" t="str">
         <v>02-24发布</v>
@@ -2452,53 +2452,76 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>小程序开发实习生</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B91" t="str">
-        <v>3.5-5千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G91" t="str">
-        <v>04-10发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
+        <v>小程序开发实习生</v>
+      </c>
+      <c r="B92" t="str">
+        <v>3.5-5千/月</v>
+      </c>
+      <c r="C92" t="str">
+        <v>郑州白露软件科技有限公司</v>
+      </c>
+      <c r="D92" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="E92" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="F92" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="G92" t="str">
+        <v>04-12发布</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B93" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C93" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D93" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E92" t="str">
+      <c r="E93" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F93" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G92" t="str">
+      <c r="G93" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G92"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,186 +405,186 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>南京欣网互联网络科技有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G2" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B3" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G3" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>移动应用软件开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>4-6千/月</v>
+        <v>0.5-1.2万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
+        <v>郑州昊能科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G4" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>软件UI设计师</v>
+        <v>急聘Android开发（双休+奖金+五险一金）</v>
       </c>
       <c r="B5" t="str">
-        <v>0.4-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州华砂信息技术有限公司</v>
+        <v>广东易臣信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G5" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>科技公司-PC端开发专业总监</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>1-2万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G6" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>1-1.5万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>IOS开发工程师-远程办公</v>
       </c>
       <c r="B8" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="G8" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Java开发工程师</v>
+        <v>Android开发工程师（双休）</v>
       </c>
       <c r="B9" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="10">
@@ -592,137 +592,137 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>0.5-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G10" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>云涌科技</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G11" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>android工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B12" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android开发工程师（双休）</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B13" t="str">
-        <v>0.6-1万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G13" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.5-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>UI设计师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>0.7-1.1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C15" t="str">
-        <v>南京迈特望科技股份有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G15" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="16">
@@ -730,229 +730,229 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G16" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G17" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G18" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B21" t="str">
-        <v>6-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G21" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B22" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E22" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F22" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G22" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>急聘Android开发（双休+奖金+五险一金）</v>
+        <v>android工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>广东易臣信息技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G23" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android开发工程师</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>1-1.6万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G24" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G25" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="26">
@@ -975,260 +975,260 @@
         <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G26" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>游戏推广</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>3-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G27" t="str">
-        <v>04-11发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android软件开发工程师</v>
+        <v>移动应用软件开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.8-1万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C28" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G28" t="str">
-        <v>04-09发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B29" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G29" t="str">
-        <v>04-09发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>高级硬件架构师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G30" t="str">
-        <v>04-09发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>单片机开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B31" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G31" t="str">
-        <v>04-09发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Unity3d讲师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>河南新华电脑学院</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G32" t="str">
-        <v>04-08发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>UI设计师</v>
+        <v>软件UI设计师</v>
       </c>
       <c r="B33" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.4-1万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>郑州华砂信息技术有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G33" t="str">
-        <v>04-08发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Android开发工程师</v>
+        <v>科技公司-PC端开发专业总监</v>
       </c>
       <c r="B34" t="str">
-        <v>1-1.5万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="G34" t="str">
-        <v>04-08发布</v>
+        <v>04-13发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>C++开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>4-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G35" t="str">
-        <v>04-07发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android开发工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B36" t="str">
         <v>0.8-1.5万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G36" t="str">
-        <v>04-06发布</v>
+        <v>04-13发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>高级应用工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B37" t="str">
-        <v>1.8-2万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E37" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F37" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G37" t="str">
-        <v>04-06发布</v>
+        <v>04-13发布</v>
       </c>
     </row>
     <row r="38">
@@ -1236,390 +1236,390 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G38" t="str">
-        <v>04-03发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>04-01发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>APP开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C40" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G40" t="str">
-        <v>04-01发布</v>
+        <v>04-07发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>4.5-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C41" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G41" t="str">
-        <v>03-30发布</v>
+        <v>04-03发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>互联网产品经理</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G42" t="str">
-        <v>03-29发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>UI设计师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B43" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C43" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-28发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android开发工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B44" t="str">
         <v>1-1.5万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E44" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F44" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G44" t="str">
-        <v>03-25发布</v>
+        <v>03-29发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>技术工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B45" t="str">
-        <v>4-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G45" t="str">
-        <v>03-23发布</v>
+        <v>03-28发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>4-6千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G46" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>技术工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>1-1.5万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G47" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Web前端开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B48" t="str">
-        <v>4-8千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C48" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G48" t="str">
-        <v>03-17发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B49" t="str">
-        <v>1-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-16发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>安卓端工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C50" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G50" t="str">
-        <v>03-15发布</v>
+        <v>03-17发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G51" t="str">
-        <v>03-15发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>渗透测试工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G52" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B53" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G53" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>UI设计师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G54" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="55">
@@ -1627,19 +1627,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G55" t="str">
         <v>03-12发布</v>
@@ -1647,25 +1647,25 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>高级UI设计师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B56" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G56" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="57">
@@ -1673,390 +1673,390 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C57" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G57" t="str">
-        <v>03-04发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>技术主管</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B58" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G58" t="str">
-        <v>03-01发布</v>
+        <v>03-11发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>软件开发项目经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G59" t="str">
-        <v>02-26发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android资深发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B60" t="str">
-        <v>1.5-2万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G60" t="str">
-        <v>02-24发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>手机软件测试工程师</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B61" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G61" t="str">
-        <v>02-23发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G62" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G63" t="str">
-        <v>02-22发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>前端工程师(郑州)</v>
       </c>
       <c r="B64" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C64" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>上海威盛国际物流有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G64" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>Android开发工程师(双休+五险一金）</v>
       </c>
       <c r="B65" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>河南一部落网络科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州  |  2年经验  |  大专  |  招5人</v>
       </c>
       <c r="G65" t="str">
-        <v>02-20发布</v>
+        <v>02-22发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B66" t="str">
-        <v>1-2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G66" t="str">
-        <v>04-12发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android高级开发工程师</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B67" t="str">
-        <v>3-6千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G67" t="str">
-        <v>04-12发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>5.5-8千/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C68" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G68" t="str">
-        <v>04-09发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android软件工程师</v>
+        <v>软件开发助理（五险）</v>
       </c>
       <c r="B69" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州大宇智慧网络科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="G69" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android高级开发工程师</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B70" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G70" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B71" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G71" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>APP开发工程师</v>
+        <v>开发者体验经理/布道师-远程办公</v>
       </c>
       <c r="B72" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G72" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>DCLOUD工程师</v>
+        <v>数字钱包及应用产品经理 -远程办公</v>
       </c>
       <c r="B73" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G73" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="74">
@@ -2079,30 +2079,30 @@
         <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G74" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B75" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G75" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="76">
@@ -2125,7 +2125,7 @@
         <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="77">
@@ -2148,7 +2148,7 @@
         <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G77" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="78">
@@ -2171,357 +2171,472 @@
         <v>郑州  |  招2人</v>
       </c>
       <c r="G78" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G79" t="str">
-        <v>04-09发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>高级测试工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G80" t="str">
-        <v>04-08发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>用户增长运营专员</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>0.8-1万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
-        <v>04-06发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C82" t="str">
         <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>04-06发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>高级驱动工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>04-06发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>高级基带工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>3-4万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E84" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F84" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G84" t="str">
-        <v>04-06发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>高级UI</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G85" t="str">
-        <v>03-21发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G86" t="str">
-        <v>03-15发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>软件测试工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B87" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G87" t="str">
-        <v>03-15发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>UI设计师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>6-8千/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G88" t="str">
-        <v>03-12发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>技术主管</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G89" t="str">
-        <v>02-28发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android中级开发工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B90" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G90" t="str">
-        <v>02-24发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G91" t="str">
-        <v>02-24发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>小程序开发实习生</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>3.5-5千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G92" t="str">
-        <v>04-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B93" t="str">
+        <v>6-8千/月</v>
+      </c>
+      <c r="C93" t="str">
+        <v>河南万鲸科技有限公司</v>
+      </c>
+      <c r="D93" t="str">
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+      </c>
+      <c r="E93" t="str">
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+      </c>
+      <c r="F93" t="str">
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+      </c>
+      <c r="G93" t="str">
+        <v>03-12发布</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>技术主管</v>
+      </c>
+      <c r="B94" t="str">
+        <v>1.8-2万/月</v>
+      </c>
+      <c r="C94" t="str">
+        <v>郑州振翅网络科技有限公司</v>
+      </c>
+      <c r="D94" t="str">
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="E94" t="str">
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="F94" t="str">
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+      </c>
+      <c r="G94" t="str">
+        <v>02-28发布</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Android中级开发工程师</v>
+      </c>
+      <c r="B95" t="str">
+        <v>1-1.5万/月</v>
+      </c>
+      <c r="C95" t="str">
+        <v>河南哈夫曼信息科技有限公司</v>
+      </c>
+      <c r="D95" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="E95" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="F95" t="str">
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="G95" t="str">
+        <v>02-24发布</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
+      </c>
+      <c r="B96" t="str">
+        <v>1.5-2万/月</v>
+      </c>
+      <c r="C96" t="str">
+        <v>河南哈夫曼信息科技有限公司</v>
+      </c>
+      <c r="D96" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="E96" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="F96" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="G96" t="str">
+        <v>02-24发布</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>小程序开发实习生</v>
+      </c>
+      <c r="B97" t="str">
+        <v>3.5-5千/月</v>
+      </c>
+      <c r="C97" t="str">
+        <v>郑州白露软件科技有限公司</v>
+      </c>
+      <c r="D97" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="E97" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="F97" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="G97" t="str">
+        <v>04-15发布</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B98" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C98" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D93" t="str">
+      <c r="D98" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E93" t="str">
+      <c r="E98" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F98" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G93" t="str">
+      <c r="G98" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G98"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,114 +408,114 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.7-1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>南京欣网互联网络科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G3" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>高薪诚聘    互联网产品经理</v>
       </c>
       <c r="B4" t="str">
-        <v>0.5-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州昊能科技有限公司</v>
+        <v>河南快省信息服务有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G4" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>急聘Android开发（双休+奖金+五险一金）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.5-1.2万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>广东易臣信息技术有限公司</v>
+        <v>郑州昊能科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G5" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B6" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C6" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G6" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="7">
@@ -523,229 +523,229 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>南京欣网互联网络科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>IOS开发工程师-远程办公</v>
+        <v>Android开发工程师（双休）</v>
       </c>
       <c r="B8" t="str">
-        <v>2-2.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>共识基石科技（北京）有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E8" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F8" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G8" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android开发工程师（双休）</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B9" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G9" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Android开发工程师</v>
+        <v>急聘Android开发（双休+奖金+五险一金）</v>
       </c>
       <c r="B10" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>广东易臣信息技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G10" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G11" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>0.5-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G12" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G13" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Unity3d讲师</v>
+        <v>软件UI设计师</v>
       </c>
       <c r="B14" t="str">
-        <v>6-8千/月</v>
+        <v>0.4-1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>河南新华电脑学院</v>
+        <v>郑州华砂信息技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G14" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>IOS开发工程师-远程办公</v>
       </c>
       <c r="B15" t="str">
-        <v>6-8千/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="G15" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B16" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G16" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="17">
@@ -753,10 +753,10 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
@@ -768,50 +768,50 @@
         <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G17" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android高级开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B18" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G18" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G19" t="str">
         <v>04-15发布</v>
@@ -819,22 +819,22 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Java高级开发工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G20" t="str">
         <v>04-15发布</v>
@@ -842,22 +842,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B21" t="str">
-        <v>1.2-4万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E21" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F21" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G21" t="str">
         <v>04-15发布</v>
@@ -865,22 +865,22 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>0.8-1万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G22" t="str">
         <v>04-15发布</v>
@@ -888,22 +888,22 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B23" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G23" t="str">
         <v>04-15发布</v>
@@ -911,22 +911,22 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>高级应用工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B24" t="str">
-        <v>1.8-2万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E24" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F24" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G24" t="str">
         <v>04-15发布</v>
@@ -934,22 +934,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>前端开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B25" t="str">
         <v>0.6-1万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G25" t="str">
         <v>04-15发布</v>
@@ -957,22 +957,22 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C26" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G26" t="str">
         <v>04-15发布</v>
@@ -980,206 +980,206 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G27" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>移动应用软件开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B28" t="str">
-        <v>4-6千/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C28" t="str">
-        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G28" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>UI设计师</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B29" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C29" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G29" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>云涌科技</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G30" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G31" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>软件UI设计师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B33" t="str">
-        <v>0.4-1万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州华砂信息技术有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G33" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>科技公司-PC端开发专业总监</v>
+        <v>android工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>1-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G34" t="str">
-        <v>04-13发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Java开发工程师</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G35" t="str">
         <v>04-15发布</v>
@@ -1187,71 +1187,71 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>单片机开发工程师</v>
+        <v>移动应用软件开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G36" t="str">
-        <v>04-13发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>游戏推广</v>
+        <v>UI设计师</v>
       </c>
       <c r="B37" t="str">
-        <v>3-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G37" t="str">
-        <v>04-13发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G38" t="str">
-        <v>04-12发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="39">
@@ -1259,45 +1259,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G39" t="str">
-        <v>04-08发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>C++开发工程师</v>
+        <v>科技公司-PC端开发专业总监</v>
       </c>
       <c r="B40" t="str">
-        <v>4-6千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="G40" t="str">
-        <v>04-07发布</v>
+        <v>04-13发布</v>
       </c>
     </row>
     <row r="41">
@@ -1305,180 +1305,180 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G41" t="str">
-        <v>04-03发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>APP开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G42" t="str">
-        <v>04-01发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>4.5-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C43" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G43" t="str">
-        <v>03-30发布</v>
+        <v>04-03发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>互联网产品经理</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G44" t="str">
-        <v>03-29发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>UI设计师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B45" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C45" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G45" t="str">
-        <v>03-28发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B46" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E46" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F46" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G46" t="str">
-        <v>03-25发布</v>
+        <v>03-28发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>技术工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G47" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>UI设计师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>4-6千/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C48" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G48" t="str">
         <v>03-23发布</v>
@@ -1486,114 +1486,114 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>UI设计师</v>
       </c>
       <c r="B49" t="str">
-        <v>1-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Web前端开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B50" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G50" t="str">
-        <v>03-17发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>1-2万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C51" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G51" t="str">
-        <v>03-16发布</v>
+        <v>03-17发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G52" t="str">
-        <v>03-15发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G53" t="str">
         <v>03-15发布</v>
@@ -1601,68 +1601,68 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>渗透测试工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B54" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G54" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G55" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B56" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G56" t="str">
         <v>03-12发布</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B57" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G57" t="str">
         <v>03-12发布</v>
@@ -1693,25 +1693,25 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州中业科技股份有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-中原区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G58" t="str">
-        <v>03-11发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="59">
@@ -1941,53 +1941,53 @@
         <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G68" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>软件开发助理（五险）</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B69" t="str">
-        <v>4-6千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州大宇智慧网络科技有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>软件开发助理（五险）</v>
       </c>
       <c r="B70" t="str">
-        <v>1-2万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C70" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>郑州大宇智慧网络科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="G70" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="71">
@@ -2015,183 +2015,183 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>开发者体验经理/布道师-远程办公</v>
+        <v>产品经理+五险+13薪</v>
       </c>
       <c r="B72" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>共识基石科技（北京）有限公司</v>
+        <v>河南快省信息服务有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="E72" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="F72" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="G72" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>数字钱包及应用产品经理 -远程办公</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>1.5-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C73" t="str">
-        <v>共识基石科技（北京）有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E73" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F73" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G73" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>小程序开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>6-8千/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G74" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>用户增长运营专员</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G75" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B76" t="str">
-        <v>7-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C76" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G76" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师</v>
+        <v>开发者体验经理/布道师-远程办公</v>
       </c>
       <c r="B77" t="str">
-        <v>0.7-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G77" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>高级UI设计师</v>
+        <v>数字钱包及应用产品经理 -远程办公</v>
       </c>
       <c r="B78" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G78" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>DCLOUD工程师</v>
+        <v>用户增长运营专员</v>
       </c>
       <c r="B79" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E79" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F79" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G79" t="str">
         <v>04-15发布</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G80" t="str">
         <v>04-15发布</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>高级驱动工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C81" t="str">
         <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E81" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F81" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G81" t="str">
         <v>04-15发布</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>高级基带工程师</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>3-4万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C82" t="str">
         <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G82" t="str">
         <v>04-15发布</v>
@@ -2268,45 +2268,45 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android软件工程师</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E83" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F83" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G83" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C84" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G84" t="str">
         <v>04-14发布</v>
@@ -2317,19 +2317,19 @@
         <v>嵌入式软件工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>6-8千/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G85" t="str">
         <v>04-14发布</v>
@@ -2337,45 +2337,45 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android高级开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G86" t="str">
-        <v>04-12发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C87" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G87" t="str">
         <v>04-12发布</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>APP开发工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B88" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C88" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
@@ -2406,30 +2406,30 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>高级测试工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G89" t="str">
-        <v>04-08发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>高级UI</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B90" t="str">
         <v>0.8-1.2万/月</v>
@@ -2438,59 +2438,59 @@
         <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G90" t="str">
-        <v>03-21发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B91" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G91" t="str">
-        <v>03-15发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>软件测试工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C92" t="str">
         <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G92" t="str">
         <v>03-15发布</v>
@@ -2498,91 +2498,91 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>UI设计师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C93" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G93" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>技术主管</v>
+        <v>UI设计师</v>
       </c>
       <c r="B94" t="str">
-        <v>1.8-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C94" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G94" t="str">
-        <v>02-28发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android中级开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B95" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C95" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G95" t="str">
-        <v>02-24发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C96" t="str">
         <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E96" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F96" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G96" t="str">
         <v>02-24发布</v>
@@ -2590,53 +2590,76 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>小程序开发实习生</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B97" t="str">
-        <v>3.5-5千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C97" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E97" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F97" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G97" t="str">
-        <v>04-15发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
+        <v>小程序开发实习生</v>
+      </c>
+      <c r="B98" t="str">
+        <v>3.5-5千/月</v>
+      </c>
+      <c r="C98" t="str">
+        <v>郑州白露软件科技有限公司</v>
+      </c>
+      <c r="D98" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="E98" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="F98" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="G98" t="str">
+        <v>04-16发布</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B99" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C99" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D99" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E98" t="str">
+      <c r="E99" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F99" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G98" t="str">
+      <c r="G99" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G98"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G99"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,71 +405,71 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android开发工程师</v>
+        <v>APP产品经理</v>
       </c>
       <c r="B2" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C2" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>前端开发工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.6-1万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G3" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>高薪诚聘    互联网产品经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C4" t="str">
-        <v>河南快省信息服务有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G4" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="5">
@@ -477,551 +477,551 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.5-1.2万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州昊能科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B6" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G6" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android开发工程师</v>
+        <v>移动应用软件开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>0.7-1万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>南京欣网互联网络科技有限公司</v>
+        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师（双休）</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B8" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>急聘Android开发（双休+奖金+五险一金）</v>
+        <v>产品经理+五险+13薪</v>
       </c>
       <c r="B10" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>广东易臣信息技术有限公司</v>
+        <v>河南快省信息服务有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="G10" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G11" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B12" t="str">
-        <v>6-8千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C12" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G13" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>软件UI设计师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.4-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州华砂信息技术有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G14" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>IOS开发工程师-远程办公</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>2-2.5万/月</v>
+        <v>0.5-1.2万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>共识基石科技（北京）有限公司</v>
+        <v>郑州昊能科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E15" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F15" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G15" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G16" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Android开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>1-1.6万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C17" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G17" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G18" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android软件开发工程师</v>
+        <v>Android开发工程师（双休）</v>
       </c>
       <c r="B19" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G19" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>单片机开发工程师</v>
+        <v>软件UI设计师</v>
       </c>
       <c r="B20" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.4-1万/月</v>
       </c>
       <c r="C20" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>郑州华砂信息技术有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G20" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>互联网产品经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C21" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G21" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>C++开发工程师</v>
+        <v>急聘Android开发（双休+奖金+五险一金）</v>
       </c>
       <c r="B22" t="str">
-        <v>4-6千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>广东易臣信息技术有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G22" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G23" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>游戏推广</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>3-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Java开发工程师</v>
+        <v>IOS开发工程师-远程办公</v>
       </c>
       <c r="B25" t="str">
-        <v>0.6-1万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="G25" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android开发工程师</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B26" t="str">
         <v>6-8千/月</v>
       </c>
       <c r="C26" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G26" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Web前端开发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B27" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G27" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>高级硬件架构师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>30-60万/年</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G28" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="29">
@@ -1044,7 +1044,7 @@
         <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G29" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="30">
@@ -1052,68 +1052,68 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G30" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B31" t="str">
-        <v>0.6-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G31" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Java高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>6-8千/月</v>
+        <v>7-8千/月</v>
       </c>
       <c r="C32" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>南京欣网互联网络科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>04-15发布</v>
+        <v>04-18发布</v>
       </c>
     </row>
     <row r="33">
@@ -1136,352 +1136,352 @@
         <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G33" t="str">
-        <v>04-15发布</v>
+        <v>04-18发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G34" t="str">
-        <v>04-15发布</v>
+        <v>04-17发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>高级应用工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E35" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F35" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G35" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>移动应用软件开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>4-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G36" t="str">
-        <v>04-14发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>UI设计师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B37" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G37" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>安卓工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C38" t="str">
-        <v>云涌科技</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G38" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B39" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C39" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G39" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>科技公司-PC端开发专业总监</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B40" t="str">
-        <v>1-2万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C40" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G40" t="str">
-        <v>04-13发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android开发工程师</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>0.5-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G41" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B42" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G42" t="str">
-        <v>04-08发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发工程师</v>
+        <v>科技公司-PC端开发专业总监</v>
       </c>
       <c r="B43" t="str">
-        <v>6-8千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="G43" t="str">
-        <v>04-03发布</v>
+        <v>04-13发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>APP开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G44" t="str">
-        <v>04-01发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>4.5-6千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G45" t="str">
-        <v>03-30发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C46" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G46" t="str">
-        <v>03-28发布</v>
+        <v>04-03发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E47" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F47" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G47" t="str">
-        <v>03-25发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>技术工程师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B48" t="str">
-        <v>4-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C48" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G48" t="str">
-        <v>03-23发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="49">
@@ -1489,206 +1489,206 @@
         <v>UI设计师</v>
       </c>
       <c r="B49" t="str">
-        <v>4-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-23发布</v>
+        <v>03-28发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B50" t="str">
         <v>1-1.5万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G50" t="str">
-        <v>03-22发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Web前端开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B51" t="str">
-        <v>4-8千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C51" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G51" t="str">
-        <v>03-17发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B52" t="str">
-        <v>1-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G52" t="str">
-        <v>03-16发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>安卓端工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C53" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G53" t="str">
-        <v>03-15发布</v>
+        <v>03-17发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G54" t="str">
-        <v>03-15发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>渗透测试工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G55" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android开发工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B56" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G56" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>UI设计师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G57" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="58">
@@ -1696,19 +1696,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G58" t="str">
         <v>03-12发布</v>
@@ -1716,163 +1716,163 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B59" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G59" t="str">
-        <v>03-04发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>技术主管</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>1.8-2万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G60" t="str">
-        <v>03-01发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>软件开发项目经理</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C61" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G61" t="str">
-        <v>02-26发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android资深发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B62" t="str">
-        <v>1.5-2万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G62" t="str">
-        <v>02-24发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>手机软件测试工程师</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B63" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G63" t="str">
-        <v>02-23发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>前端工程师(郑州)</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>上海威盛国际物流有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-郑州航空港区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G64" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android开发工程师(双休+五险一金）</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>河南一部落网络科技有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G65" t="str">
-        <v>02-22发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="66">
@@ -1923,25 +1923,25 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android高级开发工程师</v>
+        <v>软件开发助理（五险）</v>
       </c>
       <c r="B68" t="str">
-        <v>3-6千/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C68" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>郑州大宇智慧网络科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="G68" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="69">
@@ -1964,30 +1964,30 @@
         <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G69" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>软件开发助理（五险）</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>4-6千/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C70" t="str">
-        <v>郑州大宇智慧网络科技有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G70" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="71">
@@ -2015,71 +2015,71 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>产品经理+五险+13薪</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C72" t="str">
-        <v>河南快省信息服务有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G72" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>小程序开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G73" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android开发工程师</v>
+        <v>高薪诚聘    互联网产品经理</v>
       </c>
       <c r="B74" t="str">
-        <v>7-9千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南快省信息服务有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G74" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="75">
@@ -2087,91 +2087,91 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>0.7-1万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C75" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G75" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C76" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G76" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>开发者体验经理/布道师-远程办公</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B77" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C77" t="str">
-        <v>共识基石科技（北京）有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E77" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F77" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G77" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>数字钱包及应用产品经理 -远程办公</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>1.5-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C78" t="str">
-        <v>共识基石科技（北京）有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E78" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F78" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G78" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="79">
@@ -2194,211 +2194,211 @@
         <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G79" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>DCLOUD工程师</v>
+        <v>开发者体验经理/布道师-远程办公</v>
       </c>
       <c r="B80" t="str">
-        <v>0.8-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E80" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F80" t="str">
-        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G80" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>数字钱包及应用产品经理 -远程办公</v>
       </c>
       <c r="B81" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E81" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F81" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G81" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>高级驱动工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>0.5-1.2万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州昊能科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E82" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F82" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G82" t="str">
-        <v>04-15发布</v>
+        <v>04-18发布</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>高级基带工程师</v>
+        <v>DCLOUD工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>3-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E83" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F83" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G83" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Android软件工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G84" t="str">
-        <v>04-14发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>0.5-1万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G85" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>6-8千/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E86" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F86" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G86" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android高级开发工程师</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E87" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F87" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G87" t="str">
-        <v>04-12发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C88" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G88" t="str">
         <v>04-12发布</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>APP开发工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B89" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C89" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
@@ -2429,30 +2429,30 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>高级测试工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C90" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G90" t="str">
-        <v>04-08发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>高级UI</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B91" t="str">
         <v>0.8-1.2万/月</v>
@@ -2461,59 +2461,59 @@
         <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G91" t="str">
-        <v>03-21发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B92" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G92" t="str">
-        <v>03-15发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>软件测试工程师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C93" t="str">
         <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G93" t="str">
         <v>03-15发布</v>
@@ -2521,91 +2521,91 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>UI设计师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C94" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G94" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>技术主管</v>
+        <v>UI设计师</v>
       </c>
       <c r="B95" t="str">
-        <v>1.8-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G95" t="str">
-        <v>02-28发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Android中级开发工程师</v>
+        <v>技术主管</v>
       </c>
       <c r="B96" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C96" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E96" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F96" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G96" t="str">
-        <v>02-24发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>1.5-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C97" t="str">
         <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E97" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F97" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G97" t="str">
         <v>02-24发布</v>
@@ -2613,53 +2613,76 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>小程序开发实习生</v>
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
       </c>
       <c r="B98" t="str">
-        <v>3.5-5千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C98" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="E98" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="F98" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
       </c>
       <c r="G98" t="str">
-        <v>04-16发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
+        <v>小程序开发实习生</v>
+      </c>
+      <c r="B99" t="str">
+        <v>3.5-5千/月</v>
+      </c>
+      <c r="C99" t="str">
+        <v>郑州白露软件科技有限公司</v>
+      </c>
+      <c r="D99" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="E99" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="F99" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="G99" t="str">
+        <v>04-19发布</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B100" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C100" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D100" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E99" t="str">
+      <c r="E100" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F100" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G99" t="str">
+      <c r="G100" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G99"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,48 +405,48 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>APP产品经理</v>
+        <v>移动应用软件开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C2" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>技术工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B3" t="str">
-        <v>4-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G3" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="4">
@@ -469,375 +469,375 @@
         <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G4" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>河南速维电子科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G5" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C6" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G6" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>移动应用软件开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B7" t="str">
-        <v>4-6千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C7" t="str">
-        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G7" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>APP产品经理</v>
       </c>
       <c r="B8" t="str">
         <v>0.8-1.5万/月</v>
       </c>
       <c r="C8" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E8" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F8" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android软件开发工程师</v>
+        <v>技术工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>0.8-1万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C9" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G9" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>产品经理+五险+13薪</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C10" t="str">
-        <v>河南快省信息服务有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G10" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android软件工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G11" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>游戏推广</v>
+        <v>Android开发工程师（双休）</v>
       </c>
       <c r="B12" t="str">
-        <v>3-8千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G12" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Web前端开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B13" t="str">
-        <v>1-1.5万/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E13" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F13" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G13" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C14" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G14" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>0.5-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州昊能科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G15" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Android高级开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B16" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G16" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Java高级开发工程师</v>
+        <v>急聘Android开发（双休+奖金+五险一金）</v>
       </c>
       <c r="B17" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>广东易臣信息技术有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G17" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Java开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G18" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android开发工程师（双休）</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G19" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>软件UI设计师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>0.4-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州华砂信息技术有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G20" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="21">
@@ -845,45 +845,45 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G21" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>急聘Android开发（双休+奖金+五险一金）</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>广东易臣信息技术有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G22" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="23">
@@ -891,22 +891,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G23" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="24">
@@ -914,111 +914,111 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1.2万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>郑州昊能科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G24" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>IOS开发工程师-远程办公</v>
+        <v>软件UI设计师</v>
       </c>
       <c r="B25" t="str">
-        <v>2-2.5万/月</v>
+        <v>0.4-1万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>共识基石科技（北京）有限公司</v>
+        <v>郑州华砂信息技术有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E25" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F25" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G25" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B26" t="str">
-        <v>6-8千/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C26" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G26" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>0.5-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E27" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F27" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G27" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>安卓工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C28" t="str">
-        <v>云涌科技</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G28" t="str">
         <v>04-19发布</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Unity3d讲师</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>河南新华电脑学院</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G29" t="str">
         <v>04-19发布</v>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Android开发工程师</v>
+        <v>产品经理+五险+13薪</v>
       </c>
       <c r="B30" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C30" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>河南快省信息服务有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="G30" t="str">
         <v>04-19发布</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>游戏推广</v>
       </c>
       <c r="B31" t="str">
-        <v>4.5-6千/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C31" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G31" t="str">
         <v>04-19发布</v>
@@ -1095,229 +1095,229 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>7-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>南京欣网互联网络科技有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G32" t="str">
-        <v>04-18发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C33" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D33" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E33" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F33" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G33" t="str">
-        <v>04-18发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>单片机开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C34" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G34" t="str">
-        <v>04-17发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>android工程师</v>
+        <v>IOS开发工程师-远程办公</v>
       </c>
       <c r="B35" t="str">
-        <v>0.8-1万/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="E35" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="F35" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="G35" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android开发工程师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B36" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G36" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>互联网产品经理</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B37" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G37" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>C++开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>4-6千/月</v>
+        <v>7-8千/月</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>南京欣网互联网络科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G38" t="str">
-        <v>04-15发布</v>
+        <v>04-18发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C39" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G39" t="str">
-        <v>04-15发布</v>
+        <v>04-17发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>30-60万/年</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G40" t="str">
-        <v>04-15发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>高级应用工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B41" t="str">
-        <v>1.8-2万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E41" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F41" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G41" t="str">
         <v>04-15发布</v>
@@ -1325,71 +1325,71 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>UI设计师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B42" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C42" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G42" t="str">
-        <v>04-14发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>科技公司-PC端开发专业总监</v>
+        <v>UI设计师</v>
       </c>
       <c r="B43" t="str">
-        <v>1-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G43" t="str">
-        <v>04-13发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android开发工程师</v>
+        <v>科技公司-PC端开发专业总监</v>
       </c>
       <c r="B44" t="str">
-        <v>0.5-1万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C44" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="G44" t="str">
-        <v>04-12发布</v>
+        <v>04-13发布</v>
       </c>
     </row>
     <row r="45">
@@ -1397,22 +1397,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C45" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G45" t="str">
-        <v>04-08发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="46">
@@ -1420,249 +1420,249 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G46" t="str">
-        <v>04-03发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>APP开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C47" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G47" t="str">
-        <v>04-01发布</v>
+        <v>04-03发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G48" t="str">
-        <v>03-30发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>UI设计师</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B49" t="str">
-        <v>0.8-1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C49" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-28发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B50" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E50" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F50" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G50" t="str">
-        <v>03-25发布</v>
+        <v>03-28发布</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>4-6千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C51" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E51" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F51" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G51" t="str">
-        <v>03-23发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>UI设计师</v>
       </c>
       <c r="B52" t="str">
-        <v>1-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G52" t="str">
-        <v>03-22发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Web前端开发工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B53" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C53" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>郑州信大捷安信息技术股份有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
       </c>
       <c r="G53" t="str">
-        <v>03-17发布</v>
+        <v>03-22发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android开发工程师</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>1-2万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南海恩药业有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
       </c>
       <c r="G54" t="str">
-        <v>03-16发布</v>
+        <v>03-17发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C55" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南建达软件有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G55" t="str">
-        <v>03-15发布</v>
+        <v>03-16发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>前端开发工程师(J10325)</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C56" t="str">
-        <v>蜜雪冰城股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E56" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F56" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
+        <v>郑州-中牟县  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G56" t="str">
         <v>03-15发布</v>
@@ -1670,68 +1670,68 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>渗透测试工程师</v>
+        <v>前端开发工程师(J10325)</v>
       </c>
       <c r="B57" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C57" t="str">
-        <v>河南宝通信息安全测评有限公司</v>
+        <v>蜜雪冰城股份有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="E57" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="F57" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招2人</v>
       </c>
       <c r="G57" t="str">
-        <v>03-13发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Android开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C58" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南宝通信息安全测评有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="E58" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="F58" t="str">
-        <v>郑州-金水区  |  2年经验  |  招3人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招5人</v>
       </c>
       <c r="G58" t="str">
-        <v>03-12发布</v>
+        <v>03-13发布</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B59" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C59" t="str">
-        <v>河南采越软件技术股份有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="E59" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="F59" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  招3人</v>
       </c>
       <c r="G59" t="str">
         <v>03-12发布</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B60" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南采越软件技术股份有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E60" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F60" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G60" t="str">
         <v>03-12发布</v>
@@ -1765,157 +1765,157 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>0.5-1.1万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C61" t="str">
-        <v>中国电信集团系统集成有限责任公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E61" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F61" t="str">
-        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G61" t="str">
-        <v>03-04发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>技术主管</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.5-1.1万/月</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>中国电信集团系统集成有限责任公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="E62" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="F62" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  2年经验  |  本科  |  招20人</v>
       </c>
       <c r="G62" t="str">
-        <v>03-01发布</v>
+        <v>03-04发布</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>软件开发项目经理</v>
+        <v>技术主管</v>
       </c>
       <c r="B63" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C63" t="str">
-        <v>河南必达信息技术有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E63" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F63" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G63" t="str">
-        <v>02-26发布</v>
+        <v>03-01发布</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android资深发工程师</v>
+        <v>软件开发项目经理</v>
       </c>
       <c r="B64" t="str">
-        <v>1.5-2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C64" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南必达信息技术有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E64" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F64" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G64" t="str">
-        <v>02-24发布</v>
+        <v>02-26发布</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>手机软件测试工程师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>0.9-1.3万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C65" t="str">
-        <v>郑州昱睿软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E65" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F65" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G65" t="str">
-        <v>02-23发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android工程师(J10282)</v>
+        <v>手机软件测试工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.9-1.3万/月</v>
       </c>
       <c r="C66" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>郑州昱睿软件科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="E66" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="F66" t="str">
-        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招5人</v>
       </c>
       <c r="G66" t="str">
-        <v>02-20发布</v>
+        <v>02-23发布</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>UI设计师（郑州）</v>
+        <v>Android工程师(J10282)</v>
       </c>
       <c r="B67" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C67" t="str">
-        <v>深圳市长亮科技股份有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="E67" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="F67" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
+        <v>郑州-惠济区  |  3-4年经验  |  本科  |  招6人</v>
       </c>
       <c r="G67" t="str">
         <v>02-20发布</v>
@@ -1923,186 +1923,186 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>软件开发助理（五险）</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B68" t="str">
-        <v>4-6千/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州大宇智慧网络科技有限公司</v>
+        <v>深圳市长亮科技股份有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="E68" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="F68" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G68" t="str">
-        <v>04-19发布</v>
+        <v>02-20发布</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>技术支持工程师 (MJ000677)</v>
+        <v>软件开发助理（五险）</v>
       </c>
       <c r="B69" t="str">
-        <v>1-2万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C69" t="str">
-        <v>上海移远通信技术股份有限公司</v>
+        <v>郑州大宇智慧网络科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="E69" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="F69" t="str">
-        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招10人</v>
       </c>
       <c r="G69" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android高级开发工程师</v>
+        <v>技术支持工程师 (MJ000677)</v>
       </c>
       <c r="B70" t="str">
-        <v>3-6千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C70" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>上海移远通信技术股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="E70" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="F70" t="str">
-        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
+        <v>郑州  |  在校生/应届生  |  大专  |  招1人</v>
       </c>
       <c r="G70" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>5.5-8千/月</v>
+        <v>3-6千/月</v>
       </c>
       <c r="C71" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>深圳比特耐特信息技术股份有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="E71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="F71" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  在校生/应届生  |  本科  |  招4人</v>
       </c>
       <c r="G71" t="str">
-        <v>04-15发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Android/Linux驱动工程师（实习）</v>
       </c>
       <c r="B72" t="str">
-        <v>0.5-1万/月</v>
+        <v>5.5-8千/月</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="E72" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="F72" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-郑东新区  |  无需经验  |  本科  |  招2人</v>
       </c>
       <c r="G72" t="str">
-        <v>04-19发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>前端开发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C73" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E73" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F73" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G73" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>高薪诚聘    互联网产品经理</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C74" t="str">
-        <v>河南快省信息服务有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F74" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G74" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android开发工程师</v>
+        <v>小程序开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>7-9千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="E75" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="F75" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
       </c>
       <c r="G75" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="76">
@@ -2110,68 +2110,68 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>0.7-1万/月</v>
+        <v>7-9千/月</v>
       </c>
       <c r="C76" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E76" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F76" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
+        <v>郑州-管城回族区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G76" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>高级UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.7-1万/月</v>
       </c>
       <c r="C77" t="str">
         <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="E77" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="F77" t="str">
-        <v>郑州  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招4人</v>
       </c>
       <c r="G77" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>小程序开发工程师</v>
+        <v>高级UI设计师</v>
       </c>
       <c r="B78" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="E78" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="F78" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招5人</v>
+        <v>郑州  |  招2人</v>
       </c>
       <c r="G78" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="79">
@@ -2194,76 +2194,76 @@
         <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G79" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>开发者体验经理/布道师-远程办公</v>
+        <v>LINUX底层开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>1.5-2万/月</v>
+        <v>1.2-1.8万/月</v>
       </c>
       <c r="C80" t="str">
-        <v>共识基石科技（北京）有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E80" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F80" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G80" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>数字钱包及应用产品经理 -远程办公</v>
+        <v>高级驱动工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>1.5-2万/月</v>
+        <v>3.7-3.8万/月</v>
       </c>
       <c r="C81" t="str">
-        <v>共识基石科技（北京）有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E81" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F81" t="str">
-        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G81" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android开发工程师</v>
+        <v>高级基带工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>0.5-1.2万/月</v>
+        <v>3-4万/月</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州昊能科技有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E82" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F82" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G82" t="str">
-        <v>04-18发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="83">
@@ -2286,165 +2286,165 @@
         <v>郑州-高新区  |  3-4年经验  |  本科  |  招3人</v>
       </c>
       <c r="G83" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高薪诚聘    互联网产品经理</v>
       </c>
       <c r="B84" t="str">
-        <v>6-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C84" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>河南快省信息服务有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E84" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F84" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G84" t="str">
-        <v>04-16发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>LINUX底层开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>1.2-1.8万/月</v>
+        <v>0.5-1.2万/月</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>郑州昊能科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E85" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F85" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G85" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>高级驱动工程师</v>
+        <v>开发者体验经理/布道师-远程办公</v>
       </c>
       <c r="B86" t="str">
-        <v>3.7-3.8万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C86" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E86" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F86" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G86" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>高级基带工程师</v>
+        <v>数字钱包及应用产品经理 -远程办公</v>
       </c>
       <c r="B87" t="str">
-        <v>3-4万/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E87" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F87" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招1人</v>
+        <v>异地招聘  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G87" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>0.8-1.7万/月</v>
+        <v>0.5-1.2万/月</v>
       </c>
       <c r="C88" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州昊能科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E88" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F88" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G88" t="str">
-        <v>04-12发布</v>
+        <v>04-18发布</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>软件开发工程师（Android）</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C89" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E89" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F89" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G89" t="str">
-        <v>04-12发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>APP开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>0.7-1.5万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C90" t="str">
         <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F90" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G90" t="str">
         <v>04-12发布</v>
@@ -2452,237 +2452,283 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>高级测试工程师</v>
+        <v>软件开发工程师（Android）</v>
       </c>
       <c r="B91" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C91" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E91" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F91" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G91" t="str">
-        <v>04-08发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>高级UI</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.7-1.5万/月</v>
       </c>
       <c r="C92" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E92" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F92" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-二七区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G92" t="str">
-        <v>03-21发布</v>
+        <v>04-12发布</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>IOS、安卓前端研发工程师</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>0.6-1.2万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C93" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="E93" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="F93" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招3人</v>
       </c>
       <c r="G93" t="str">
-        <v>03-15发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>软件测试工程师</v>
+        <v>高级UI</v>
       </c>
       <c r="B94" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C94" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E94" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F94" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G94" t="str">
-        <v>03-15发布</v>
+        <v>03-21发布</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>UI设计师</v>
+        <v>IOS、安卓前端研发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C95" t="str">
-        <v>河南万鲸科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E95" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F95" t="str">
-        <v>郑州-金水区  |  2年经验  |  招若干人</v>
+        <v>郑州  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G95" t="str">
-        <v>03-12发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>技术主管</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C96" t="str">
-        <v>郑州振翅网络科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="E96" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="F96" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招1人</v>
       </c>
       <c r="G96" t="str">
-        <v>02-28发布</v>
+        <v>03-15发布</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Android中级开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B97" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C97" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>河南万鲸科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="E97" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="F97" t="str">
-        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  2年经验  |  招若干人</v>
       </c>
       <c r="G97" t="str">
-        <v>02-24发布</v>
+        <v>03-12发布</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Android高级开发工程师(郑州--电力--双休)</v>
+        <v>技术主管</v>
       </c>
       <c r="B98" t="str">
-        <v>1.5-2万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C98" t="str">
-        <v>河南哈夫曼信息科技有限公司</v>
+        <v>郑州振翅网络科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E98" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F98" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G98" t="str">
-        <v>02-24发布</v>
+        <v>02-28发布</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>小程序开发实习生</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>3.5-5千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C99" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="E99" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="F99" t="str">
-        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+        <v>郑州-二七区  |  2年经验  |  大专  |  招25人</v>
       </c>
       <c r="G99" t="str">
-        <v>04-19发布</v>
+        <v>02-24发布</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
+        <v>Android高级开发工程师(郑州--电力--双休)</v>
+      </c>
+      <c r="B100" t="str">
+        <v>1.5-2万/月</v>
+      </c>
+      <c r="C100" t="str">
+        <v>河南哈夫曼信息科技有限公司</v>
+      </c>
+      <c r="D100" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="E100" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="F100" t="str">
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招25人</v>
+      </c>
+      <c r="G100" t="str">
+        <v>02-24发布</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>小程序开发实习生</v>
+      </c>
+      <c r="B101" t="str">
+        <v>3.5-5千/月</v>
+      </c>
+      <c r="C101" t="str">
+        <v>郑州白露软件科技有限公司</v>
+      </c>
+      <c r="D101" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="E101" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="F101" t="str">
+        <v>郑州-中原区  |  在校生/应届生  |  大专  |  招3人</v>
+      </c>
+      <c r="G101" t="str">
+        <v>04-20发布</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
         <v>渗透测试工程师</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B102" t="str">
         <v>5-8千/月</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C102" t="str">
         <v>河南宝通信息安全测评有限公司</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D102" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="E100" t="str">
+      <c r="E102" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F102" t="str">
         <v>郑州-金水区  |  在校生/应届生  |  本科  |  招5人</v>
       </c>
-      <c r="G100" t="str">
+      <c r="G102" t="str">
         <v>03-13发布</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G102"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
+++ b/app/src/main/assets/【郑州,android招聘，求职】-前程无忧.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,140 +405,140 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>移动应用软件开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>4-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C2" t="str">
-        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
+        <v>郑州中兴产业园有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E2" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F2" t="str">
-        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G2" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师（周末双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>0.8-1万/月</v>
+        <v>5-9千/月</v>
       </c>
       <c r="C3" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>郑州博乐信息技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F3" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G3" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>软件UI设计师</v>
       </c>
       <c r="B4" t="str">
-        <v>6-9千/月</v>
+        <v>0.4-1万/月</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>郑州华砂信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E4" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F4" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G4" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>软件工程师</v>
+        <v>Android开发工程师（周末双休）</v>
       </c>
       <c r="B5" t="str">
         <v>0.8-1万/月</v>
       </c>
       <c r="C5" t="str">
-        <v>河南速维电子科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="E5" t="str">
-        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="F5" t="str">
-        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招3人</v>
       </c>
       <c r="G5" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>移动应用软件开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C6" t="str">
-        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
+        <v>中华全国供销合作总社郑州棉麻工程技术设计研究所</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E6" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F6" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-郑州航空港区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G6" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>技术工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4-8千/月</v>
       </c>
       <c r="C7" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南景蓝电子科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E7" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F7" t="str">
-        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G7" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="8">
@@ -561,582 +561,582 @@
         <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G8" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>技术工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>4-8千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C9" t="str">
-        <v>河南景蓝电子科技有限公司</v>
+        <v>北京昱达天丽科技发展有限公司郑州分公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E9" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F9" t="str">
-        <v>郑州-金水区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-管城回族区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G9" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-9千/月</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E10" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F10" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G10" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Java开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C11" t="str">
-        <v>河南中原有色信息有限公司</v>
+        <v>河南速维电子科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E11" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F11" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G11" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android开发工程师（双休）</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B12" t="str">
-        <v>0.6-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州白露软件科技有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E12" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F12" t="str">
-        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G12" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>IT工程师技术员Java，PHP，c#等</v>
+        <v>产品经理+五险+13薪</v>
       </c>
       <c r="B13" t="str">
-        <v>1.2-4万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C13" t="str">
-        <v>湖北一片语科技有限公司</v>
+        <v>河南快省信息服务有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="E13" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="F13" t="str">
-        <v>异地招聘  |  本科  |  招20人</v>
+        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
       </c>
       <c r="G13" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android高级开发工程师</v>
+        <v>游戏推广</v>
       </c>
       <c r="B14" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>3-8千/月</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州万亨网络技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="E14" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="F14" t="str">
-        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
       </c>
       <c r="G14" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>0.8-1.2万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C15" t="str">
-        <v>云涌科技</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="E15" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="F15" t="str">
-        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
+        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
       </c>
       <c r="G15" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>高级硬件架构师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>30-60万/年</v>
+        <v>0.5-1.2万/月</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>郑州昊能科技有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F16" t="str">
-        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G16" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>急聘Android开发（双休+奖金+五险一金）</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>0.8-1.3万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C17" t="str">
-        <v>广东易臣信息技术有限公司</v>
+        <v>河南中原有色信息有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E17" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F17" t="str">
-        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G17" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>0.8-1.2万/月</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="E18" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="F18" t="str">
-        <v>郑州-郑东新区  |  1年经验  |  本科  |  招3人</v>
+        <v>郑州-高新区  |  1年经验  |  本科  |  招2人</v>
       </c>
       <c r="G18" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>java/net/web/软件研发工程师</v>
+        <v>Android软件工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>6-8千/月</v>
+        <v>0.6-1.2万/月</v>
       </c>
       <c r="C19" t="str">
-        <v>中讯志远（武汉）科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="E19" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="F19" t="str">
-        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招1人</v>
       </c>
       <c r="G19" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Java高级开发工程师</v>
+        <v>高级硬件架构师</v>
       </c>
       <c r="B20" t="str">
-        <v>6-8千/月</v>
+        <v>30-60万/年</v>
       </c>
       <c r="C20" t="str">
-        <v>北京时代华擎信息技术有限公司</v>
+        <v>郑州恩普特科技股份有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="E20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="F20" t="str">
-        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  10年以上经验  |  硕士  |  招若干人</v>
       </c>
       <c r="G20" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>1-1.6万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C21" t="str">
-        <v>南京北路软件技术有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="E21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="F21" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州  |  2年经验  |  本科  |  招1人</v>
       </c>
       <c r="G21" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>C++开发工程师</v>
+        <v>Cocos2d-x 开发工程师（郑州）</v>
       </c>
       <c r="B22" t="str">
-        <v>4-6千/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州郑飞科技有限责任公司</v>
+        <v>上海研游网络科技有限公司广州分公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F22" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G22" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Android开发工程师</v>
+        <v>单片机开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.5万/月</v>
       </c>
       <c r="C23" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>河南伊赛尔电子商务有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E23" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F23" t="str">
-        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G23" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>0.5-1.2万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州昊能科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E24" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F24" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G24" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>软件UI设计师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>0.4-1万/月</v>
+        <v>0.8-1.7万/月</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州华砂信息技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="E25" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="F25" t="str">
-        <v>郑州-新郑市  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-二七区  |  5-7年经验  |  本科  |  招5人</v>
       </c>
       <c r="G25" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>小程序开发工程师助理</v>
+        <v>Android开发工程师（双休）</v>
       </c>
       <c r="B26" t="str">
-        <v>4.5-6千/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C26" t="str">
-        <v>河南艾茵斯物联网科技有限公司</v>
+        <v>郑州白露软件科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="E26" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="F26" t="str">
-        <v>郑州  |  无需经验  |  中专  |  招16人</v>
+        <v>郑州-金水区  |  无需经验  |  大专  |  招2人</v>
       </c>
       <c r="G26" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>高级应用工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>1.8-2万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州煤矿机械集团股份有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E27" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F27" t="str">
-        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G27" t="str">
-        <v>04-20发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>上海睿芽教育科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E28" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F28" t="str">
-        <v>郑州  |  2年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G28" t="str">
-        <v>04-19发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android软件开发工程师</v>
+        <v>急聘Android开发（双休+奖金+五险一金）</v>
       </c>
       <c r="B29" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.8-1.3万/月</v>
       </c>
       <c r="C29" t="str">
-        <v>云计划软件科技（上海）有限公司</v>
+        <v>广东易臣信息技术有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="E29" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="F29" t="str">
-        <v>郑州  |  2年经验  |  大专  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  本科  |  招若干人</v>
       </c>
       <c r="G29" t="str">
-        <v>04-19发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>产品经理+五险+13薪</v>
+        <v>java/net/web/软件研发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>0.8-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C30" t="str">
-        <v>河南快省信息服务有限公司</v>
+        <v>中讯志远（武汉）科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E30" t="str">
-        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F30" t="str">
-        <v>郑州-金水区  |  2年经验  |  中专  |  招2人</v>
+        <v>郑州-经开区  |  2年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G30" t="str">
-        <v>04-19发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>游戏推广</v>
+        <v>UI设计师</v>
       </c>
       <c r="B31" t="str">
-        <v>3-8千/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州万亨网络技术有限公司</v>
+        <v>湖南金烽信息科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F31" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G31" t="str">
-        <v>04-19发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州金特莱电子有限公司</v>
+        <v>深圳市天龙科技有限公司郑州分公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="E32" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="F32" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
       </c>
       <c r="G32" t="str">
-        <v>04-19发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>0.6-1万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C33" t="str">
-        <v>深圳市天龙科技有限公司郑州分公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E33" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F33" t="str">
-        <v>郑州-管城回族区  |  2年经验  |  本科  |  招2人</v>
+        <v>郑州  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G33" t="str">
-        <v>04-19发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="34">
@@ -1144,252 +1144,252 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.6万/月</v>
       </c>
       <c r="C34" t="str">
-        <v>上海睿芽教育科技有限公司</v>
+        <v>南京北路软件技术有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="E34" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="F34" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  3-4年经验  |  本科  |  招2人</v>
       </c>
       <c r="G34" t="str">
-        <v>04-19发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>IOS开发工程师-远程办公</v>
+        <v>小程序开发工程师助理</v>
       </c>
       <c r="B35" t="str">
-        <v>2-2.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C35" t="str">
-        <v>共识基石科技（北京）有限公司</v>
+        <v>河南艾茵斯物联网科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="E35" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="F35" t="str">
-        <v>异地招聘  |  3-4年经验  |  招若干人</v>
+        <v>郑州  |  无需经验  |  中专  |  招16人</v>
       </c>
       <c r="G35" t="str">
-        <v>04-19发布</v>
+        <v>04-21发布</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>中级测试工程师（河南研发中心）</v>
+        <v>Android软件开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>0.5-1万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C36" t="str">
-        <v>成都佳发安泰教育科技股份有限公司</v>
+        <v>云计划软件科技（上海）有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E36" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F36" t="str">
-        <v>郑州  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G36" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Unity3d讲师</v>
+        <v>Android资深发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6-8千/月</v>
+        <v>1.5-2万/月</v>
       </c>
       <c r="C37" t="str">
-        <v>河南新华电脑学院</v>
+        <v>河南哈夫曼信息科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E37" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F37" t="str">
-        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
+        <v>郑州-二七区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G37" t="str">
-        <v>04-19发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android开发工程师</v>
+        <v>IT工程师技术员Java，PHP，c#等</v>
       </c>
       <c r="B38" t="str">
-        <v>7-8千/月</v>
+        <v>1.2-4万/月</v>
       </c>
       <c r="C38" t="str">
-        <v>南京欣网互联网络科技有限公司</v>
+        <v>湖北一片语科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="E38" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="F38" t="str">
-        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  本科  |  招20人</v>
       </c>
       <c r="G38" t="str">
-        <v>04-18发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>单片机开发工程师</v>
+        <v>C++开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>0.8-1.5万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C39" t="str">
-        <v>河南伊赛尔电子商务有限公司</v>
+        <v>郑州郑飞科技有限责任公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E39" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F39" t="str">
-        <v>郑州-惠济区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  1年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G39" t="str">
-        <v>04-17发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android开发工程师</v>
+        <v>高级应用工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>0.6-1万/月</v>
+        <v>1.8-2万/月</v>
       </c>
       <c r="C40" t="str">
-        <v>河南盛苑实业有限公司</v>
+        <v>郑州煤矿机械集团股份有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E40" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F40" t="str">
-        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
+        <v>异地招聘  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G40" t="str">
-        <v>04-16发布</v>
+        <v>04-20发布</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>互联网产品经理</v>
+        <v>Web前端开发工程师</v>
       </c>
       <c r="B41" t="str">
         <v>1-1.5万/月</v>
       </c>
       <c r="C41" t="str">
-        <v>河南腾宇安装工程集团有限公司</v>
+        <v>郑州金特莱电子有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E41" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F41" t="str">
-        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
+        <v>郑州-经开区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G41" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Cocos2d-x 开发工程师（郑州）</v>
+        <v>IOS开发工程师-远程办公</v>
       </c>
       <c r="B42" t="str">
-        <v>6-8千/月</v>
+        <v>2-2.5万/月</v>
       </c>
       <c r="C42" t="str">
-        <v>上海研游网络科技有限公司广州分公司</v>
+        <v>共识基石科技（北京）有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="E42" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="F42" t="str">
-        <v>郑州-高新区  |  1年经验  |  大专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  招若干人</v>
       </c>
       <c r="G42" t="str">
-        <v>04-15发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>UI设计师</v>
+        <v>中级测试工程师（河南研发中心）</v>
       </c>
       <c r="B43" t="str">
-        <v>0.8-1万/月</v>
+        <v>0.5-1万/月</v>
       </c>
       <c r="C43" t="str">
-        <v>深圳市泰伦理信商务服务有限公司</v>
+        <v>成都佳发安泰教育科技股份有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E43" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F43" t="str">
-        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G43" t="str">
-        <v>04-14发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>科技公司-PC端开发专业总监</v>
+        <v>Unity3d讲师</v>
       </c>
       <c r="B44" t="str">
-        <v>1-2万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C44" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>河南新华电脑学院</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="E44" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="F44" t="str">
-        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
+        <v>郑州-中原区  |  1年经验  |  大专  |  招2人</v>
       </c>
       <c r="G44" t="str">
-        <v>04-13发布</v>
+        <v>04-19发布</v>
       </c>
     </row>
     <row r="45">
@@ -1397,22 +1397,22 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>0.5-1万/月</v>
+        <v>7-8千/月</v>
       </c>
       <c r="C45" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>南京欣网互联网络科技有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="E45" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="F45" t="str">
-        <v>郑州-二七区  |  3-4年经验  |  本科  |  招2人</v>
+        <v>郑州-金水区  |  2年经验  |  大专  |  招2人</v>
       </c>
       <c r="G45" t="str">
-        <v>04-12发布</v>
+        <v>04-18发布</v>
       </c>
     </row>
     <row r="46">
@@ -1420,114 +1420,114 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>1-1.5万/月</v>
+        <v>0.6-1万/月</v>
       </c>
       <c r="C46" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="E46" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="F46" t="str">
-        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
+        <v>郑州-高新区  |  2年经验  |  大专  |  招3人</v>
       </c>
       <c r="G46" t="str">
-        <v>04-08发布</v>
+        <v>04-16发布</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android开发工程师</v>
+        <v>互联网产品经理</v>
       </c>
       <c r="B47" t="str">
-        <v>6-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州熙云科技有限公司</v>
+        <v>河南腾宇安装工程集团有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="E47" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="F47" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
+        <v>郑州-金水区  |  5-7年经验  |  本科  |  招1人</v>
       </c>
       <c r="G47" t="str">
-        <v>04-03发布</v>
+        <v>04-15发布</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>APP开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B48" t="str">
-        <v>0.6-1.5万/月</v>
+        <v>0.8-1万/月</v>
       </c>
       <c r="C48" t="str">
-        <v>河南信念晨帆软件科技有限公司</v>
+        <v>深圳市泰伦理信商务服务有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="E48" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="F48" t="str">
-        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
+        <v>郑州-郑州航空港区  |  3-4年经验  |  大专  |  招若干人</v>
       </c>
       <c r="G48" t="str">
-        <v>04-01发布</v>
+        <v>04-14发布</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>软件测试（双休+补贴）</v>
+        <v>科技公司-PC端开发专业总监</v>
       </c>
       <c r="B49" t="str">
-        <v>4.5-6千/月</v>
+        <v>1-2万/月</v>
       </c>
       <c r="C49" t="str">
-        <v>成都红耀科技有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="E49" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="F49" t="str">
-        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  8-9年经验  |  本科  |  招2人</v>
       </c>
       <c r="G49" t="str">
-        <v>03-30发布</v>
+        <v>04-13发布</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>UI设计师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>0.8-1万/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C50" t="str">
-        <v>湖南金烽信息科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="E50" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="F50" t="str">
-        <v>郑州-金水区  |  3-4年经验  |  大专  |  招若干人</v>
+        <v>郑州-郑东新区  |  3-4年经验  |  大专  |  招2人</v>
       </c>
       <c r="G50" t="str">
-        <v>03-28发布</v>
+        <v>04-08发布</v>
       </c>
     </row>
     <row r="51">
@@ -1535,252 +1535,252 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>1-1.5万/月</v>
+        <v>6-8千/月</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州有充智能科技有限公司</v>
+        <v>郑州熙云科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="E51" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="F51" t="str">
-        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
+        <v>郑州-金水区  |  3-4年经验  |  大专  |  招1人</v>
       </c>
       <c r="G51" t="str">
-        <v>03-25发布</v>
+        <v>04-03发布</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>UI设计师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>4-6千/月</v>
+        <v>0.6-1.5万/月</v>
       </c>
       <c r="C52" t="str">
-        <v>河南弥纶软件科技有限公司</v>
+        <v>河南信念晨帆软件科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="E52" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="F52" t="str">
-        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
+        <v>郑州-高新区  |  2年经验  |  本科  |  招3人</v>
       </c>
       <c r="G52" t="str">
-        <v>03-23发布</v>
+        <v>04-01发布</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>软件测试（双休+补贴）</v>
       </c>
       <c r="B53" t="str">
-        <v>1-1.5万/月</v>
+        <v>4.5-6千/月</v>
       </c>
       <c r="C53" t="str">
-        <v>郑州信大捷安信息技术股份有限公司</v>
+        <v>成都红耀科技有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="E53" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="F53" t="str">
-        <v>郑州  |  5-7年经验  |  本科  |  招4人</v>
+        <v>郑州-郑东新区  |  无需经验  |  大专  |  招若干人</v>
       </c>
       <c r="G53" t="str">
-        <v>03-22发布</v>
+        <v>03-30发布</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Web前端开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>4-8千/月</v>
+        <v>1-1.5万/月</v>
       </c>
       <c r="C54" t="str">
-        <v>河南海恩药业有限公司</v>
+        <v>郑州有充智能科技有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="E54" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="F54" t="str">
-        <v>郑州-经开区  |  3-4年经验  |  中专  |  招2人</v>
+        <v>异地招聘  |  3-4年经验  |  本科  |  招5人</v>
       </c>
       <c r="G54" t="str">
-        <v>03-17发布</v>
+        <v>03-25发布</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B55" t="str">
-        <v>1-2万/月</v>
+        <v>4-6千/月</v>
       </c>
       <c r="C55" t="str">
-        <v>河南建达软件有限公司</v>
+        <v>河南弥纶软件科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="E55" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="F55" t="str">
-        <v>郑州-管城回族区  |  3-4年经验  |  本科  |  招若干人</v>
+        <v>郑州-金水区  |  1年经验  |  本科  |  招1人</v>
       </c>
       <c r="G55" t="str">
-        <v>03-16发布</v>
+        <v>03-23发布</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>安卓端工程师</v>
+  